--- a/data_month/zb/价格指数/商品零售价格分类指数(上月=100)/商品零售价格指数(上月=100).xlsx
+++ b/data_month/zb/价格指数/商品零售价格分类指数(上月=100)/商品零售价格指数(上月=100).xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -523,7248 +523,7248 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2011年10月</t>
+          <t>2011-04</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>100.09036557</v>
+        <v>100.3</v>
       </c>
       <c r="C2" t="n">
-        <v>100.12375977</v>
+        <v>100</v>
       </c>
       <c r="D2" t="n">
-        <v>99.66702493</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="E2" t="n">
-        <v>100.02976531</v>
+        <v>100</v>
       </c>
       <c r="F2" t="n">
-        <v>100.16600356</v>
+        <v>100.2</v>
       </c>
       <c r="G2" t="n">
-        <v>99.9260771</v>
+        <v>100.2</v>
       </c>
       <c r="H2" t="n">
-        <v>100.19725574</v>
+        <v>100.3</v>
       </c>
       <c r="I2" t="n">
-        <v>99.63918265</v>
+        <v>99.8</v>
       </c>
       <c r="J2" t="n">
-        <v>99.75999179</v>
+        <v>100.6</v>
       </c>
       <c r="K2" t="n">
-        <v>99.84911228999999</v>
+        <v>99.8</v>
       </c>
       <c r="L2" t="n">
-        <v>100.25271447</v>
+        <v>100.4</v>
       </c>
       <c r="M2" t="n">
-        <v>101.57335239</v>
+        <v>100.6</v>
       </c>
       <c r="N2" t="n">
-        <v>99.10437644</v>
+        <v>103.2</v>
       </c>
       <c r="O2" t="n">
-        <v>100.30474168</v>
+        <v>100.5</v>
       </c>
       <c r="P2" t="n">
-        <v>96.21314087</v>
+        <v>102</v>
       </c>
       <c r="Q2" t="n">
-        <v>99.77017536</v>
+        <v>99.5</v>
       </c>
       <c r="R2" t="n">
-        <v>100.4784085</v>
+        <v>100.4</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2011年11月</t>
+          <t>2011-05</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>100.11818628</v>
+        <v>100.4</v>
       </c>
       <c r="C3" t="n">
-        <v>100.03468461</v>
+        <v>100</v>
       </c>
       <c r="D3" t="n">
-        <v>99.77212691</v>
+        <v>99.5</v>
       </c>
       <c r="E3" t="n">
-        <v>100.12546361</v>
+        <v>100.1</v>
       </c>
       <c r="F3" t="n">
-        <v>100.16624609</v>
+        <v>100.1</v>
       </c>
       <c r="G3" t="n">
-        <v>99.93067472</v>
+        <v>100.1</v>
       </c>
       <c r="H3" t="n">
-        <v>100.29536055</v>
+        <v>100.2</v>
       </c>
       <c r="I3" t="n">
-        <v>100.075754</v>
+        <v>99.8</v>
       </c>
       <c r="J3" t="n">
-        <v>99.90867591999999</v>
+        <v>100.5</v>
       </c>
       <c r="K3" t="n">
-        <v>100.11385722</v>
+        <v>99.8</v>
       </c>
       <c r="L3" t="n">
-        <v>100.18758003</v>
+        <v>100.3</v>
       </c>
       <c r="M3" t="n">
-        <v>101.50178868</v>
+        <v>100.5</v>
       </c>
       <c r="N3" t="n">
-        <v>99.61952745000001</v>
+        <v>101</v>
       </c>
       <c r="O3" t="n">
-        <v>100.50145938</v>
+        <v>100.6</v>
       </c>
       <c r="P3" t="n">
-        <v>101.36416224</v>
+        <v>102</v>
       </c>
       <c r="Q3" t="n">
-        <v>99.23527051000001</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="R3" t="n">
-        <v>100.2828026</v>
+        <v>100.4</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2011年12月</t>
+          <t>2011-06</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>100.12531223</v>
+        <v>100.5</v>
       </c>
       <c r="C4" t="n">
-        <v>100.04944181</v>
+        <v>100</v>
       </c>
       <c r="D4" t="n">
-        <v>99.66299443</v>
+        <v>99.5</v>
       </c>
       <c r="E4" t="n">
-        <v>100.01009799</v>
+        <v>100.1</v>
       </c>
       <c r="F4" t="n">
-        <v>100.0409197</v>
+        <v>100.2</v>
       </c>
       <c r="G4" t="n">
-        <v>100.35810949</v>
+        <v>100.2</v>
       </c>
       <c r="H4" t="n">
-        <v>99.70058077</v>
+        <v>100.3</v>
       </c>
       <c r="I4" t="n">
-        <v>99.64225424999999</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="J4" t="n">
-        <v>99.85518709999999</v>
+        <v>100.3</v>
       </c>
       <c r="K4" t="n">
-        <v>99.88417574</v>
+        <v>99.8</v>
       </c>
       <c r="L4" t="n">
-        <v>100.02780292</v>
+        <v>100.3</v>
       </c>
       <c r="M4" t="n">
-        <v>100.22424434</v>
+        <v>99.8</v>
       </c>
       <c r="N4" t="n">
-        <v>100.15436671</v>
+        <v>99.3</v>
       </c>
       <c r="O4" t="n">
-        <v>99.93235073</v>
+        <v>100.2</v>
       </c>
       <c r="P4" t="n">
-        <v>97.48005637</v>
+        <v>100.5</v>
       </c>
       <c r="Q4" t="n">
-        <v>101.34416363</v>
+        <v>100.9</v>
       </c>
       <c r="R4" t="n">
-        <v>100.35568326</v>
+        <v>100.3</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2011年4月</t>
+          <t>2011-07</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>100.3</v>
+        <v>100.53413734</v>
       </c>
       <c r="C5" t="n">
-        <v>100</v>
+        <v>100.03095098</v>
       </c>
       <c r="D5" t="n">
-        <v>99.59999999999999</v>
+        <v>99.56816651</v>
       </c>
       <c r="E5" t="n">
-        <v>100</v>
+        <v>100.037325</v>
       </c>
       <c r="F5" t="n">
-        <v>100.2</v>
+        <v>100.07536958</v>
       </c>
       <c r="G5" t="n">
-        <v>100.2</v>
+        <v>100.30908191</v>
       </c>
       <c r="H5" t="n">
-        <v>100.3</v>
+        <v>100.08073747</v>
       </c>
       <c r="I5" t="n">
-        <v>99.8</v>
+        <v>99.82158744</v>
       </c>
       <c r="J5" t="n">
-        <v>100.6</v>
+        <v>100.13561836</v>
       </c>
       <c r="K5" t="n">
-        <v>99.8</v>
+        <v>99.75187103</v>
       </c>
       <c r="L5" t="n">
-        <v>100.4</v>
+        <v>100.26838321</v>
       </c>
       <c r="M5" t="n">
-        <v>100.6</v>
+        <v>99.40129567</v>
       </c>
       <c r="N5" t="n">
-        <v>103.2</v>
+        <v>99.79013208000001</v>
       </c>
       <c r="O5" t="n">
-        <v>100.5</v>
+        <v>100.24859557</v>
       </c>
       <c r="P5" t="n">
-        <v>102</v>
+        <v>100.4564055</v>
       </c>
       <c r="Q5" t="n">
-        <v>99.5</v>
+        <v>101.17997041</v>
       </c>
       <c r="R5" t="n">
-        <v>100.4</v>
+        <v>100.24231765</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2011年5月</t>
+          <t>2011-08</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>100.4</v>
+        <v>100.46234586</v>
       </c>
       <c r="C6" t="n">
-        <v>100</v>
+        <v>100.05409401</v>
       </c>
       <c r="D6" t="n">
-        <v>99.5</v>
+        <v>99.68082604999999</v>
       </c>
       <c r="E6" t="n">
-        <v>100.1</v>
+        <v>100.18814451</v>
       </c>
       <c r="F6" t="n">
-        <v>100.1</v>
+        <v>100.33811372</v>
       </c>
       <c r="G6" t="n">
-        <v>100.1</v>
+        <v>100.31768891</v>
       </c>
       <c r="H6" t="n">
-        <v>100.2</v>
+        <v>100.29787569</v>
       </c>
       <c r="I6" t="n">
-        <v>99.8</v>
+        <v>99.79399816999999</v>
       </c>
       <c r="J6" t="n">
-        <v>100.5</v>
+        <v>100.28115771</v>
       </c>
       <c r="K6" t="n">
-        <v>99.8</v>
+        <v>99.77026441</v>
       </c>
       <c r="L6" t="n">
-        <v>100.3</v>
+        <v>100.31712442</v>
       </c>
       <c r="M6" t="n">
-        <v>100.5</v>
+        <v>99.96896314</v>
       </c>
       <c r="N6" t="n">
-        <v>101</v>
+        <v>100.1445457</v>
       </c>
       <c r="O6" t="n">
-        <v>100.6</v>
+        <v>100.2497986</v>
       </c>
       <c r="P6" t="n">
-        <v>102</v>
+        <v>104.80958888</v>
       </c>
       <c r="Q6" t="n">
-        <v>99.59999999999999</v>
+        <v>100.61608708</v>
       </c>
       <c r="R6" t="n">
-        <v>100.4</v>
+        <v>100.22815883</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2011年6月</t>
+          <t>2011-09</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>100.5</v>
+        <v>100.17207555</v>
       </c>
       <c r="C7" t="n">
-        <v>100</v>
+        <v>100.14898315</v>
       </c>
       <c r="D7" t="n">
-        <v>99.5</v>
+        <v>99.58714558</v>
       </c>
       <c r="E7" t="n">
-        <v>100.1</v>
+        <v>100.06979698</v>
       </c>
       <c r="F7" t="n">
-        <v>100.2</v>
+        <v>100.15722673</v>
       </c>
       <c r="G7" t="n">
-        <v>100.2</v>
+        <v>100.49866494</v>
       </c>
       <c r="H7" t="n">
-        <v>100.3</v>
+        <v>100.09076826</v>
       </c>
       <c r="I7" t="n">
-        <v>99.90000000000001</v>
+        <v>99.60013309999999</v>
       </c>
       <c r="J7" t="n">
-        <v>100.3</v>
+        <v>100.17923867</v>
       </c>
       <c r="K7" t="n">
-        <v>99.8</v>
+        <v>99.85319887999999</v>
       </c>
       <c r="L7" t="n">
-        <v>100.3</v>
+        <v>100.31913732</v>
       </c>
       <c r="M7" t="n">
-        <v>99.8</v>
+        <v>100.88016345</v>
       </c>
       <c r="N7" t="n">
-        <v>99.3</v>
+        <v>100.28475317</v>
       </c>
       <c r="O7" t="n">
-        <v>100.2</v>
+        <v>100.22007433</v>
       </c>
       <c r="P7" t="n">
-        <v>100.5</v>
+        <v>101.47649303</v>
       </c>
       <c r="Q7" t="n">
-        <v>100.9</v>
+        <v>101.17225246</v>
       </c>
       <c r="R7" t="n">
-        <v>100.3</v>
+        <v>100.59396196</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2011年7月</t>
+          <t>2011-10</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>100.53413734</v>
+        <v>100.09036557</v>
       </c>
       <c r="C8" t="n">
-        <v>100.03095098</v>
+        <v>100.12375977</v>
       </c>
       <c r="D8" t="n">
-        <v>99.56816651</v>
+        <v>99.66702493</v>
       </c>
       <c r="E8" t="n">
-        <v>100.037325</v>
+        <v>100.02976531</v>
       </c>
       <c r="F8" t="n">
-        <v>100.07536958</v>
+        <v>100.16600356</v>
       </c>
       <c r="G8" t="n">
-        <v>100.30908191</v>
+        <v>99.9260771</v>
       </c>
       <c r="H8" t="n">
-        <v>100.08073747</v>
+        <v>100.19725574</v>
       </c>
       <c r="I8" t="n">
-        <v>99.82158744</v>
+        <v>99.63918265</v>
       </c>
       <c r="J8" t="n">
-        <v>100.13561836</v>
+        <v>99.75999179</v>
       </c>
       <c r="K8" t="n">
-        <v>99.75187103</v>
+        <v>99.84911228999999</v>
       </c>
       <c r="L8" t="n">
-        <v>100.26838321</v>
+        <v>100.25271447</v>
       </c>
       <c r="M8" t="n">
-        <v>99.40129567</v>
+        <v>101.57335239</v>
       </c>
       <c r="N8" t="n">
-        <v>99.79013208000001</v>
+        <v>99.10437644</v>
       </c>
       <c r="O8" t="n">
-        <v>100.24859557</v>
+        <v>100.30474168</v>
       </c>
       <c r="P8" t="n">
-        <v>100.4564055</v>
+        <v>96.21314087</v>
       </c>
       <c r="Q8" t="n">
-        <v>101.17997041</v>
+        <v>99.77017536</v>
       </c>
       <c r="R8" t="n">
-        <v>100.24231765</v>
+        <v>100.4784085</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2011年8月</t>
+          <t>2011-11</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>100.46234586</v>
+        <v>100.11818628</v>
       </c>
       <c r="C9" t="n">
-        <v>100.05409401</v>
+        <v>100.03468461</v>
       </c>
       <c r="D9" t="n">
-        <v>99.68082604999999</v>
+        <v>99.77212691</v>
       </c>
       <c r="E9" t="n">
-        <v>100.18814451</v>
+        <v>100.12546361</v>
       </c>
       <c r="F9" t="n">
-        <v>100.33811372</v>
+        <v>100.16624609</v>
       </c>
       <c r="G9" t="n">
-        <v>100.31768891</v>
+        <v>99.93067472</v>
       </c>
       <c r="H9" t="n">
-        <v>100.29787569</v>
+        <v>100.29536055</v>
       </c>
       <c r="I9" t="n">
-        <v>99.79399816999999</v>
+        <v>100.075754</v>
       </c>
       <c r="J9" t="n">
-        <v>100.28115771</v>
+        <v>99.90867591999999</v>
       </c>
       <c r="K9" t="n">
-        <v>99.77026441</v>
+        <v>100.11385722</v>
       </c>
       <c r="L9" t="n">
-        <v>100.31712442</v>
+        <v>100.18758003</v>
       </c>
       <c r="M9" t="n">
-        <v>99.96896314</v>
+        <v>101.50178868</v>
       </c>
       <c r="N9" t="n">
-        <v>100.1445457</v>
+        <v>99.61952745000001</v>
       </c>
       <c r="O9" t="n">
-        <v>100.2497986</v>
+        <v>100.50145938</v>
       </c>
       <c r="P9" t="n">
-        <v>104.80958888</v>
+        <v>101.36416224</v>
       </c>
       <c r="Q9" t="n">
-        <v>100.61608708</v>
+        <v>99.23527051000001</v>
       </c>
       <c r="R9" t="n">
-        <v>100.22815883</v>
+        <v>100.2828026</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2011年9月</t>
+          <t>2011-12</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>100.17207555</v>
+        <v>100.12531223</v>
       </c>
       <c r="C10" t="n">
-        <v>100.14898315</v>
+        <v>100.04944181</v>
       </c>
       <c r="D10" t="n">
-        <v>99.58714558</v>
+        <v>99.66299443</v>
       </c>
       <c r="E10" t="n">
-        <v>100.06979698</v>
+        <v>100.01009799</v>
       </c>
       <c r="F10" t="n">
-        <v>100.15722673</v>
+        <v>100.0409197</v>
       </c>
       <c r="G10" t="n">
-        <v>100.49866494</v>
+        <v>100.35810949</v>
       </c>
       <c r="H10" t="n">
-        <v>100.09076826</v>
+        <v>99.70058077</v>
       </c>
       <c r="I10" t="n">
-        <v>99.60013309999999</v>
+        <v>99.64225424999999</v>
       </c>
       <c r="J10" t="n">
-        <v>100.17923867</v>
+        <v>99.85518709999999</v>
       </c>
       <c r="K10" t="n">
-        <v>99.85319887999999</v>
+        <v>99.88417574</v>
       </c>
       <c r="L10" t="n">
-        <v>100.31913732</v>
+        <v>100.02780292</v>
       </c>
       <c r="M10" t="n">
-        <v>100.88016345</v>
+        <v>100.22424434</v>
       </c>
       <c r="N10" t="n">
-        <v>100.28475317</v>
+        <v>100.15436671</v>
       </c>
       <c r="O10" t="n">
-        <v>100.22007433</v>
+        <v>99.93235073</v>
       </c>
       <c r="P10" t="n">
-        <v>101.47649303</v>
+        <v>97.48005637</v>
       </c>
       <c r="Q10" t="n">
-        <v>101.17225246</v>
+        <v>101.34416363</v>
       </c>
       <c r="R10" t="n">
-        <v>100.59396196</v>
+        <v>100.35568326</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2012年10月</t>
+          <t>2012-01</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>100.03366773</v>
+        <v>99.97865466</v>
       </c>
       <c r="C11" t="n">
-        <v>100.04059699</v>
+        <v>100.42256834</v>
       </c>
       <c r="D11" t="n">
-        <v>99.80028176</v>
+        <v>99.75683502</v>
       </c>
       <c r="E11" t="n">
-        <v>100.00736111</v>
+        <v>100.02060882</v>
       </c>
       <c r="F11" t="n">
-        <v>100.13184193</v>
+        <v>100.11701178</v>
       </c>
       <c r="G11" t="n">
-        <v>99.89385451</v>
+        <v>101.16935743</v>
       </c>
       <c r="H11" t="n">
-        <v>99.98003592000001</v>
+        <v>100.30482727</v>
       </c>
       <c r="I11" t="n">
-        <v>99.63365009</v>
+        <v>99.80764877999999</v>
       </c>
       <c r="J11" t="n">
-        <v>100.16853807</v>
+        <v>100.11607118</v>
       </c>
       <c r="K11" t="n">
-        <v>99.78566461</v>
+        <v>99.95738358</v>
       </c>
       <c r="L11" t="n">
-        <v>100.11327103</v>
+        <v>99.96959212</v>
       </c>
       <c r="M11" t="n">
-        <v>100.87091782</v>
+        <v>98.87331946</v>
       </c>
       <c r="N11" t="n">
-        <v>101.14024429</v>
+        <v>100.14537294</v>
       </c>
       <c r="O11" t="n">
-        <v>100.09653204</v>
+        <v>99.56913766</v>
       </c>
       <c r="P11" t="n">
-        <v>101.07277042</v>
+        <v>98.10893958</v>
       </c>
       <c r="Q11" t="n">
-        <v>99.09343955999999</v>
+        <v>104.27399438</v>
       </c>
       <c r="R11" t="n">
-        <v>100.16633038</v>
+        <v>100.16234636</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2012年11月</t>
+          <t>2012-02</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>100.09723876</v>
+        <v>100.1518142</v>
       </c>
       <c r="C12" t="n">
-        <v>100.02136546</v>
+        <v>100.20426029</v>
       </c>
       <c r="D12" t="n">
-        <v>99.72199594999999</v>
+        <v>99.79555221</v>
       </c>
       <c r="E12" t="n">
-        <v>99.97891326</v>
+        <v>100.03459838</v>
       </c>
       <c r="F12" t="n">
-        <v>100.15482779</v>
+        <v>100.18266274</v>
       </c>
       <c r="G12" t="n">
-        <v>100.17567915</v>
+        <v>100.0177429</v>
       </c>
       <c r="H12" t="n">
-        <v>100.39794314</v>
+        <v>100.07501576</v>
       </c>
       <c r="I12" t="n">
-        <v>100.06177513</v>
+        <v>99.99484030000001</v>
       </c>
       <c r="J12" t="n">
-        <v>100.18760284</v>
+        <v>99.89020589</v>
       </c>
       <c r="K12" t="n">
-        <v>99.95518262</v>
+        <v>99.86886785999999</v>
       </c>
       <c r="L12" t="n">
-        <v>100.04234063</v>
+        <v>100.20587061</v>
       </c>
       <c r="M12" t="n">
-        <v>100.95688171</v>
+        <v>99.67849879000001</v>
       </c>
       <c r="N12" t="n">
-        <v>99.66828483</v>
+        <v>101.48612353</v>
       </c>
       <c r="O12" t="n">
-        <v>100.32114159</v>
+        <v>100.53440706</v>
       </c>
       <c r="P12" t="n">
-        <v>98.57494973</v>
+        <v>102.66611901</v>
       </c>
       <c r="Q12" t="n">
-        <v>100.39445247</v>
+        <v>99.56397036</v>
       </c>
       <c r="R12" t="n">
-        <v>100.10501032</v>
+        <v>100.22851284</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>2012年12月</t>
+          <t>2012-03</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>99.96150238</v>
+        <v>100.19808989</v>
       </c>
       <c r="C13" t="n">
-        <v>100.01560954</v>
+        <v>100.10588969</v>
       </c>
       <c r="D13" t="n">
-        <v>99.82552566</v>
+        <v>99.75060775999999</v>
       </c>
       <c r="E13" t="n">
-        <v>99.97197817</v>
+        <v>100.07515883</v>
       </c>
       <c r="F13" t="n">
-        <v>100.08022306</v>
+        <v>99.94941642000001</v>
       </c>
       <c r="G13" t="n">
-        <v>100.74723394</v>
+        <v>100.33107882</v>
       </c>
       <c r="H13" t="n">
-        <v>99.99348325</v>
+        <v>99.89538094</v>
       </c>
       <c r="I13" t="n">
-        <v>99.88060416</v>
+        <v>99.75374676</v>
       </c>
       <c r="J13" t="n">
-        <v>99.98675754999999</v>
+        <v>100.04721355</v>
       </c>
       <c r="K13" t="n">
-        <v>99.89413116999999</v>
+        <v>99.85174225999999</v>
       </c>
       <c r="L13" t="n">
-        <v>100.02921825</v>
+        <v>100.07944928</v>
       </c>
       <c r="M13" t="n">
-        <v>99.96302839000001</v>
+        <v>100.4651738</v>
       </c>
       <c r="N13" t="n">
-        <v>99.46271722</v>
+        <v>103.06970336</v>
       </c>
       <c r="O13" t="n">
-        <v>100.25354708</v>
+        <v>99.75525938</v>
       </c>
       <c r="P13" t="n">
-        <v>99.13321655999999</v>
+        <v>99.40693679</v>
       </c>
       <c r="Q13" t="n">
-        <v>102.66053361</v>
+        <v>100.22735364</v>
       </c>
       <c r="R13" t="n">
-        <v>100.19257146</v>
+        <v>100.22980142</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>2012年1月</t>
+          <t>2012-04</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>99.97865466</v>
+        <v>100.22811345</v>
       </c>
       <c r="C14" t="n">
-        <v>100.42256834</v>
+        <v>99.99470031</v>
       </c>
       <c r="D14" t="n">
-        <v>99.75683502</v>
+        <v>99.47481377</v>
       </c>
       <c r="E14" t="n">
-        <v>100.02060882</v>
+        <v>100.02727546</v>
       </c>
       <c r="F14" t="n">
-        <v>100.11701178</v>
+        <v>100.60176831</v>
       </c>
       <c r="G14" t="n">
-        <v>101.16935743</v>
+        <v>99.8643423</v>
       </c>
       <c r="H14" t="n">
-        <v>100.30482727</v>
+        <v>100.07893719</v>
       </c>
       <c r="I14" t="n">
-        <v>99.80764877999999</v>
+        <v>99.79490652</v>
       </c>
       <c r="J14" t="n">
-        <v>100.11607118</v>
+        <v>100.1299577</v>
       </c>
       <c r="K14" t="n">
-        <v>99.95738358</v>
+        <v>99.68822353</v>
       </c>
       <c r="L14" t="n">
-        <v>99.96959212</v>
+        <v>100.18712317</v>
       </c>
       <c r="M14" t="n">
-        <v>98.87331946</v>
+        <v>100.48668241</v>
       </c>
       <c r="N14" t="n">
-        <v>100.14537294</v>
+        <v>102.14229897</v>
       </c>
       <c r="O14" t="n">
-        <v>99.56913766</v>
+        <v>99.93027533999999</v>
       </c>
       <c r="P14" t="n">
-        <v>98.10893958</v>
+        <v>99.31208977999999</v>
       </c>
       <c r="Q14" t="n">
-        <v>104.27399438</v>
+        <v>98.94498086999999</v>
       </c>
       <c r="R14" t="n">
-        <v>100.16234636</v>
+        <v>100.26179989</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>2012年2月</t>
+          <t>2012-05</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>100.1518142</v>
+        <v>100.16087598</v>
       </c>
       <c r="C15" t="n">
-        <v>100.20426029</v>
+        <v>100.00258624</v>
       </c>
       <c r="D15" t="n">
-        <v>99.79555221</v>
+        <v>99.55137376</v>
       </c>
       <c r="E15" t="n">
-        <v>100.03459838</v>
+        <v>100.04889072</v>
       </c>
       <c r="F15" t="n">
-        <v>100.18266274</v>
+        <v>100.3517143</v>
       </c>
       <c r="G15" t="n">
-        <v>100.0177429</v>
+        <v>99.51334314</v>
       </c>
       <c r="H15" t="n">
-        <v>100.07501576</v>
+        <v>99.9968957</v>
       </c>
       <c r="I15" t="n">
-        <v>99.99484030000001</v>
+        <v>99.90327784999999</v>
       </c>
       <c r="J15" t="n">
-        <v>99.89020589</v>
+        <v>99.87067828000001</v>
       </c>
       <c r="K15" t="n">
-        <v>99.86886785999999</v>
+        <v>99.79311803</v>
       </c>
       <c r="L15" t="n">
-        <v>100.20587061</v>
+        <v>100.21596294</v>
       </c>
       <c r="M15" t="n">
-        <v>99.67849879000001</v>
+        <v>100.03347916</v>
       </c>
       <c r="N15" t="n">
-        <v>101.48612353</v>
+        <v>98.03869616999999</v>
       </c>
       <c r="O15" t="n">
-        <v>100.53440706</v>
+        <v>99.93472425</v>
       </c>
       <c r="P15" t="n">
-        <v>102.66611901</v>
+        <v>98.4014075</v>
       </c>
       <c r="Q15" t="n">
-        <v>99.56397036</v>
+        <v>99.08132773</v>
       </c>
       <c r="R15" t="n">
-        <v>100.22851284</v>
+        <v>100.24008987</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>2012年3月</t>
+          <t>2012-06</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>100.19808989</v>
+        <v>100.04314439</v>
       </c>
       <c r="C16" t="n">
-        <v>100.10588969</v>
+        <v>100.11175497</v>
       </c>
       <c r="D16" t="n">
-        <v>99.75060775999999</v>
+        <v>99.66780547</v>
       </c>
       <c r="E16" t="n">
-        <v>100.07515883</v>
+        <v>100.24199768</v>
       </c>
       <c r="F16" t="n">
-        <v>99.94941642000001</v>
+        <v>100.19071728</v>
       </c>
       <c r="G16" t="n">
-        <v>100.33107882</v>
+        <v>99.16448708999999</v>
       </c>
       <c r="H16" t="n">
-        <v>99.89538094</v>
+        <v>100.14582993</v>
       </c>
       <c r="I16" t="n">
-        <v>99.75374676</v>
+        <v>99.93337482</v>
       </c>
       <c r="J16" t="n">
-        <v>100.04721355</v>
+        <v>99.84126984</v>
       </c>
       <c r="K16" t="n">
-        <v>99.85174225999999</v>
+        <v>99.80542402</v>
       </c>
       <c r="L16" t="n">
-        <v>100.07944928</v>
+        <v>100.15207979</v>
       </c>
       <c r="M16" t="n">
-        <v>100.4651738</v>
+        <v>99.96095192999999</v>
       </c>
       <c r="N16" t="n">
-        <v>103.06970336</v>
+        <v>96.16873036</v>
       </c>
       <c r="O16" t="n">
-        <v>99.75525938</v>
+        <v>99.99738916</v>
       </c>
       <c r="P16" t="n">
-        <v>99.40693679</v>
+        <v>99.91280356</v>
       </c>
       <c r="Q16" t="n">
-        <v>100.22735364</v>
+        <v>98.36844773999999</v>
       </c>
       <c r="R16" t="n">
-        <v>100.22980142</v>
+        <v>100.16883269</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>2012年4月</t>
+          <t>2012-07</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>100.22811345</v>
+        <v>100.10125069</v>
       </c>
       <c r="C17" t="n">
-        <v>99.99470031</v>
+        <v>100.02802025</v>
       </c>
       <c r="D17" t="n">
-        <v>99.47481377</v>
+        <v>99.65971302</v>
       </c>
       <c r="E17" t="n">
-        <v>100.02727546</v>
+        <v>100.09056914</v>
       </c>
       <c r="F17" t="n">
-        <v>100.60176831</v>
+        <v>100.26612869</v>
       </c>
       <c r="G17" t="n">
-        <v>99.8643423</v>
+        <v>99.67683047</v>
       </c>
       <c r="H17" t="n">
-        <v>100.07893719</v>
+        <v>100.01740759</v>
       </c>
       <c r="I17" t="n">
-        <v>99.79490652</v>
+        <v>99.81879211</v>
       </c>
       <c r="J17" t="n">
-        <v>100.1299577</v>
+        <v>99.8932349</v>
       </c>
       <c r="K17" t="n">
-        <v>99.68822353</v>
+        <v>99.72543455</v>
       </c>
       <c r="L17" t="n">
-        <v>100.18712317</v>
+        <v>100.07983446</v>
       </c>
       <c r="M17" t="n">
-        <v>100.48668241</v>
+        <v>99.4219284</v>
       </c>
       <c r="N17" t="n">
-        <v>102.14229897</v>
+        <v>97.52760551</v>
       </c>
       <c r="O17" t="n">
-        <v>99.93027533999999</v>
+        <v>100.364995</v>
       </c>
       <c r="P17" t="n">
-        <v>99.31208977999999</v>
+        <v>99.85457506</v>
       </c>
       <c r="Q17" t="n">
-        <v>98.94498086999999</v>
+        <v>99.84486161</v>
       </c>
       <c r="R17" t="n">
-        <v>100.26179989</v>
+        <v>100.07657849</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>2012年5月</t>
+          <t>2012-08</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>100.16087598</v>
+        <v>100.03813715</v>
       </c>
       <c r="C18" t="n">
-        <v>100.00258624</v>
+        <v>100.13359246</v>
       </c>
       <c r="D18" t="n">
-        <v>99.55137376</v>
+        <v>99.66979155999999</v>
       </c>
       <c r="E18" t="n">
-        <v>100.04889072</v>
+        <v>100.17251435</v>
       </c>
       <c r="F18" t="n">
-        <v>100.3517143</v>
+        <v>100.19666594</v>
       </c>
       <c r="G18" t="n">
-        <v>99.51334314</v>
+        <v>100.58161961</v>
       </c>
       <c r="H18" t="n">
-        <v>99.9968957</v>
+        <v>100.08234849</v>
       </c>
       <c r="I18" t="n">
-        <v>99.90327784999999</v>
+        <v>99.73919739999999</v>
       </c>
       <c r="J18" t="n">
-        <v>99.87067828000001</v>
+        <v>99.76420048</v>
       </c>
       <c r="K18" t="n">
-        <v>99.79311803</v>
+        <v>99.8135769</v>
       </c>
       <c r="L18" t="n">
-        <v>100.21596294</v>
+        <v>100.16137314</v>
       </c>
       <c r="M18" t="n">
-        <v>100.03347916</v>
+        <v>99.79427855</v>
       </c>
       <c r="N18" t="n">
-        <v>98.03869616999999</v>
+        <v>101.52539001</v>
       </c>
       <c r="O18" t="n">
-        <v>99.93472425</v>
+        <v>100.14244428</v>
       </c>
       <c r="P18" t="n">
-        <v>98.4014075</v>
+        <v>100.29748725</v>
       </c>
       <c r="Q18" t="n">
-        <v>99.08132773</v>
+        <v>101.65727967</v>
       </c>
       <c r="R18" t="n">
-        <v>100.24008987</v>
+        <v>100.14745919</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>2012年6月</t>
+          <t>2012-09</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>100.04314439</v>
+        <v>100.04268035</v>
       </c>
       <c r="C19" t="n">
-        <v>100.11175497</v>
+        <v>100.51617184</v>
       </c>
       <c r="D19" t="n">
-        <v>99.66780547</v>
+        <v>99.70533923000001</v>
       </c>
       <c r="E19" t="n">
-        <v>100.24199768</v>
+        <v>100.18309466</v>
       </c>
       <c r="F19" t="n">
-        <v>100.19071728</v>
+        <v>100.09626219</v>
       </c>
       <c r="G19" t="n">
-        <v>99.16448708999999</v>
+        <v>100.40787436</v>
       </c>
       <c r="H19" t="n">
-        <v>100.14582993</v>
+        <v>100.08127469</v>
       </c>
       <c r="I19" t="n">
-        <v>99.93337482</v>
+        <v>99.74509055</v>
       </c>
       <c r="J19" t="n">
-        <v>99.84126984</v>
+        <v>99.86409548</v>
       </c>
       <c r="K19" t="n">
-        <v>99.80542402</v>
+        <v>99.87140925999999</v>
       </c>
       <c r="L19" t="n">
-        <v>100.15207979</v>
+        <v>100.0942853</v>
       </c>
       <c r="M19" t="n">
-        <v>99.96095192999999</v>
+        <v>101.19211929</v>
       </c>
       <c r="N19" t="n">
-        <v>96.16873036</v>
+        <v>102.8371889</v>
       </c>
       <c r="O19" t="n">
-        <v>99.99738916</v>
+        <v>99.96095216000001</v>
       </c>
       <c r="P19" t="n">
-        <v>99.91280356</v>
+        <v>103.76463347</v>
       </c>
       <c r="Q19" t="n">
-        <v>98.36844773999999</v>
+        <v>100.14948419</v>
       </c>
       <c r="R19" t="n">
-        <v>100.16883269</v>
+        <v>100.05741496</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>2012年7月</t>
+          <t>2012-10</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>100.10125069</v>
+        <v>100.03366773</v>
       </c>
       <c r="C20" t="n">
-        <v>100.02802025</v>
+        <v>100.04059699</v>
       </c>
       <c r="D20" t="n">
-        <v>99.65971302</v>
+        <v>99.80028176</v>
       </c>
       <c r="E20" t="n">
-        <v>100.09056914</v>
+        <v>100.00736111</v>
       </c>
       <c r="F20" t="n">
-        <v>100.26612869</v>
+        <v>100.13184193</v>
       </c>
       <c r="G20" t="n">
-        <v>99.67683047</v>
+        <v>99.89385451</v>
       </c>
       <c r="H20" t="n">
-        <v>100.01740759</v>
+        <v>99.98003592000001</v>
       </c>
       <c r="I20" t="n">
-        <v>99.81879211</v>
+        <v>99.63365009</v>
       </c>
       <c r="J20" t="n">
-        <v>99.8932349</v>
+        <v>100.16853807</v>
       </c>
       <c r="K20" t="n">
-        <v>99.72543455</v>
+        <v>99.78566461</v>
       </c>
       <c r="L20" t="n">
-        <v>100.07983446</v>
+        <v>100.11327103</v>
       </c>
       <c r="M20" t="n">
-        <v>99.4219284</v>
+        <v>100.87091782</v>
       </c>
       <c r="N20" t="n">
-        <v>97.52760551</v>
+        <v>101.14024429</v>
       </c>
       <c r="O20" t="n">
-        <v>100.364995</v>
+        <v>100.09653204</v>
       </c>
       <c r="P20" t="n">
-        <v>99.85457506</v>
+        <v>101.07277042</v>
       </c>
       <c r="Q20" t="n">
-        <v>99.84486161</v>
+        <v>99.09343955999999</v>
       </c>
       <c r="R20" t="n">
-        <v>100.07657849</v>
+        <v>100.16633038</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>2012年8月</t>
+          <t>2012-11</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>100.03813715</v>
+        <v>100.09723876</v>
       </c>
       <c r="C21" t="n">
-        <v>100.13359246</v>
+        <v>100.02136546</v>
       </c>
       <c r="D21" t="n">
-        <v>99.66979155999999</v>
+        <v>99.72199594999999</v>
       </c>
       <c r="E21" t="n">
-        <v>100.17251435</v>
+        <v>99.97891326</v>
       </c>
       <c r="F21" t="n">
-        <v>100.19666594</v>
+        <v>100.15482779</v>
       </c>
       <c r="G21" t="n">
-        <v>100.58161961</v>
+        <v>100.17567915</v>
       </c>
       <c r="H21" t="n">
-        <v>100.08234849</v>
+        <v>100.39794314</v>
       </c>
       <c r="I21" t="n">
-        <v>99.73919739999999</v>
+        <v>100.06177513</v>
       </c>
       <c r="J21" t="n">
-        <v>99.76420048</v>
+        <v>100.18760284</v>
       </c>
       <c r="K21" t="n">
-        <v>99.8135769</v>
+        <v>99.95518262</v>
       </c>
       <c r="L21" t="n">
-        <v>100.16137314</v>
+        <v>100.04234063</v>
       </c>
       <c r="M21" t="n">
-        <v>99.79427855</v>
+        <v>100.95688171</v>
       </c>
       <c r="N21" t="n">
-        <v>101.52539001</v>
+        <v>99.66828483</v>
       </c>
       <c r="O21" t="n">
-        <v>100.14244428</v>
+        <v>100.32114159</v>
       </c>
       <c r="P21" t="n">
-        <v>100.29748725</v>
+        <v>98.57494973</v>
       </c>
       <c r="Q21" t="n">
-        <v>101.65727967</v>
+        <v>100.39445247</v>
       </c>
       <c r="R21" t="n">
-        <v>100.14745919</v>
+        <v>100.10501032</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>2012年9月</t>
+          <t>2012-12</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>100.04268035</v>
+        <v>99.96150238</v>
       </c>
       <c r="C22" t="n">
-        <v>100.51617184</v>
+        <v>100.01560954</v>
       </c>
       <c r="D22" t="n">
-        <v>99.70533923000001</v>
+        <v>99.82552566</v>
       </c>
       <c r="E22" t="n">
-        <v>100.18309466</v>
+        <v>99.97197817</v>
       </c>
       <c r="F22" t="n">
-        <v>100.09626219</v>
+        <v>100.08022306</v>
       </c>
       <c r="G22" t="n">
-        <v>100.40787436</v>
+        <v>100.74723394</v>
       </c>
       <c r="H22" t="n">
-        <v>100.08127469</v>
+        <v>99.99348325</v>
       </c>
       <c r="I22" t="n">
-        <v>99.74509055</v>
+        <v>99.88060416</v>
       </c>
       <c r="J22" t="n">
-        <v>99.86409548</v>
+        <v>99.98675754999999</v>
       </c>
       <c r="K22" t="n">
-        <v>99.87140925999999</v>
+        <v>99.89413116999999</v>
       </c>
       <c r="L22" t="n">
-        <v>100.0942853</v>
+        <v>100.02921825</v>
       </c>
       <c r="M22" t="n">
-        <v>101.19211929</v>
+        <v>99.96302839000001</v>
       </c>
       <c r="N22" t="n">
-        <v>102.8371889</v>
+        <v>99.46271722</v>
       </c>
       <c r="O22" t="n">
-        <v>99.96095216000001</v>
+        <v>100.25354708</v>
       </c>
       <c r="P22" t="n">
-        <v>103.76463347</v>
+        <v>99.13321655999999</v>
       </c>
       <c r="Q22" t="n">
-        <v>100.14948419</v>
+        <v>102.66053361</v>
       </c>
       <c r="R22" t="n">
-        <v>100.05741496</v>
+        <v>100.19257146</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>2013年10月</t>
+          <t>2013-01</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>100.17995487</v>
+        <v>99.85554458</v>
       </c>
       <c r="C23" t="n">
-        <v>100.05023083</v>
+        <v>100.2742856</v>
       </c>
       <c r="D23" t="n">
-        <v>99.85385807999999</v>
+        <v>99.94947619</v>
       </c>
       <c r="E23" t="n">
-        <v>100.05680302</v>
+        <v>100.23357414</v>
       </c>
       <c r="F23" t="n">
-        <v>100.00752398</v>
+        <v>100.10667263</v>
       </c>
       <c r="G23" t="n">
-        <v>99.88728888</v>
+        <v>100.89267813</v>
       </c>
       <c r="H23" t="n">
-        <v>100.13436746</v>
+        <v>100.19628485</v>
       </c>
       <c r="I23" t="n">
-        <v>99.85040472</v>
+        <v>99.83590773</v>
       </c>
       <c r="J23" t="n">
-        <v>100.13357231</v>
+        <v>100.19469254</v>
       </c>
       <c r="K23" t="n">
-        <v>100.01333176</v>
+        <v>99.99434963</v>
       </c>
       <c r="L23" t="n">
-        <v>100.12396774</v>
+        <v>100.08209074</v>
       </c>
       <c r="M23" t="n">
-        <v>101.02183245</v>
+        <v>99.57872716</v>
       </c>
       <c r="N23" t="n">
-        <v>99.32129216</v>
+        <v>100.16017431</v>
       </c>
       <c r="O23" t="n">
-        <v>100.50537376</v>
+        <v>99.93603851</v>
       </c>
       <c r="P23" t="n">
-        <v>98.45242746</v>
+        <v>99.74627919</v>
       </c>
       <c r="Q23" t="n">
-        <v>99.51927625</v>
+        <v>102.93389102</v>
       </c>
       <c r="R23" t="n">
-        <v>100.11280953</v>
+        <v>99.98495167999999</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>2013年11月</t>
+          <t>2013-02</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>100.15905177</v>
+        <v>100.12940662</v>
       </c>
       <c r="C24" t="n">
-        <v>100.10582185</v>
+        <v>100.18165989</v>
       </c>
       <c r="D24" t="n">
-        <v>99.84895284</v>
+        <v>99.88557768</v>
       </c>
       <c r="E24" t="n">
-        <v>99.96923864999999</v>
+        <v>99.96246791999999</v>
       </c>
       <c r="F24" t="n">
-        <v>100.0218074</v>
+        <v>100.0369222</v>
       </c>
       <c r="G24" t="n">
-        <v>99.94633107</v>
+        <v>100.82175324</v>
       </c>
       <c r="H24" t="n">
-        <v>100.23056077</v>
+        <v>100.08410189</v>
       </c>
       <c r="I24" t="n">
-        <v>99.89727904999999</v>
+        <v>99.78653928</v>
       </c>
       <c r="J24" t="n">
-        <v>100.26577376</v>
+        <v>100.18019808</v>
       </c>
       <c r="K24" t="n">
-        <v>99.8706105</v>
+        <v>99.96751426</v>
       </c>
       <c r="L24" t="n">
-        <v>100.02650919</v>
+        <v>99.94786068000001</v>
       </c>
       <c r="M24" t="n">
-        <v>100.51295099</v>
+        <v>99.33749745999999</v>
       </c>
       <c r="N24" t="n">
-        <v>99.61924156000001</v>
+        <v>100.17071378</v>
       </c>
       <c r="O24" t="n">
-        <v>100.00994685</v>
+        <v>99.74635721</v>
       </c>
       <c r="P24" t="n">
-        <v>98.42979339</v>
+        <v>99.20179023</v>
       </c>
       <c r="Q24" t="n">
-        <v>99.79507058999999</v>
+        <v>102.79958722</v>
       </c>
       <c r="R24" t="n">
-        <v>100.11559895</v>
+        <v>99.90815648</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>2013年12月</t>
+          <t>2013-03</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>100.16858324</v>
+        <v>100.18986596</v>
       </c>
       <c r="C25" t="n">
-        <v>100.04424046</v>
+        <v>100.09683936</v>
       </c>
       <c r="D25" t="n">
-        <v>100.0239445</v>
+        <v>99.73208644</v>
       </c>
       <c r="E25" t="n">
-        <v>100.08185262</v>
+        <v>99.99637869</v>
       </c>
       <c r="F25" t="n">
-        <v>100.00533692</v>
+        <v>100.03129751</v>
       </c>
       <c r="G25" t="n">
-        <v>100.32518226</v>
+        <v>99.10791833</v>
       </c>
       <c r="H25" t="n">
-        <v>100.26595378</v>
+        <v>100.04880872</v>
       </c>
       <c r="I25" t="n">
-        <v>99.87463997</v>
+        <v>99.91489242</v>
       </c>
       <c r="J25" t="n">
-        <v>100.18431671</v>
+        <v>100.02412896</v>
       </c>
       <c r="K25" t="n">
-        <v>99.89915642</v>
+        <v>99.99849115000001</v>
       </c>
       <c r="L25" t="n">
-        <v>100.0607615</v>
+        <v>100.04779773</v>
       </c>
       <c r="M25" t="n">
-        <v>100.09110578</v>
+        <v>100.71805898</v>
       </c>
       <c r="N25" t="n">
-        <v>101.6651713</v>
+        <v>100.99023038</v>
       </c>
       <c r="O25" t="n">
-        <v>100.11870913</v>
+        <v>100.19026332</v>
       </c>
       <c r="P25" t="n">
-        <v>96.85376660999999</v>
+        <v>98.73325126</v>
       </c>
       <c r="Q25" t="n">
-        <v>100.6285866</v>
+        <v>96.88355117</v>
       </c>
       <c r="R25" t="n">
-        <v>100.03930131</v>
+        <v>100.10451377</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>2013年1月</t>
+          <t>2013-04</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>99.85554458</v>
+        <v>100.23819137</v>
       </c>
       <c r="C26" t="n">
-        <v>100.2742856</v>
+        <v>100.02999993</v>
       </c>
       <c r="D26" t="n">
-        <v>99.94947619</v>
+        <v>99.72642315</v>
       </c>
       <c r="E26" t="n">
-        <v>100.23357414</v>
+        <v>100.03426332</v>
       </c>
       <c r="F26" t="n">
-        <v>100.10667263</v>
+        <v>100.27088667</v>
       </c>
       <c r="G26" t="n">
-        <v>100.89267813</v>
+        <v>99.97218195000001</v>
       </c>
       <c r="H26" t="n">
-        <v>100.19628485</v>
+        <v>100.08125242</v>
       </c>
       <c r="I26" t="n">
-        <v>99.83590773</v>
+        <v>99.85007164</v>
       </c>
       <c r="J26" t="n">
-        <v>100.19469254</v>
+        <v>100.1208254</v>
       </c>
       <c r="K26" t="n">
-        <v>99.99434963</v>
+        <v>99.97598979</v>
       </c>
       <c r="L26" t="n">
-        <v>100.08209074</v>
+        <v>100.05264317</v>
       </c>
       <c r="M26" t="n">
-        <v>99.57872716</v>
+        <v>100.6530968</v>
       </c>
       <c r="N26" t="n">
-        <v>100.16017431</v>
+        <v>98.05326128</v>
       </c>
       <c r="O26" t="n">
-        <v>99.93603851</v>
+        <v>100.176476</v>
       </c>
       <c r="P26" t="n">
-        <v>99.74627919</v>
+        <v>97.28398319</v>
       </c>
       <c r="Q26" t="n">
-        <v>102.93389102</v>
+        <v>100.36307963</v>
       </c>
       <c r="R26" t="n">
-        <v>99.98495167999999</v>
+        <v>99.91717226999999</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>2013年2月</t>
+          <t>2013-05</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>100.12940662</v>
+        <v>100.21141852</v>
       </c>
       <c r="C27" t="n">
-        <v>100.18165989</v>
+        <v>100.05948009</v>
       </c>
       <c r="D27" t="n">
-        <v>99.88557768</v>
+        <v>99.65412748</v>
       </c>
       <c r="E27" t="n">
-        <v>99.96246791999999</v>
+        <v>100.05160378</v>
       </c>
       <c r="F27" t="n">
-        <v>100.0369222</v>
+        <v>100.05889101</v>
       </c>
       <c r="G27" t="n">
-        <v>100.82175324</v>
+        <v>99.27964093999999</v>
       </c>
       <c r="H27" t="n">
-        <v>100.08410189</v>
+        <v>100.04460423</v>
       </c>
       <c r="I27" t="n">
-        <v>99.78653928</v>
+        <v>99.9112003</v>
       </c>
       <c r="J27" t="n">
-        <v>100.18019808</v>
+        <v>100.01910416</v>
       </c>
       <c r="K27" t="n">
-        <v>99.96751426</v>
+        <v>99.87984695999999</v>
       </c>
       <c r="L27" t="n">
-        <v>99.94786068000001</v>
+        <v>100.08798209</v>
       </c>
       <c r="M27" t="n">
-        <v>99.33749745999999</v>
+        <v>100.04788668</v>
       </c>
       <c r="N27" t="n">
-        <v>100.17071378</v>
+        <v>98.42278604000001</v>
       </c>
       <c r="O27" t="n">
-        <v>99.74635721</v>
+        <v>100.06014846</v>
       </c>
       <c r="P27" t="n">
-        <v>99.20179023</v>
+        <v>98.01901663</v>
       </c>
       <c r="Q27" t="n">
-        <v>102.79958722</v>
+        <v>98.2813342</v>
       </c>
       <c r="R27" t="n">
-        <v>99.90815648</v>
+        <v>99.8857374</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>2013年3月</t>
+          <t>2013-06</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>100.18986596</v>
+        <v>100.24878269</v>
       </c>
       <c r="C28" t="n">
-        <v>100.09683936</v>
+        <v>100.01770632</v>
       </c>
       <c r="D28" t="n">
-        <v>99.73208644</v>
+        <v>99.75109870999999</v>
       </c>
       <c r="E28" t="n">
-        <v>99.99637869</v>
+        <v>99.87572985</v>
       </c>
       <c r="F28" t="n">
-        <v>100.03129751</v>
+        <v>100.08824291</v>
       </c>
       <c r="G28" t="n">
-        <v>99.10791833</v>
+        <v>99.87199391</v>
       </c>
       <c r="H28" t="n">
-        <v>100.04880872</v>
+        <v>100.0782675</v>
       </c>
       <c r="I28" t="n">
-        <v>99.91489242</v>
+        <v>99.99175402</v>
       </c>
       <c r="J28" t="n">
-        <v>100.02412896</v>
+        <v>99.88334965999999</v>
       </c>
       <c r="K28" t="n">
-        <v>99.99849115000001</v>
+        <v>99.81964972</v>
       </c>
       <c r="L28" t="n">
-        <v>100.04779773</v>
+        <v>99.99406513</v>
       </c>
       <c r="M28" t="n">
-        <v>100.71805898</v>
+        <v>99.63946335999999</v>
       </c>
       <c r="N28" t="n">
-        <v>100.99023038</v>
+        <v>99.6044887</v>
       </c>
       <c r="O28" t="n">
-        <v>100.19026332</v>
+        <v>99.89988108999999</v>
       </c>
       <c r="P28" t="n">
-        <v>98.73325126</v>
+        <v>97.41221509</v>
       </c>
       <c r="Q28" t="n">
-        <v>96.88355117</v>
+        <v>99.98606252</v>
       </c>
       <c r="R28" t="n">
-        <v>100.10451377</v>
+        <v>99.95583985</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>2013年4月</t>
+          <t>2013-07</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>100.23819137</v>
+        <v>100.22880327</v>
       </c>
       <c r="C29" t="n">
-        <v>100.02999993</v>
+        <v>100.03648703</v>
       </c>
       <c r="D29" t="n">
-        <v>99.72642315</v>
+        <v>99.95138917</v>
       </c>
       <c r="E29" t="n">
-        <v>100.03426332</v>
+        <v>100.16358314</v>
       </c>
       <c r="F29" t="n">
-        <v>100.27088667</v>
+        <v>100.06732947</v>
       </c>
       <c r="G29" t="n">
-        <v>99.97218195000001</v>
+        <v>99.94157902000001</v>
       </c>
       <c r="H29" t="n">
-        <v>100.08125242</v>
+        <v>100.16545465</v>
       </c>
       <c r="I29" t="n">
-        <v>99.85007164</v>
+        <v>99.96046699999999</v>
       </c>
       <c r="J29" t="n">
-        <v>100.1208254</v>
+        <v>100.03056481</v>
       </c>
       <c r="K29" t="n">
-        <v>99.97598979</v>
+        <v>99.90587432</v>
       </c>
       <c r="L29" t="n">
-        <v>100.05264317</v>
+        <v>100.07325309</v>
       </c>
       <c r="M29" t="n">
-        <v>100.6530968</v>
+        <v>99.36606226000001</v>
       </c>
       <c r="N29" t="n">
-        <v>98.05326128</v>
+        <v>100.43635261</v>
       </c>
       <c r="O29" t="n">
-        <v>100.176476</v>
+        <v>100.23750625</v>
       </c>
       <c r="P29" t="n">
-        <v>97.28398319</v>
+        <v>96.31353682</v>
       </c>
       <c r="Q29" t="n">
-        <v>100.36307963</v>
+        <v>99.99366977</v>
       </c>
       <c r="R29" t="n">
-        <v>99.91717226999999</v>
+        <v>99.96585931</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>2013年5月</t>
+          <t>2013-08</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>100.21141852</v>
+        <v>100.18237047</v>
       </c>
       <c r="C30" t="n">
-        <v>100.05948009</v>
+        <v>100.07147714</v>
       </c>
       <c r="D30" t="n">
-        <v>99.65412748</v>
+        <v>99.85646609</v>
       </c>
       <c r="E30" t="n">
-        <v>100.05160378</v>
+        <v>100.0669533</v>
       </c>
       <c r="F30" t="n">
-        <v>100.05889101</v>
+        <v>99.99903169</v>
       </c>
       <c r="G30" t="n">
-        <v>99.27964093999999</v>
+        <v>100.47976464</v>
       </c>
       <c r="H30" t="n">
-        <v>100.04460423</v>
+        <v>100.19285461</v>
       </c>
       <c r="I30" t="n">
-        <v>99.9112003</v>
+        <v>99.85723564</v>
       </c>
       <c r="J30" t="n">
-        <v>100.01910416</v>
+        <v>100.08004222</v>
       </c>
       <c r="K30" t="n">
-        <v>99.87984695999999</v>
+        <v>99.71304392</v>
       </c>
       <c r="L30" t="n">
-        <v>100.08798209</v>
+        <v>100.07954908</v>
       </c>
       <c r="M30" t="n">
-        <v>100.04788668</v>
+        <v>99.88732774</v>
       </c>
       <c r="N30" t="n">
-        <v>98.42278604000001</v>
+        <v>101.033208</v>
       </c>
       <c r="O30" t="n">
-        <v>100.06014846</v>
+        <v>99.88567806</v>
       </c>
       <c r="P30" t="n">
-        <v>98.01901663</v>
+        <v>100.88190222</v>
       </c>
       <c r="Q30" t="n">
-        <v>98.2813342</v>
+        <v>101.26073833</v>
       </c>
       <c r="R30" t="n">
-        <v>99.8857374</v>
+        <v>100.05279859</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>2013年6月</t>
+          <t>2013-09</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>100.24878269</v>
+        <v>100.2966382</v>
       </c>
       <c r="C31" t="n">
-        <v>100.01770632</v>
+        <v>100.06339876</v>
       </c>
       <c r="D31" t="n">
-        <v>99.75109870999999</v>
+        <v>99.83069607</v>
       </c>
       <c r="E31" t="n">
-        <v>99.87572985</v>
+        <v>100.04403001</v>
       </c>
       <c r="F31" t="n">
-        <v>100.08824291</v>
+        <v>100.13509542</v>
       </c>
       <c r="G31" t="n">
-        <v>99.87199391</v>
+        <v>100.73010326</v>
       </c>
       <c r="H31" t="n">
-        <v>100.0782675</v>
+        <v>100.07459291</v>
       </c>
       <c r="I31" t="n">
-        <v>99.99175402</v>
+        <v>99.71502502</v>
       </c>
       <c r="J31" t="n">
-        <v>99.88334965999999</v>
+        <v>100.05628888</v>
       </c>
       <c r="K31" t="n">
-        <v>99.81964972</v>
+        <v>99.83555238</v>
       </c>
       <c r="L31" t="n">
-        <v>99.99406513</v>
+        <v>100.01924437</v>
       </c>
       <c r="M31" t="n">
-        <v>99.63946335999999</v>
+        <v>101.16269894</v>
       </c>
       <c r="N31" t="n">
-        <v>99.6044887</v>
+        <v>101.62301458</v>
       </c>
       <c r="O31" t="n">
-        <v>99.89988108999999</v>
+        <v>100.14363568</v>
       </c>
       <c r="P31" t="n">
-        <v>97.41221509</v>
+        <v>100.03067476</v>
       </c>
       <c r="Q31" t="n">
-        <v>99.98606252</v>
+        <v>101.59459082</v>
       </c>
       <c r="R31" t="n">
-        <v>99.95583985</v>
+        <v>99.91872981</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>2013年7月</t>
+          <t>2013-10</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>100.22880327</v>
+        <v>100.17995487</v>
       </c>
       <c r="C32" t="n">
-        <v>100.03648703</v>
+        <v>100.05023083</v>
       </c>
       <c r="D32" t="n">
-        <v>99.95138917</v>
+        <v>99.85385807999999</v>
       </c>
       <c r="E32" t="n">
-        <v>100.16358314</v>
+        <v>100.05680302</v>
       </c>
       <c r="F32" t="n">
-        <v>100.06732947</v>
+        <v>100.00752398</v>
       </c>
       <c r="G32" t="n">
-        <v>99.94157902000001</v>
+        <v>99.88728888</v>
       </c>
       <c r="H32" t="n">
-        <v>100.16545465</v>
+        <v>100.13436746</v>
       </c>
       <c r="I32" t="n">
-        <v>99.96046699999999</v>
+        <v>99.85040472</v>
       </c>
       <c r="J32" t="n">
-        <v>100.03056481</v>
+        <v>100.13357231</v>
       </c>
       <c r="K32" t="n">
-        <v>99.90587432</v>
+        <v>100.01333176</v>
       </c>
       <c r="L32" t="n">
-        <v>100.07325309</v>
+        <v>100.12396774</v>
       </c>
       <c r="M32" t="n">
-        <v>99.36606226000001</v>
+        <v>101.02183245</v>
       </c>
       <c r="N32" t="n">
-        <v>100.43635261</v>
+        <v>99.32129216</v>
       </c>
       <c r="O32" t="n">
-        <v>100.23750625</v>
+        <v>100.50537376</v>
       </c>
       <c r="P32" t="n">
-        <v>96.31353682</v>
+        <v>98.45242746</v>
       </c>
       <c r="Q32" t="n">
-        <v>99.99366977</v>
+        <v>99.51927625</v>
       </c>
       <c r="R32" t="n">
-        <v>99.96585931</v>
+        <v>100.11280953</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>2013年8月</t>
+          <t>2013-11</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>100.18237047</v>
+        <v>100.15905177</v>
       </c>
       <c r="C33" t="n">
-        <v>100.07147714</v>
+        <v>100.10582185</v>
       </c>
       <c r="D33" t="n">
-        <v>99.85646609</v>
+        <v>99.84895284</v>
       </c>
       <c r="E33" t="n">
-        <v>100.0669533</v>
+        <v>99.96923864999999</v>
       </c>
       <c r="F33" t="n">
-        <v>99.99903169</v>
+        <v>100.0218074</v>
       </c>
       <c r="G33" t="n">
-        <v>100.47976464</v>
+        <v>99.94633107</v>
       </c>
       <c r="H33" t="n">
-        <v>100.19285461</v>
+        <v>100.23056077</v>
       </c>
       <c r="I33" t="n">
-        <v>99.85723564</v>
+        <v>99.89727904999999</v>
       </c>
       <c r="J33" t="n">
-        <v>100.08004222</v>
+        <v>100.26577376</v>
       </c>
       <c r="K33" t="n">
-        <v>99.71304392</v>
+        <v>99.8706105</v>
       </c>
       <c r="L33" t="n">
-        <v>100.07954908</v>
+        <v>100.02650919</v>
       </c>
       <c r="M33" t="n">
-        <v>99.88732774</v>
+        <v>100.51295099</v>
       </c>
       <c r="N33" t="n">
-        <v>101.033208</v>
+        <v>99.61924156000001</v>
       </c>
       <c r="O33" t="n">
-        <v>99.88567806</v>
+        <v>100.00994685</v>
       </c>
       <c r="P33" t="n">
-        <v>100.88190222</v>
+        <v>98.42979339</v>
       </c>
       <c r="Q33" t="n">
-        <v>101.26073833</v>
+        <v>99.79507058999999</v>
       </c>
       <c r="R33" t="n">
-        <v>100.05279859</v>
+        <v>100.11559895</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>2013年9月</t>
+          <t>2013-12</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>100.2966382</v>
+        <v>100.16858324</v>
       </c>
       <c r="C34" t="n">
-        <v>100.06339876</v>
+        <v>100.04424046</v>
       </c>
       <c r="D34" t="n">
-        <v>99.83069607</v>
+        <v>100.0239445</v>
       </c>
       <c r="E34" t="n">
-        <v>100.04403001</v>
+        <v>100.08185262</v>
       </c>
       <c r="F34" t="n">
-        <v>100.13509542</v>
+        <v>100.00533692</v>
       </c>
       <c r="G34" t="n">
-        <v>100.73010326</v>
+        <v>100.32518226</v>
       </c>
       <c r="H34" t="n">
-        <v>100.07459291</v>
+        <v>100.26595378</v>
       </c>
       <c r="I34" t="n">
-        <v>99.71502502</v>
+        <v>99.87463997</v>
       </c>
       <c r="J34" t="n">
-        <v>100.05628888</v>
+        <v>100.18431671</v>
       </c>
       <c r="K34" t="n">
-        <v>99.83555238</v>
+        <v>99.89915642</v>
       </c>
       <c r="L34" t="n">
-        <v>100.01924437</v>
+        <v>100.0607615</v>
       </c>
       <c r="M34" t="n">
-        <v>101.16269894</v>
+        <v>100.09110578</v>
       </c>
       <c r="N34" t="n">
-        <v>101.62301458</v>
+        <v>101.6651713</v>
       </c>
       <c r="O34" t="n">
-        <v>100.14363568</v>
+        <v>100.11870913</v>
       </c>
       <c r="P34" t="n">
-        <v>100.03067476</v>
+        <v>96.85376660999999</v>
       </c>
       <c r="Q34" t="n">
-        <v>101.59459082</v>
+        <v>100.6285866</v>
       </c>
       <c r="R34" t="n">
-        <v>99.91872981</v>
+        <v>100.03930131</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>2014年10月</t>
+          <t>2014-01</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>100.14611753</v>
+        <v>99.97903717</v>
       </c>
       <c r="C35" t="n">
-        <v>100.03412759</v>
+        <v>100.46795259</v>
       </c>
       <c r="D35" t="n">
-        <v>99.85451722000001</v>
+        <v>100.01017245</v>
       </c>
       <c r="E35" t="n">
-        <v>100.14059926</v>
+        <v>100.25454248</v>
       </c>
       <c r="F35" t="n">
-        <v>100.08353528</v>
+        <v>100.07620889</v>
       </c>
       <c r="G35" t="n">
-        <v>99.83812536000001</v>
+        <v>100.76010044</v>
       </c>
       <c r="H35" t="n">
-        <v>100.22496979</v>
+        <v>100.10975534</v>
       </c>
       <c r="I35" t="n">
-        <v>99.79761929999999</v>
+        <v>99.761779</v>
       </c>
       <c r="J35" t="n">
-        <v>100.03256786</v>
+        <v>100.05046505</v>
       </c>
       <c r="K35" t="n">
-        <v>100.01905</v>
+        <v>99.91475622</v>
       </c>
       <c r="L35" t="n">
-        <v>100.10749714</v>
+        <v>100.02139288</v>
       </c>
       <c r="M35" t="n">
-        <v>100.91956283</v>
+        <v>99.43040478</v>
       </c>
       <c r="N35" t="n">
-        <v>98.40036231000001</v>
+        <v>100.07966798</v>
       </c>
       <c r="O35" t="n">
-        <v>100.2291114</v>
+        <v>99.82132522000001</v>
       </c>
       <c r="P35" t="n">
-        <v>98.51974765</v>
+        <v>100.25806556</v>
       </c>
       <c r="Q35" t="n">
-        <v>99.64406517</v>
+        <v>102.55248567</v>
       </c>
       <c r="R35" t="n">
-        <v>100.09774468</v>
+        <v>99.69947270999999</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>2014年11月</t>
+          <t>2014-02</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>100.2414812</v>
+        <v>100.0376133</v>
       </c>
       <c r="C36" t="n">
-        <v>100.04103537</v>
+        <v>100.08294355</v>
       </c>
       <c r="D36" t="n">
-        <v>100.00871495</v>
+        <v>99.87352552999999</v>
       </c>
       <c r="E36" t="n">
-        <v>100.02157511</v>
+        <v>99.83531788000001</v>
       </c>
       <c r="F36" t="n">
-        <v>99.93439179000001</v>
+        <v>100.11125541</v>
       </c>
       <c r="G36" t="n">
-        <v>99.77085301</v>
+        <v>100.46201985</v>
       </c>
       <c r="H36" t="n">
-        <v>100.20232875</v>
+        <v>100.15087825</v>
       </c>
       <c r="I36" t="n">
-        <v>100.16485168</v>
+        <v>99.85679118</v>
       </c>
       <c r="J36" t="n">
-        <v>100.17052998</v>
+        <v>99.96321987</v>
       </c>
       <c r="K36" t="n">
-        <v>100.0355653</v>
+        <v>99.89622408</v>
       </c>
       <c r="L36" t="n">
-        <v>100.04492344</v>
+        <v>100.05921363</v>
       </c>
       <c r="M36" t="n">
-        <v>100.85147372</v>
+        <v>99.63392282</v>
       </c>
       <c r="N36" t="n">
-        <v>97.02081843000001</v>
+        <v>99.30138968999999</v>
       </c>
       <c r="O36" t="n">
-        <v>100.11344471</v>
+        <v>100.02662295</v>
       </c>
       <c r="P36" t="n">
-        <v>97.8096319</v>
+        <v>101.37607051</v>
       </c>
       <c r="Q36" t="n">
-        <v>99.68658261</v>
+        <v>101.6650177</v>
       </c>
       <c r="R36" t="n">
-        <v>100.07070195</v>
+        <v>100.01251933</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>2014年12月</t>
+          <t>2014-03</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>100.25269166</v>
+        <v>100.12297994</v>
       </c>
       <c r="C37" t="n">
-        <v>100.13119528</v>
+        <v>100.0734875</v>
       </c>
       <c r="D37" t="n">
-        <v>99.90274284</v>
+        <v>99.94131788</v>
       </c>
       <c r="E37" t="n">
-        <v>100.00595739</v>
+        <v>100.07191194</v>
       </c>
       <c r="F37" t="n">
-        <v>100.06946403</v>
+        <v>100.02260011</v>
       </c>
       <c r="G37" t="n">
-        <v>100.25301938</v>
+        <v>99.59149725</v>
       </c>
       <c r="H37" t="n">
-        <v>100.13516669</v>
+        <v>100.07046404</v>
       </c>
       <c r="I37" t="n">
-        <v>99.95967967</v>
+        <v>99.85909479</v>
       </c>
       <c r="J37" t="n">
-        <v>99.92807792000001</v>
+        <v>99.79659076</v>
       </c>
       <c r="K37" t="n">
-        <v>100.05188246</v>
+        <v>99.96140305999999</v>
       </c>
       <c r="L37" t="n">
-        <v>100.02585119</v>
+        <v>100.00663497</v>
       </c>
       <c r="M37" t="n">
-        <v>100.12806435</v>
+        <v>100.76695079</v>
       </c>
       <c r="N37" t="n">
-        <v>97.4718745</v>
+        <v>100.6578269</v>
       </c>
       <c r="O37" t="n">
-        <v>100.17511877</v>
+        <v>99.97480521999999</v>
       </c>
       <c r="P37" t="n">
-        <v>99.99340037</v>
+        <v>102.17446285</v>
       </c>
       <c r="Q37" t="n">
-        <v>101.26761841</v>
+        <v>98.32920589</v>
       </c>
       <c r="R37" t="n">
-        <v>99.98405090999999</v>
+        <v>100.14526212</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>2014年1月</t>
+          <t>2014-04</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>99.97903717</v>
+        <v>100.040468</v>
       </c>
       <c r="C38" t="n">
-        <v>100.46795259</v>
+        <v>100.04458586</v>
       </c>
       <c r="D38" t="n">
-        <v>100.01017245</v>
+        <v>99.80556970000001</v>
       </c>
       <c r="E38" t="n">
-        <v>100.25454248</v>
+        <v>100.09187088</v>
       </c>
       <c r="F38" t="n">
-        <v>100.07620889</v>
+        <v>100.18265304</v>
       </c>
       <c r="G38" t="n">
-        <v>100.76010044</v>
+        <v>99.54150801999999</v>
       </c>
       <c r="H38" t="n">
-        <v>100.10975534</v>
+        <v>100.09666749</v>
       </c>
       <c r="I38" t="n">
-        <v>99.761779</v>
+        <v>99.93686236000001</v>
       </c>
       <c r="J38" t="n">
-        <v>100.05046505</v>
+        <v>100.12715432</v>
       </c>
       <c r="K38" t="n">
-        <v>99.91475622</v>
+        <v>99.96865078</v>
       </c>
       <c r="L38" t="n">
-        <v>100.02139288</v>
+        <v>100.01258596</v>
       </c>
       <c r="M38" t="n">
-        <v>99.43040478</v>
+        <v>100.66928782</v>
       </c>
       <c r="N38" t="n">
-        <v>100.07966798</v>
+        <v>99.38005754</v>
       </c>
       <c r="O38" t="n">
-        <v>99.82132522000001</v>
+        <v>100.30473733</v>
       </c>
       <c r="P38" t="n">
-        <v>100.25806556</v>
+        <v>99.03802331</v>
       </c>
       <c r="Q38" t="n">
-        <v>102.55248567</v>
+        <v>98.58877061</v>
       </c>
       <c r="R38" t="n">
-        <v>99.69947270999999</v>
+        <v>100.02961323</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>2014年2月</t>
+          <t>2014-05</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>100.0376133</v>
+        <v>100.12663573</v>
       </c>
       <c r="C39" t="n">
-        <v>100.08294355</v>
+        <v>100.02564346</v>
       </c>
       <c r="D39" t="n">
-        <v>99.87352552999999</v>
+        <v>99.90770842000001</v>
       </c>
       <c r="E39" t="n">
-        <v>99.83531788000001</v>
+        <v>100.00294735</v>
       </c>
       <c r="F39" t="n">
-        <v>100.11125541</v>
+        <v>100.12878025</v>
       </c>
       <c r="G39" t="n">
-        <v>100.46201985</v>
+        <v>100.10641906</v>
       </c>
       <c r="H39" t="n">
-        <v>100.15087825</v>
+        <v>100.00991172</v>
       </c>
       <c r="I39" t="n">
-        <v>99.85679118</v>
+        <v>99.97146028</v>
       </c>
       <c r="J39" t="n">
-        <v>99.96321987</v>
+        <v>99.8911911</v>
       </c>
       <c r="K39" t="n">
-        <v>99.89622408</v>
+        <v>99.94529485</v>
       </c>
       <c r="L39" t="n">
-        <v>100.05921363</v>
+        <v>100.02427702</v>
       </c>
       <c r="M39" t="n">
-        <v>99.63392282</v>
+        <v>100.24433309</v>
       </c>
       <c r="N39" t="n">
-        <v>99.30138968999999</v>
+        <v>100.31306029</v>
       </c>
       <c r="O39" t="n">
-        <v>100.02662295</v>
+        <v>100.12055322</v>
       </c>
       <c r="P39" t="n">
-        <v>101.37607051</v>
+        <v>99.73078687</v>
       </c>
       <c r="Q39" t="n">
-        <v>101.6650177</v>
+        <v>100.19650689</v>
       </c>
       <c r="R39" t="n">
-        <v>100.01251933</v>
+        <v>100.0292262</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>2014年3月</t>
+          <t>2014-06</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>100.12297994</v>
+        <v>100.10622723</v>
       </c>
       <c r="C40" t="n">
-        <v>100.0734875</v>
+        <v>100.00983629</v>
       </c>
       <c r="D40" t="n">
-        <v>99.94131788</v>
+        <v>99.95375654</v>
       </c>
       <c r="E40" t="n">
-        <v>100.07191194</v>
+        <v>100.00721027</v>
       </c>
       <c r="F40" t="n">
-        <v>100.02260011</v>
+        <v>99.99234486</v>
       </c>
       <c r="G40" t="n">
-        <v>99.59149725</v>
+        <v>99.83047218</v>
       </c>
       <c r="H40" t="n">
-        <v>100.07046404</v>
+        <v>100.15688441</v>
       </c>
       <c r="I40" t="n">
-        <v>99.85909479</v>
+        <v>99.99121531999999</v>
       </c>
       <c r="J40" t="n">
-        <v>99.79659076</v>
+        <v>99.91799331999999</v>
       </c>
       <c r="K40" t="n">
-        <v>99.96140305999999</v>
+        <v>99.88730335</v>
       </c>
       <c r="L40" t="n">
-        <v>100.00663497</v>
+        <v>100.04516467</v>
       </c>
       <c r="M40" t="n">
-        <v>100.76695079</v>
+        <v>99.7769014</v>
       </c>
       <c r="N40" t="n">
-        <v>100.6578269</v>
+        <v>100.00817117</v>
       </c>
       <c r="O40" t="n">
-        <v>99.97480521999999</v>
+        <v>99.9482762</v>
       </c>
       <c r="P40" t="n">
-        <v>102.17446285</v>
+        <v>99.78967498999999</v>
       </c>
       <c r="Q40" t="n">
-        <v>98.32920589</v>
+        <v>99.55204696</v>
       </c>
       <c r="R40" t="n">
-        <v>100.14526212</v>
+        <v>99.98095077000001</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>2014年4月</t>
+          <t>2014-07</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>100.040468</v>
+        <v>100.10238979</v>
       </c>
       <c r="C41" t="n">
-        <v>100.04458586</v>
+        <v>100.00527271</v>
       </c>
       <c r="D41" t="n">
-        <v>99.80556970000001</v>
+        <v>99.88591906000001</v>
       </c>
       <c r="E41" t="n">
-        <v>100.09187088</v>
+        <v>100.02989178</v>
       </c>
       <c r="F41" t="n">
-        <v>100.18265304</v>
+        <v>100.04984992</v>
       </c>
       <c r="G41" t="n">
-        <v>99.54150801999999</v>
+        <v>99.9150672</v>
       </c>
       <c r="H41" t="n">
-        <v>100.09666749</v>
+        <v>99.95391916</v>
       </c>
       <c r="I41" t="n">
-        <v>99.93686236000001</v>
+        <v>99.90009918</v>
       </c>
       <c r="J41" t="n">
-        <v>100.12715432</v>
+        <v>99.95967623999999</v>
       </c>
       <c r="K41" t="n">
-        <v>99.96865078</v>
+        <v>99.94440027</v>
       </c>
       <c r="L41" t="n">
-        <v>100.01258596</v>
+        <v>99.98577979</v>
       </c>
       <c r="M41" t="n">
-        <v>100.66928782</v>
+        <v>99.41580508</v>
       </c>
       <c r="N41" t="n">
-        <v>99.38005754</v>
+        <v>100.0593023</v>
       </c>
       <c r="O41" t="n">
-        <v>100.30473733</v>
+        <v>100.04384303</v>
       </c>
       <c r="P41" t="n">
-        <v>99.03802331</v>
+        <v>100.91344669</v>
       </c>
       <c r="Q41" t="n">
-        <v>98.58877061</v>
+        <v>99.89234292</v>
       </c>
       <c r="R41" t="n">
-        <v>100.02961323</v>
+        <v>99.97113658000001</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>2014年5月</t>
+          <t>2014-08</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>100.12663573</v>
+        <v>100.22283721</v>
       </c>
       <c r="C42" t="n">
-        <v>100.02564346</v>
+        <v>100.05155239</v>
       </c>
       <c r="D42" t="n">
-        <v>99.90770842000001</v>
+        <v>99.84830418</v>
       </c>
       <c r="E42" t="n">
-        <v>100.00294735</v>
+        <v>100.0587177</v>
       </c>
       <c r="F42" t="n">
-        <v>100.12878025</v>
+        <v>99.99686732000001</v>
       </c>
       <c r="G42" t="n">
-        <v>100.10641906</v>
+        <v>100.08923114</v>
       </c>
       <c r="H42" t="n">
-        <v>100.00991172</v>
+        <v>100.15383887</v>
       </c>
       <c r="I42" t="n">
-        <v>99.97146028</v>
+        <v>99.80905156999999</v>
       </c>
       <c r="J42" t="n">
-        <v>99.8911911</v>
+        <v>99.95594547</v>
       </c>
       <c r="K42" t="n">
-        <v>99.94529485</v>
+        <v>99.91910000999999</v>
       </c>
       <c r="L42" t="n">
-        <v>100.02427702</v>
+        <v>100.04145022</v>
       </c>
       <c r="M42" t="n">
-        <v>100.24433309</v>
+        <v>99.87869739</v>
       </c>
       <c r="N42" t="n">
-        <v>100.31306029</v>
+        <v>98.60571898000001</v>
       </c>
       <c r="O42" t="n">
-        <v>100.12055322</v>
+        <v>99.91136532</v>
       </c>
       <c r="P42" t="n">
-        <v>99.73078687</v>
+        <v>99.04281276</v>
       </c>
       <c r="Q42" t="n">
-        <v>100.19650689</v>
+        <v>100.73682197</v>
       </c>
       <c r="R42" t="n">
-        <v>100.0292262</v>
+        <v>99.91529549000001</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>2014年6月</t>
+          <t>2014-09</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>100.10622723</v>
+        <v>100.13897589</v>
       </c>
       <c r="C43" t="n">
-        <v>100.00983629</v>
+        <v>100.2439133</v>
       </c>
       <c r="D43" t="n">
-        <v>99.95375654</v>
+        <v>99.85556052</v>
       </c>
       <c r="E43" t="n">
-        <v>100.00721027</v>
+        <v>100.03899224</v>
       </c>
       <c r="F43" t="n">
-        <v>99.99234486</v>
+        <v>100.06735918</v>
       </c>
       <c r="G43" t="n">
-        <v>99.83047218</v>
+        <v>100.21286771</v>
       </c>
       <c r="H43" t="n">
-        <v>100.15688441</v>
+        <v>99.98807574999999</v>
       </c>
       <c r="I43" t="n">
-        <v>99.99121531999999</v>
+        <v>99.78088701999999</v>
       </c>
       <c r="J43" t="n">
-        <v>99.91799331999999</v>
+        <v>99.91632164000001</v>
       </c>
       <c r="K43" t="n">
-        <v>99.88730335</v>
+        <v>99.96787034</v>
       </c>
       <c r="L43" t="n">
-        <v>100.04516467</v>
+        <v>100.11298693</v>
       </c>
       <c r="M43" t="n">
-        <v>99.7769014</v>
+        <v>101.00869066</v>
       </c>
       <c r="N43" t="n">
-        <v>100.00817117</v>
+        <v>98.59191454</v>
       </c>
       <c r="O43" t="n">
-        <v>99.9482762</v>
+        <v>100.12698889</v>
       </c>
       <c r="P43" t="n">
-        <v>99.78967498999999</v>
+        <v>97.90292387</v>
       </c>
       <c r="Q43" t="n">
-        <v>99.55204696</v>
+        <v>100.83012701</v>
       </c>
       <c r="R43" t="n">
-        <v>99.98095077000001</v>
+        <v>99.92173325</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>2014年7月</t>
+          <t>2014-10</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>100.10238979</v>
+        <v>100.14611753</v>
       </c>
       <c r="C44" t="n">
-        <v>100.00527271</v>
+        <v>100.03412759</v>
       </c>
       <c r="D44" t="n">
-        <v>99.88591906000001</v>
+        <v>99.85451722000001</v>
       </c>
       <c r="E44" t="n">
-        <v>100.02989178</v>
+        <v>100.14059926</v>
       </c>
       <c r="F44" t="n">
-        <v>100.04984992</v>
+        <v>100.08353528</v>
       </c>
       <c r="G44" t="n">
-        <v>99.9150672</v>
+        <v>99.83812536000001</v>
       </c>
       <c r="H44" t="n">
-        <v>99.95391916</v>
+        <v>100.22496979</v>
       </c>
       <c r="I44" t="n">
-        <v>99.90009918</v>
+        <v>99.79761929999999</v>
       </c>
       <c r="J44" t="n">
-        <v>99.95967623999999</v>
+        <v>100.03256786</v>
       </c>
       <c r="K44" t="n">
-        <v>99.94440027</v>
+        <v>100.01905</v>
       </c>
       <c r="L44" t="n">
-        <v>99.98577979</v>
+        <v>100.10749714</v>
       </c>
       <c r="M44" t="n">
-        <v>99.41580508</v>
+        <v>100.91956283</v>
       </c>
       <c r="N44" t="n">
-        <v>100.0593023</v>
+        <v>98.40036231000001</v>
       </c>
       <c r="O44" t="n">
-        <v>100.04384303</v>
+        <v>100.2291114</v>
       </c>
       <c r="P44" t="n">
-        <v>100.91344669</v>
+        <v>98.51974765</v>
       </c>
       <c r="Q44" t="n">
-        <v>99.89234292</v>
+        <v>99.64406517</v>
       </c>
       <c r="R44" t="n">
-        <v>99.97113658000001</v>
+        <v>100.09774468</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>2014年8月</t>
+          <t>2014-11</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>100.22283721</v>
+        <v>100.2414812</v>
       </c>
       <c r="C45" t="n">
-        <v>100.05155239</v>
+        <v>100.04103537</v>
       </c>
       <c r="D45" t="n">
-        <v>99.84830418</v>
+        <v>100.00871495</v>
       </c>
       <c r="E45" t="n">
-        <v>100.0587177</v>
+        <v>100.02157511</v>
       </c>
       <c r="F45" t="n">
-        <v>99.99686732000001</v>
+        <v>99.93439179000001</v>
       </c>
       <c r="G45" t="n">
-        <v>100.08923114</v>
+        <v>99.77085301</v>
       </c>
       <c r="H45" t="n">
-        <v>100.15383887</v>
+        <v>100.20232875</v>
       </c>
       <c r="I45" t="n">
-        <v>99.80905156999999</v>
+        <v>100.16485168</v>
       </c>
       <c r="J45" t="n">
-        <v>99.95594547</v>
+        <v>100.17052998</v>
       </c>
       <c r="K45" t="n">
-        <v>99.91910000999999</v>
+        <v>100.0355653</v>
       </c>
       <c r="L45" t="n">
-        <v>100.04145022</v>
+        <v>100.04492344</v>
       </c>
       <c r="M45" t="n">
-        <v>99.87869739</v>
+        <v>100.85147372</v>
       </c>
       <c r="N45" t="n">
-        <v>98.60571898000001</v>
+        <v>97.02081843000001</v>
       </c>
       <c r="O45" t="n">
-        <v>99.91136532</v>
+        <v>100.11344471</v>
       </c>
       <c r="P45" t="n">
-        <v>99.04281276</v>
+        <v>97.8096319</v>
       </c>
       <c r="Q45" t="n">
-        <v>100.73682197</v>
+        <v>99.68658261</v>
       </c>
       <c r="R45" t="n">
-        <v>99.91529549000001</v>
+        <v>100.07070195</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>2014年9月</t>
+          <t>2014-12</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>100.13897589</v>
+        <v>100.25269166</v>
       </c>
       <c r="C46" t="n">
-        <v>100.2439133</v>
+        <v>100.13119528</v>
       </c>
       <c r="D46" t="n">
-        <v>99.85556052</v>
+        <v>99.90274284</v>
       </c>
       <c r="E46" t="n">
-        <v>100.03899224</v>
+        <v>100.00595739</v>
       </c>
       <c r="F46" t="n">
-        <v>100.06735918</v>
+        <v>100.06946403</v>
       </c>
       <c r="G46" t="n">
-        <v>100.21286771</v>
+        <v>100.25301938</v>
       </c>
       <c r="H46" t="n">
-        <v>99.98807574999999</v>
+        <v>100.13516669</v>
       </c>
       <c r="I46" t="n">
-        <v>99.78088701999999</v>
+        <v>99.95967967</v>
       </c>
       <c r="J46" t="n">
-        <v>99.91632164000001</v>
+        <v>99.92807792000001</v>
       </c>
       <c r="K46" t="n">
-        <v>99.96787034</v>
+        <v>100.05188246</v>
       </c>
       <c r="L46" t="n">
-        <v>100.11298693</v>
+        <v>100.02585119</v>
       </c>
       <c r="M46" t="n">
-        <v>101.00869066</v>
+        <v>100.12806435</v>
       </c>
       <c r="N46" t="n">
-        <v>98.59191454</v>
+        <v>97.4718745</v>
       </c>
       <c r="O46" t="n">
-        <v>100.12698889</v>
+        <v>100.17511877</v>
       </c>
       <c r="P46" t="n">
-        <v>97.90292387</v>
+        <v>99.99340037</v>
       </c>
       <c r="Q46" t="n">
-        <v>100.83012701</v>
+        <v>101.26761841</v>
       </c>
       <c r="R46" t="n">
-        <v>99.92173325</v>
+        <v>99.98405090999999</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>2015年10月</t>
+          <t>2015-01</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>100.32978799</v>
+        <v>100.21359399</v>
       </c>
       <c r="C47" t="n">
-        <v>99.98437933</v>
+        <v>101.83948472</v>
       </c>
       <c r="D47" t="n">
-        <v>99.92809836000001</v>
+        <v>99.95518921999999</v>
       </c>
       <c r="E47" t="n">
-        <v>100.01784239</v>
+        <v>100.17646459</v>
       </c>
       <c r="F47" t="n">
-        <v>100.01964531</v>
+        <v>100.06301888</v>
       </c>
       <c r="G47" t="n">
-        <v>99.7357162</v>
+        <v>99.94648939</v>
       </c>
       <c r="H47" t="n">
-        <v>100.17868522</v>
+        <v>100.18720492</v>
       </c>
       <c r="I47" t="n">
-        <v>99.87890446</v>
+        <v>99.92700603</v>
       </c>
       <c r="J47" t="n">
-        <v>99.92611701</v>
+        <v>99.94684091000001</v>
       </c>
       <c r="K47" t="n">
-        <v>100.00960056</v>
+        <v>100.06597423</v>
       </c>
       <c r="L47" t="n">
-        <v>100.06741696</v>
+        <v>100.08191421</v>
       </c>
       <c r="M47" t="n">
-        <v>100.63689565</v>
+        <v>99.69157367</v>
       </c>
       <c r="N47" t="n">
-        <v>100.31610074</v>
+        <v>95.55787159</v>
       </c>
       <c r="O47" t="n">
-        <v>100.13491134</v>
+        <v>99.95708311</v>
       </c>
       <c r="P47" t="n">
-        <v>100.41118097</v>
+        <v>101.85509004</v>
       </c>
       <c r="Q47" t="n">
-        <v>98.89529563000001</v>
+        <v>100.64037455</v>
       </c>
       <c r="R47" t="n">
-        <v>100.0843721</v>
+        <v>100.00523957</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>2015年11月</t>
+          <t>2015-02</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>100.16220053</v>
+        <v>100.09856303</v>
       </c>
       <c r="C48" t="n">
-        <v>100.03135764</v>
+        <v>100.09992063</v>
       </c>
       <c r="D48" t="n">
-        <v>99.89506002</v>
+        <v>99.86180279</v>
       </c>
       <c r="E48" t="n">
-        <v>99.9963843</v>
+        <v>99.95701471</v>
       </c>
       <c r="F48" t="n">
-        <v>100.01881335</v>
+        <v>100.18028369</v>
       </c>
       <c r="G48" t="n">
-        <v>100.00965964</v>
+        <v>100.85044898</v>
       </c>
       <c r="H48" t="n">
-        <v>100.10886215</v>
+        <v>99.98516166</v>
       </c>
       <c r="I48" t="n">
-        <v>99.88146879999999</v>
+        <v>99.78796958</v>
       </c>
       <c r="J48" t="n">
-        <v>99.93567152</v>
+        <v>99.79477608000001</v>
       </c>
       <c r="K48" t="n">
-        <v>99.98671246000001</v>
+        <v>99.91347048</v>
       </c>
       <c r="L48" t="n">
-        <v>100.05550977</v>
+        <v>100.03794577</v>
       </c>
       <c r="M48" t="n">
-        <v>100.52937743</v>
+        <v>99.66286185</v>
       </c>
       <c r="N48" t="n">
-        <v>99.43806784</v>
+        <v>98.89293771</v>
       </c>
       <c r="O48" t="n">
-        <v>100.08177201</v>
+        <v>99.95589087</v>
       </c>
       <c r="P48" t="n">
-        <v>97.75423483</v>
+        <v>99.4160732</v>
       </c>
       <c r="Q48" t="n">
-        <v>100.05746026</v>
+        <v>103.01401229</v>
       </c>
       <c r="R48" t="n">
-        <v>100.08729914</v>
+        <v>99.84450347000001</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>2015年12月</t>
+          <t>2015-03</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>100.23170403</v>
+        <v>100.18068743</v>
       </c>
       <c r="C49" t="n">
-        <v>100.01172527</v>
+        <v>100.10852814</v>
       </c>
       <c r="D49" t="n">
-        <v>99.88342704999999</v>
+        <v>99.93247226</v>
       </c>
       <c r="E49" t="n">
-        <v>100.00252893</v>
+        <v>100.10929684</v>
       </c>
       <c r="F49" t="n">
-        <v>100.03529719</v>
+        <v>100.02254059</v>
       </c>
       <c r="G49" t="n">
-        <v>100.46827322</v>
+        <v>99.64440884</v>
       </c>
       <c r="H49" t="n">
-        <v>100.08676634</v>
+        <v>99.98488632999999</v>
       </c>
       <c r="I49" t="n">
-        <v>99.90526202</v>
+        <v>99.89976334000001</v>
       </c>
       <c r="J49" t="n">
-        <v>99.85801119</v>
+        <v>99.84040967999999</v>
       </c>
       <c r="K49" t="n">
-        <v>100.03083273</v>
+        <v>99.91974695</v>
       </c>
       <c r="L49" t="n">
-        <v>100.05602914</v>
+        <v>100.16105834</v>
       </c>
       <c r="M49" t="n">
-        <v>99.97675142</v>
+        <v>100.82014103</v>
       </c>
       <c r="N49" t="n">
-        <v>98.93529977999999</v>
+        <v>102.50809796</v>
       </c>
       <c r="O49" t="n">
-        <v>100.12872189</v>
+        <v>100.08315606</v>
       </c>
       <c r="P49" t="n">
-        <v>99.13667089</v>
+        <v>98.41316899</v>
       </c>
       <c r="Q49" t="n">
-        <v>101.65562801</v>
+        <v>98.25576579</v>
       </c>
       <c r="R49" t="n">
-        <v>99.98417872</v>
+        <v>100.13057574</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>2015年1月</t>
+          <t>2015-04</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>100.21359399</v>
+        <v>100.12909702</v>
       </c>
       <c r="C50" t="n">
-        <v>101.83948472</v>
+        <v>100.04914279</v>
       </c>
       <c r="D50" t="n">
-        <v>99.95518921999999</v>
+        <v>99.76162884</v>
       </c>
       <c r="E50" t="n">
-        <v>100.17646459</v>
+        <v>100.01757905</v>
       </c>
       <c r="F50" t="n">
-        <v>100.06301888</v>
+        <v>100.08395618</v>
       </c>
       <c r="G50" t="n">
-        <v>99.94648939</v>
+        <v>99.65423155000001</v>
       </c>
       <c r="H50" t="n">
-        <v>100.18720492</v>
+        <v>100.0690047</v>
       </c>
       <c r="I50" t="n">
-        <v>99.92700603</v>
+        <v>99.94208035</v>
       </c>
       <c r="J50" t="n">
-        <v>99.94684091000001</v>
+        <v>99.96866016</v>
       </c>
       <c r="K50" t="n">
-        <v>100.06597423</v>
+        <v>99.94839382000001</v>
       </c>
       <c r="L50" t="n">
-        <v>100.08191421</v>
+        <v>100.00875611</v>
       </c>
       <c r="M50" t="n">
-        <v>99.69157367</v>
+        <v>100.45978962</v>
       </c>
       <c r="N50" t="n">
-        <v>95.55787159</v>
+        <v>99.34081566</v>
       </c>
       <c r="O50" t="n">
-        <v>99.95708311</v>
+        <v>99.87959334</v>
       </c>
       <c r="P50" t="n">
-        <v>101.85509004</v>
+        <v>99.99945631999999</v>
       </c>
       <c r="Q50" t="n">
-        <v>100.64037455</v>
+        <v>99.01014582000001</v>
       </c>
       <c r="R50" t="n">
-        <v>100.00523957</v>
+        <v>100.0581059</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>2015年2月</t>
+          <t>2015-05</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>100.09856303</v>
+        <v>100.19994769</v>
       </c>
       <c r="C51" t="n">
-        <v>100.09992063</v>
+        <v>99.99033743</v>
       </c>
       <c r="D51" t="n">
-        <v>99.86180279</v>
+        <v>99.85524534</v>
       </c>
       <c r="E51" t="n">
-        <v>99.95701471</v>
+        <v>99.96904000000001</v>
       </c>
       <c r="F51" t="n">
-        <v>100.18028369</v>
+        <v>99.96424776000001</v>
       </c>
       <c r="G51" t="n">
-        <v>100.85044898</v>
+        <v>99.91882674</v>
       </c>
       <c r="H51" t="n">
-        <v>99.98516166</v>
+        <v>100.10789599</v>
       </c>
       <c r="I51" t="n">
-        <v>99.78796958</v>
+        <v>99.92366213</v>
       </c>
       <c r="J51" t="n">
-        <v>99.79477608000001</v>
+        <v>99.90633461</v>
       </c>
       <c r="K51" t="n">
-        <v>99.91347048</v>
+        <v>99.90293466999999</v>
       </c>
       <c r="L51" t="n">
-        <v>100.03794577</v>
+        <v>100.00962587</v>
       </c>
       <c r="M51" t="n">
-        <v>99.66286185</v>
+        <v>100.20928832</v>
       </c>
       <c r="N51" t="n">
-        <v>98.89293771</v>
+        <v>102.31021591</v>
       </c>
       <c r="O51" t="n">
-        <v>99.95589087</v>
+        <v>99.97416814</v>
       </c>
       <c r="P51" t="n">
-        <v>99.4160732</v>
+        <v>99.55673767</v>
       </c>
       <c r="Q51" t="n">
-        <v>103.01401229</v>
+        <v>98.98683797</v>
       </c>
       <c r="R51" t="n">
-        <v>99.84450347000001</v>
+        <v>101.4866086</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
         <is>
-          <t>2015年3月</t>
+          <t>2015-06</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>100.18068743</v>
+        <v>100.52235672</v>
       </c>
       <c r="C52" t="n">
-        <v>100.10852814</v>
+        <v>99.95772813000001</v>
       </c>
       <c r="D52" t="n">
-        <v>99.93247226</v>
+        <v>99.60752308000001</v>
       </c>
       <c r="E52" t="n">
-        <v>100.10929684</v>
+        <v>100.06318967</v>
       </c>
       <c r="F52" t="n">
-        <v>100.02254059</v>
+        <v>100.11100145</v>
       </c>
       <c r="G52" t="n">
-        <v>99.64440884</v>
+        <v>99.95985523</v>
       </c>
       <c r="H52" t="n">
-        <v>99.98488632999999</v>
+        <v>100.13227327</v>
       </c>
       <c r="I52" t="n">
-        <v>99.89976334000001</v>
+        <v>99.96665307000001</v>
       </c>
       <c r="J52" t="n">
-        <v>99.84040967999999</v>
+        <v>99.79329994</v>
       </c>
       <c r="K52" t="n">
-        <v>99.91974695</v>
+        <v>99.91850169999999</v>
       </c>
       <c r="L52" t="n">
-        <v>100.16105834</v>
+        <v>100.03199378</v>
       </c>
       <c r="M52" t="n">
-        <v>100.82014103</v>
+        <v>99.85818063000001</v>
       </c>
       <c r="N52" t="n">
-        <v>102.50809796</v>
+        <v>99.68739773999999</v>
       </c>
       <c r="O52" t="n">
-        <v>100.08315606</v>
+        <v>100.09755734</v>
       </c>
       <c r="P52" t="n">
-        <v>98.41316899</v>
+        <v>99.07442827</v>
       </c>
       <c r="Q52" t="n">
-        <v>98.25576579</v>
+        <v>99.79245984000001</v>
       </c>
       <c r="R52" t="n">
-        <v>100.13057574</v>
+        <v>101.29481517</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
         <is>
-          <t>2015年4月</t>
+          <t>2015-07</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>100.12909702</v>
+        <v>100.32425265</v>
       </c>
       <c r="C53" t="n">
-        <v>100.04914279</v>
+        <v>100.17581535</v>
       </c>
       <c r="D53" t="n">
-        <v>99.76162884</v>
+        <v>99.75939524</v>
       </c>
       <c r="E53" t="n">
-        <v>100.01757905</v>
+        <v>100.07296633</v>
       </c>
       <c r="F53" t="n">
-        <v>100.08395618</v>
+        <v>99.9806541</v>
       </c>
       <c r="G53" t="n">
-        <v>99.65423155000001</v>
+        <v>100.05582655</v>
       </c>
       <c r="H53" t="n">
-        <v>100.0690047</v>
+        <v>100.05450896</v>
       </c>
       <c r="I53" t="n">
-        <v>99.94208035</v>
+        <v>99.86300515000001</v>
       </c>
       <c r="J53" t="n">
-        <v>99.96866016</v>
+        <v>99.69218307</v>
       </c>
       <c r="K53" t="n">
-        <v>99.94839382000001</v>
+        <v>99.91544346000001</v>
       </c>
       <c r="L53" t="n">
-        <v>100.00875611</v>
+        <v>100.01822664</v>
       </c>
       <c r="M53" t="n">
-        <v>100.45978962</v>
+        <v>99.48423519000001</v>
       </c>
       <c r="N53" t="n">
-        <v>99.34081566</v>
+        <v>98.54022766</v>
       </c>
       <c r="O53" t="n">
-        <v>99.87959334</v>
+        <v>100.02954895</v>
       </c>
       <c r="P53" t="n">
-        <v>99.99945631999999</v>
+        <v>97.99901796</v>
       </c>
       <c r="Q53" t="n">
-        <v>99.01014582000001</v>
+        <v>100.74764666</v>
       </c>
       <c r="R53" t="n">
-        <v>100.0581059</v>
+        <v>100.06839204</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
         <is>
-          <t>2015年5月</t>
+          <t>2015-08</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>100.19994769</v>
+        <v>100.24767455</v>
       </c>
       <c r="C54" t="n">
-        <v>99.99033743</v>
+        <v>100.03883216</v>
       </c>
       <c r="D54" t="n">
-        <v>99.85524534</v>
+        <v>99.61110902999999</v>
       </c>
       <c r="E54" t="n">
-        <v>99.96904000000001</v>
+        <v>100.01903031</v>
       </c>
       <c r="F54" t="n">
-        <v>99.96424776000001</v>
+        <v>100.06017449</v>
       </c>
       <c r="G54" t="n">
-        <v>99.91882674</v>
+        <v>100.30111453</v>
       </c>
       <c r="H54" t="n">
-        <v>100.10789599</v>
+        <v>100.01734452</v>
       </c>
       <c r="I54" t="n">
-        <v>99.92366213</v>
+        <v>99.86822850999999</v>
       </c>
       <c r="J54" t="n">
-        <v>99.90633461</v>
+        <v>99.89885368</v>
       </c>
       <c r="K54" t="n">
-        <v>99.90293466999999</v>
+        <v>99.95898596000001</v>
       </c>
       <c r="L54" t="n">
-        <v>100.00962587</v>
+        <v>99.94667450999999</v>
       </c>
       <c r="M54" t="n">
-        <v>100.20928832</v>
+        <v>99.82029007</v>
       </c>
       <c r="N54" t="n">
-        <v>102.31021591</v>
+        <v>96.93366171</v>
       </c>
       <c r="O54" t="n">
-        <v>99.97416814</v>
+        <v>99.93657383</v>
       </c>
       <c r="P54" t="n">
-        <v>99.55673767</v>
+        <v>99.11535293</v>
       </c>
       <c r="Q54" t="n">
-        <v>98.98683797</v>
+        <v>101.72719516</v>
       </c>
       <c r="R54" t="n">
-        <v>101.4866086</v>
+        <v>100.03260143</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
         <is>
-          <t>2015年6月</t>
+          <t>2015-09</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>100.52235672</v>
+        <v>100.26600159</v>
       </c>
       <c r="C55" t="n">
-        <v>99.95772813000001</v>
+        <v>100.03587466</v>
       </c>
       <c r="D55" t="n">
-        <v>99.60752308000001</v>
+        <v>99.58717928999999</v>
       </c>
       <c r="E55" t="n">
-        <v>100.06318967</v>
+        <v>100.04302936</v>
       </c>
       <c r="F55" t="n">
-        <v>100.11100145</v>
+        <v>99.97845613</v>
       </c>
       <c r="G55" t="n">
-        <v>99.95985523</v>
+        <v>99.89828781999999</v>
       </c>
       <c r="H55" t="n">
-        <v>100.13227327</v>
+        <v>99.96275116</v>
       </c>
       <c r="I55" t="n">
-        <v>99.96665307000001</v>
+        <v>99.83105556</v>
       </c>
       <c r="J55" t="n">
-        <v>99.79329994</v>
+        <v>99.88198731999999</v>
       </c>
       <c r="K55" t="n">
-        <v>99.91850169999999</v>
+        <v>100.02435827</v>
       </c>
       <c r="L55" t="n">
-        <v>100.03199378</v>
+        <v>100.05505792</v>
       </c>
       <c r="M55" t="n">
-        <v>99.85818063000001</v>
+        <v>100.8895868</v>
       </c>
       <c r="N55" t="n">
-        <v>99.68739773999999</v>
+        <v>98.38963047999999</v>
       </c>
       <c r="O55" t="n">
-        <v>100.09755734</v>
+        <v>100.08733779</v>
       </c>
       <c r="P55" t="n">
-        <v>99.07442827</v>
+        <v>100.43999777</v>
       </c>
       <c r="Q55" t="n">
-        <v>99.79245984000001</v>
+        <v>99.85003241</v>
       </c>
       <c r="R55" t="n">
-        <v>101.29481517</v>
+        <v>99.93423944</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
         <is>
-          <t>2015年7月</t>
+          <t>2015-10</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>100.32425265</v>
+        <v>100.32978799</v>
       </c>
       <c r="C56" t="n">
-        <v>100.17581535</v>
+        <v>99.98437933</v>
       </c>
       <c r="D56" t="n">
-        <v>99.75939524</v>
+        <v>99.92809836000001</v>
       </c>
       <c r="E56" t="n">
-        <v>100.07296633</v>
+        <v>100.01784239</v>
       </c>
       <c r="F56" t="n">
-        <v>99.9806541</v>
+        <v>100.01964531</v>
       </c>
       <c r="G56" t="n">
-        <v>100.05582655</v>
+        <v>99.7357162</v>
       </c>
       <c r="H56" t="n">
-        <v>100.05450896</v>
+        <v>100.17868522</v>
       </c>
       <c r="I56" t="n">
-        <v>99.86300515000001</v>
+        <v>99.87890446</v>
       </c>
       <c r="J56" t="n">
-        <v>99.69218307</v>
+        <v>99.92611701</v>
       </c>
       <c r="K56" t="n">
-        <v>99.91544346000001</v>
+        <v>100.00960056</v>
       </c>
       <c r="L56" t="n">
-        <v>100.01822664</v>
+        <v>100.06741696</v>
       </c>
       <c r="M56" t="n">
-        <v>99.48423519000001</v>
+        <v>100.63689565</v>
       </c>
       <c r="N56" t="n">
-        <v>98.54022766</v>
+        <v>100.31610074</v>
       </c>
       <c r="O56" t="n">
-        <v>100.02954895</v>
+        <v>100.13491134</v>
       </c>
       <c r="P56" t="n">
-        <v>97.99901796</v>
+        <v>100.41118097</v>
       </c>
       <c r="Q56" t="n">
-        <v>100.74764666</v>
+        <v>98.89529563000001</v>
       </c>
       <c r="R56" t="n">
-        <v>100.06839204</v>
+        <v>100.0843721</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
         <is>
-          <t>2015年8月</t>
+          <t>2015-11</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>100.24767455</v>
+        <v>100.16220053</v>
       </c>
       <c r="C57" t="n">
-        <v>100.03883216</v>
+        <v>100.03135764</v>
       </c>
       <c r="D57" t="n">
-        <v>99.61110902999999</v>
+        <v>99.89506002</v>
       </c>
       <c r="E57" t="n">
-        <v>100.01903031</v>
+        <v>99.9963843</v>
       </c>
       <c r="F57" t="n">
-        <v>100.06017449</v>
+        <v>100.01881335</v>
       </c>
       <c r="G57" t="n">
-        <v>100.30111453</v>
+        <v>100.00965964</v>
       </c>
       <c r="H57" t="n">
-        <v>100.01734452</v>
+        <v>100.10886215</v>
       </c>
       <c r="I57" t="n">
-        <v>99.86822850999999</v>
+        <v>99.88146879999999</v>
       </c>
       <c r="J57" t="n">
-        <v>99.89885368</v>
+        <v>99.93567152</v>
       </c>
       <c r="K57" t="n">
-        <v>99.95898596000001</v>
+        <v>99.98671246000001</v>
       </c>
       <c r="L57" t="n">
-        <v>99.94667450999999</v>
+        <v>100.05550977</v>
       </c>
       <c r="M57" t="n">
-        <v>99.82029007</v>
+        <v>100.52937743</v>
       </c>
       <c r="N57" t="n">
-        <v>96.93366171</v>
+        <v>99.43806784</v>
       </c>
       <c r="O57" t="n">
-        <v>99.93657383</v>
+        <v>100.08177201</v>
       </c>
       <c r="P57" t="n">
-        <v>99.11535293</v>
+        <v>97.75423483</v>
       </c>
       <c r="Q57" t="n">
-        <v>101.72719516</v>
+        <v>100.05746026</v>
       </c>
       <c r="R57" t="n">
-        <v>100.03260143</v>
+        <v>100.08729914</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
         <is>
-          <t>2015年9月</t>
+          <t>2015-12</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>100.26600159</v>
+        <v>100.23170403</v>
       </c>
       <c r="C58" t="n">
-        <v>100.03587466</v>
+        <v>100.01172527</v>
       </c>
       <c r="D58" t="n">
-        <v>99.58717928999999</v>
+        <v>99.88342704999999</v>
       </c>
       <c r="E58" t="n">
-        <v>100.04302936</v>
+        <v>100.00252893</v>
       </c>
       <c r="F58" t="n">
-        <v>99.97845613</v>
+        <v>100.03529719</v>
       </c>
       <c r="G58" t="n">
-        <v>99.89828781999999</v>
+        <v>100.46827322</v>
       </c>
       <c r="H58" t="n">
-        <v>99.96275116</v>
+        <v>100.08676634</v>
       </c>
       <c r="I58" t="n">
-        <v>99.83105556</v>
+        <v>99.90526202</v>
       </c>
       <c r="J58" t="n">
-        <v>99.88198731999999</v>
+        <v>99.85801119</v>
       </c>
       <c r="K58" t="n">
-        <v>100.02435827</v>
+        <v>100.03083273</v>
       </c>
       <c r="L58" t="n">
-        <v>100.05505792</v>
+        <v>100.05602914</v>
       </c>
       <c r="M58" t="n">
-        <v>100.8895868</v>
+        <v>99.97675142</v>
       </c>
       <c r="N58" t="n">
-        <v>98.38963047999999</v>
+        <v>98.93529977999999</v>
       </c>
       <c r="O58" t="n">
-        <v>100.08733779</v>
+        <v>100.12872189</v>
       </c>
       <c r="P58" t="n">
-        <v>100.43999777</v>
+        <v>99.13667089</v>
       </c>
       <c r="Q58" t="n">
-        <v>99.85003241</v>
+        <v>101.65562801</v>
       </c>
       <c r="R58" t="n">
-        <v>99.93423944</v>
+        <v>99.98417872</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="inlineStr">
         <is>
-          <t>2016年10月</t>
+          <t>2016-01</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>100.392989499999</v>
+        <v>100.47287943</v>
       </c>
       <c r="C59" t="n">
-        <v>100.0473693</v>
+        <v>100.73480928</v>
       </c>
       <c r="D59" t="n">
-        <v>99.96092926</v>
+        <v>99.87837183000001</v>
       </c>
       <c r="E59" t="n">
-        <v>100.082239999999</v>
+        <v>100.14331688</v>
       </c>
       <c r="F59" t="n">
-        <v>100.1119891</v>
+        <v>100.06791286</v>
       </c>
       <c r="G59" t="n">
-        <v>99.9553377299999</v>
+        <v>100.36853002</v>
       </c>
       <c r="H59" t="n">
-        <v>99.98647755</v>
+        <v>100.13667213</v>
       </c>
       <c r="I59" t="n">
-        <v>99.9631838199999</v>
+        <v>99.85209773</v>
       </c>
       <c r="J59" t="n">
-        <v>100.129033899999</v>
+        <v>100.07237853</v>
       </c>
       <c r="K59" t="n">
-        <v>99.92446735999989</v>
+        <v>99.86508369000001</v>
       </c>
       <c r="L59" t="n">
-        <v>100.004121299999</v>
+        <v>99.99886506</v>
       </c>
       <c r="M59" t="n">
-        <v>100.6159741</v>
+        <v>99.60478336</v>
       </c>
       <c r="N59" t="n">
-        <v>101.127376999999</v>
+        <v>99.7043369</v>
       </c>
       <c r="O59" t="n">
-        <v>100.4117344</v>
+        <v>99.99589956</v>
       </c>
       <c r="P59" t="n">
-        <v>97.13384333</v>
+        <v>101.94781362</v>
       </c>
       <c r="Q59" t="n">
-        <v>99.17328806</v>
+        <v>101.77296995</v>
       </c>
       <c r="R59" t="n">
-        <v>100.143588899999</v>
+        <v>99.85650837999999</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
         <is>
-          <t>2016年11月</t>
+          <t>2016-02</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>100.6166909</v>
+        <v>100.21457081</v>
       </c>
       <c r="C60" t="n">
-        <v>100.0314695</v>
+        <v>100.08947313</v>
       </c>
       <c r="D60" t="n">
-        <v>100.0295367</v>
+        <v>99.91573302</v>
       </c>
       <c r="E60" t="n">
-        <v>100.052917</v>
+        <v>100.24030611</v>
       </c>
       <c r="F60" t="n">
-        <v>100.1457011</v>
+        <v>100.067331</v>
       </c>
       <c r="G60" t="n">
-        <v>100.2868308</v>
+        <v>101.20405032</v>
       </c>
       <c r="H60" t="n">
-        <v>100.4067309</v>
+        <v>100.03366433</v>
       </c>
       <c r="I60" t="n">
-        <v>99.73948953999999</v>
+        <v>99.70285049</v>
       </c>
       <c r="J60" t="n">
-        <v>100.3112913</v>
+        <v>99.99083459000001</v>
       </c>
       <c r="K60" t="n">
-        <v>99.97233500999999</v>
+        <v>99.97067361000001</v>
       </c>
       <c r="L60" t="n">
-        <v>100.005307</v>
+        <v>99.97001100999999</v>
       </c>
       <c r="M60" t="n">
-        <v>100.5501357</v>
+        <v>99.59738141</v>
       </c>
       <c r="N60" t="n">
-        <v>101.4298297</v>
+        <v>99.40037192</v>
       </c>
       <c r="O60" t="n">
-        <v>100.0346073</v>
+        <v>99.89475758</v>
       </c>
       <c r="P60" t="n">
-        <v>100.1899389</v>
+        <v>104.24761164</v>
       </c>
       <c r="Q60" t="n">
-        <v>100.2179814</v>
+        <v>105.68482821</v>
       </c>
       <c r="R60" t="n">
-        <v>100.0826989</v>
+        <v>99.85782518000001</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
         <is>
-          <t>2016年12月</t>
+          <t>2016-03</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>100.3612721</v>
+        <v>100.44628167</v>
       </c>
       <c r="C61" t="n">
-        <v>100.0089476</v>
+        <v>99.93446491</v>
       </c>
       <c r="D61" t="n">
-        <v>100.0557866</v>
+        <v>99.85606571</v>
       </c>
       <c r="E61" t="n">
-        <v>100.1671322</v>
+        <v>99.89115588</v>
       </c>
       <c r="F61" t="n">
-        <v>99.96299711</v>
+        <v>100.10676815</v>
       </c>
       <c r="G61" t="n">
-        <v>100.2678288</v>
+        <v>99.70736023000001</v>
       </c>
       <c r="H61" t="n">
-        <v>100.255983</v>
+        <v>99.95205094000001</v>
       </c>
       <c r="I61" t="n">
-        <v>100.1906818</v>
+        <v>99.79089112</v>
       </c>
       <c r="J61" t="n">
-        <v>100.3059894</v>
+        <v>99.88277734</v>
       </c>
       <c r="K61" t="n">
-        <v>99.99491634</v>
+        <v>99.91957973</v>
       </c>
       <c r="L61" t="n">
-        <v>100.1598447</v>
+        <v>100.02371899</v>
       </c>
       <c r="M61" t="n">
-        <v>99.82156132</v>
+        <v>100.51055655</v>
       </c>
       <c r="N61" t="n">
-        <v>102.1661909</v>
+        <v>99.55746249000001</v>
       </c>
       <c r="O61" t="n">
-        <v>100.0191784</v>
+        <v>100.01439578</v>
       </c>
       <c r="P61" t="n">
-        <v>96.79409995</v>
+        <v>103.21638189</v>
       </c>
       <c r="Q61" t="n">
-        <v>100.3800861</v>
+        <v>98.43388358</v>
       </c>
       <c r="R61" t="n">
-        <v>100.0383584</v>
+        <v>100.20507556</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="inlineStr">
         <is>
-          <t>2016年1月</t>
+          <t>2016-04</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>100.47287943</v>
+        <v>100.5415843</v>
       </c>
       <c r="C62" t="n">
-        <v>100.73480928</v>
+        <v>99.97769117</v>
       </c>
       <c r="D62" t="n">
-        <v>99.87837183000001</v>
+        <v>99.76274371</v>
       </c>
       <c r="E62" t="n">
-        <v>100.14331688</v>
+        <v>100.01251088</v>
       </c>
       <c r="F62" t="n">
-        <v>100.06791286</v>
+        <v>100.38487934</v>
       </c>
       <c r="G62" t="n">
-        <v>100.36853002</v>
+        <v>99.70703061</v>
       </c>
       <c r="H62" t="n">
-        <v>100.13667213</v>
+        <v>100.04907619</v>
       </c>
       <c r="I62" t="n">
-        <v>99.85209773</v>
+        <v>99.79152947</v>
       </c>
       <c r="J62" t="n">
-        <v>100.07237853</v>
+        <v>100.12280242</v>
       </c>
       <c r="K62" t="n">
-        <v>99.86508369000001</v>
+        <v>99.75685871</v>
       </c>
       <c r="L62" t="n">
-        <v>99.99886506</v>
+        <v>100.03959591</v>
       </c>
       <c r="M62" t="n">
-        <v>99.60478336</v>
+        <v>100.12537293</v>
       </c>
       <c r="N62" t="n">
-        <v>99.7043369</v>
+        <v>100.02041799</v>
       </c>
       <c r="O62" t="n">
-        <v>99.99589956</v>
+        <v>100.05566111</v>
       </c>
       <c r="P62" t="n">
-        <v>101.94781362</v>
+        <v>99.49303518000001</v>
       </c>
       <c r="Q62" t="n">
-        <v>101.77296995</v>
+        <v>98.70095978000001</v>
       </c>
       <c r="R62" t="n">
-        <v>99.85650837999999</v>
+        <v>99.98629523</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="inlineStr">
         <is>
-          <t>2016年2月</t>
+          <t>2016-05</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>100.21457081</v>
+        <v>100.40455932</v>
       </c>
       <c r="C63" t="n">
-        <v>100.08947313</v>
+        <v>99.98013037</v>
       </c>
       <c r="D63" t="n">
-        <v>99.91573302</v>
+        <v>99.7013486</v>
       </c>
       <c r="E63" t="n">
-        <v>100.24030611</v>
+        <v>99.99524409</v>
       </c>
       <c r="F63" t="n">
-        <v>100.067331</v>
+        <v>100.15255888</v>
       </c>
       <c r="G63" t="n">
-        <v>101.20405032</v>
+        <v>99.65611896</v>
       </c>
       <c r="H63" t="n">
-        <v>100.03366433</v>
+        <v>100.02683632</v>
       </c>
       <c r="I63" t="n">
-        <v>99.70285049</v>
+        <v>99.81500799</v>
       </c>
       <c r="J63" t="n">
-        <v>99.99083459000001</v>
+        <v>100.15335978</v>
       </c>
       <c r="K63" t="n">
-        <v>99.97067361000001</v>
+        <v>99.75241564</v>
       </c>
       <c r="L63" t="n">
-        <v>99.97001100999999</v>
+        <v>100.02905197</v>
       </c>
       <c r="M63" t="n">
-        <v>99.59738141</v>
+        <v>100.09878463</v>
       </c>
       <c r="N63" t="n">
-        <v>99.40037192</v>
+        <v>101.92939637</v>
       </c>
       <c r="O63" t="n">
-        <v>99.89475758</v>
+        <v>100.08812573</v>
       </c>
       <c r="P63" t="n">
-        <v>104.24761164</v>
+        <v>102.0419309</v>
       </c>
       <c r="Q63" t="n">
-        <v>105.68482821</v>
+        <v>97.68176432</v>
       </c>
       <c r="R63" t="n">
-        <v>99.85782518000001</v>
+        <v>100.03563437</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="inlineStr">
         <is>
-          <t>2016年3月</t>
+          <t>2016-06</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>100.44628167</v>
+        <v>100.79267944</v>
       </c>
       <c r="C64" t="n">
-        <v>99.93446491</v>
+        <v>100.07320726</v>
       </c>
       <c r="D64" t="n">
-        <v>99.85606571</v>
+        <v>99.80109672</v>
       </c>
       <c r="E64" t="n">
-        <v>99.89115588</v>
+        <v>99.93602399</v>
       </c>
       <c r="F64" t="n">
-        <v>100.10676815</v>
+        <v>100.19181229</v>
       </c>
       <c r="G64" t="n">
-        <v>99.70736023000001</v>
+        <v>99.88111798</v>
       </c>
       <c r="H64" t="n">
-        <v>99.95205094000001</v>
+        <v>100.02219899</v>
       </c>
       <c r="I64" t="n">
-        <v>99.79089112</v>
+        <v>99.71080381</v>
       </c>
       <c r="J64" t="n">
-        <v>99.88277734</v>
+        <v>100.04941307</v>
       </c>
       <c r="K64" t="n">
-        <v>99.91957973</v>
+        <v>99.81871612</v>
       </c>
       <c r="L64" t="n">
-        <v>100.02371899</v>
+        <v>99.9941431</v>
       </c>
       <c r="M64" t="n">
-        <v>100.51055655</v>
+        <v>99.64108640000001</v>
       </c>
       <c r="N64" t="n">
-        <v>99.55746249000001</v>
+        <v>102.12751402</v>
       </c>
       <c r="O64" t="n">
-        <v>100.01439578</v>
+        <v>99.99957946000001</v>
       </c>
       <c r="P64" t="n">
-        <v>103.21638189</v>
+        <v>100.37219412</v>
       </c>
       <c r="Q64" t="n">
-        <v>98.43388358</v>
+        <v>98.78332039999999</v>
       </c>
       <c r="R64" t="n">
-        <v>100.20507556</v>
+        <v>99.95433792999999</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="inlineStr">
         <is>
-          <t>2016年4月</t>
+          <t>2016-07</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>100.5415843</v>
+        <v>100.52222443</v>
       </c>
       <c r="C65" t="n">
-        <v>99.97769117</v>
+        <v>100.09902429</v>
       </c>
       <c r="D65" t="n">
-        <v>99.76274371</v>
+        <v>99.80219176999999</v>
       </c>
       <c r="E65" t="n">
-        <v>100.01251088</v>
+        <v>99.99196892000001</v>
       </c>
       <c r="F65" t="n">
-        <v>100.38487934</v>
+        <v>100.27779164</v>
       </c>
       <c r="G65" t="n">
-        <v>99.70703061</v>
+        <v>100.01978642</v>
       </c>
       <c r="H65" t="n">
-        <v>100.04907619</v>
+        <v>99.90269158</v>
       </c>
       <c r="I65" t="n">
-        <v>99.79152947</v>
+        <v>99.91644512000001</v>
       </c>
       <c r="J65" t="n">
-        <v>100.12280242</v>
+        <v>99.96920717</v>
       </c>
       <c r="K65" t="n">
-        <v>99.75685871</v>
+        <v>99.87610042</v>
       </c>
       <c r="L65" t="n">
-        <v>100.03959591</v>
+        <v>100.00537787</v>
       </c>
       <c r="M65" t="n">
-        <v>100.12537293</v>
+        <v>99.56317730000001</v>
       </c>
       <c r="N65" t="n">
-        <v>100.02041799</v>
+        <v>99.77584881</v>
       </c>
       <c r="O65" t="n">
-        <v>100.05566111</v>
+        <v>99.81833887000001</v>
       </c>
       <c r="P65" t="n">
-        <v>99.49303518000001</v>
+        <v>104.90743723</v>
       </c>
       <c r="Q65" t="n">
-        <v>98.70095978000001</v>
+        <v>99.93805436</v>
       </c>
       <c r="R65" t="n">
-        <v>99.98629523</v>
+        <v>100.08112843</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="inlineStr">
         <is>
-          <t>2016年5月</t>
+          <t>2016-08</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>100.40455932</v>
+        <v>100.58161549</v>
       </c>
       <c r="C66" t="n">
-        <v>99.98013037</v>
+        <v>100.20690024</v>
       </c>
       <c r="D66" t="n">
-        <v>99.7013486</v>
+        <v>99.84645309</v>
       </c>
       <c r="E66" t="n">
-        <v>99.99524409</v>
+        <v>100.01172538</v>
       </c>
       <c r="F66" t="n">
-        <v>100.15255888</v>
+        <v>100.00485881</v>
       </c>
       <c r="G66" t="n">
-        <v>99.65611896</v>
+        <v>99.95151065</v>
       </c>
       <c r="H66" t="n">
-        <v>100.02683632</v>
+        <v>100.03087941</v>
       </c>
       <c r="I66" t="n">
-        <v>99.81500799</v>
+        <v>99.81841579</v>
       </c>
       <c r="J66" t="n">
-        <v>100.15335978</v>
+        <v>100.05152981</v>
       </c>
       <c r="K66" t="n">
-        <v>99.75241564</v>
+        <v>99.74517765</v>
       </c>
       <c r="L66" t="n">
-        <v>100.02905197</v>
+        <v>99.94096682999999</v>
       </c>
       <c r="M66" t="n">
-        <v>100.09878463</v>
+        <v>99.97007163000001</v>
       </c>
       <c r="N66" t="n">
-        <v>101.92939637</v>
+        <v>98.29268433999999</v>
       </c>
       <c r="O66" t="n">
-        <v>100.08812573</v>
+        <v>99.91639189999999</v>
       </c>
       <c r="P66" t="n">
-        <v>102.0419309</v>
+        <v>100.34170922</v>
       </c>
       <c r="Q66" t="n">
-        <v>97.68176432</v>
+        <v>100.39536449</v>
       </c>
       <c r="R66" t="n">
-        <v>100.03563437</v>
+        <v>100.01388956</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="inlineStr">
         <is>
-          <t>2016年6月</t>
+          <t>2016-09</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>100.79267944</v>
+        <v>100.4068835</v>
       </c>
       <c r="C67" t="n">
-        <v>100.07320726</v>
+        <v>100.4521368</v>
       </c>
       <c r="D67" t="n">
-        <v>99.80109672</v>
+        <v>99.71883312999989</v>
       </c>
       <c r="E67" t="n">
-        <v>99.93602399</v>
+        <v>100.0611909</v>
       </c>
       <c r="F67" t="n">
-        <v>100.19181229</v>
+        <v>99.98651877</v>
       </c>
       <c r="G67" t="n">
-        <v>99.88111798</v>
+        <v>100.5150078</v>
       </c>
       <c r="H67" t="n">
-        <v>100.02219899</v>
+        <v>99.95813325</v>
       </c>
       <c r="I67" t="n">
-        <v>99.71080381</v>
+        <v>99.72922787</v>
       </c>
       <c r="J67" t="n">
-        <v>100.04941307</v>
+        <v>100.047382299999</v>
       </c>
       <c r="K67" t="n">
-        <v>99.81871612</v>
+        <v>99.81706389999989</v>
       </c>
       <c r="L67" t="n">
-        <v>99.9941431</v>
+        <v>99.99474895</v>
       </c>
       <c r="M67" t="n">
-        <v>99.64108640000001</v>
+        <v>100.8956141</v>
       </c>
       <c r="N67" t="n">
-        <v>102.12751402</v>
+        <v>101.8587696</v>
       </c>
       <c r="O67" t="n">
-        <v>99.99957946000001</v>
+        <v>100.1335633</v>
       </c>
       <c r="P67" t="n">
-        <v>100.37219412</v>
+        <v>99.6636445599999</v>
       </c>
       <c r="Q67" t="n">
-        <v>98.78332039999999</v>
+        <v>101.4764777</v>
       </c>
       <c r="R67" t="n">
-        <v>99.95433792999999</v>
+        <v>99.9707723599999</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="inlineStr">
         <is>
-          <t>2016年7月</t>
+          <t>2016-10</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>100.52222443</v>
+        <v>100.392989499999</v>
       </c>
       <c r="C68" t="n">
-        <v>100.09902429</v>
+        <v>100.0473693</v>
       </c>
       <c r="D68" t="n">
-        <v>99.80219176999999</v>
+        <v>99.96092926</v>
       </c>
       <c r="E68" t="n">
-        <v>99.99196892000001</v>
+        <v>100.082239999999</v>
       </c>
       <c r="F68" t="n">
-        <v>100.27779164</v>
+        <v>100.1119891</v>
       </c>
       <c r="G68" t="n">
-        <v>100.01978642</v>
+        <v>99.9553377299999</v>
       </c>
       <c r="H68" t="n">
-        <v>99.90269158</v>
+        <v>99.98647755</v>
       </c>
       <c r="I68" t="n">
-        <v>99.91644512000001</v>
+        <v>99.9631838199999</v>
       </c>
       <c r="J68" t="n">
-        <v>99.96920717</v>
+        <v>100.129033899999</v>
       </c>
       <c r="K68" t="n">
-        <v>99.87610042</v>
+        <v>99.92446735999989</v>
       </c>
       <c r="L68" t="n">
-        <v>100.00537787</v>
+        <v>100.004121299999</v>
       </c>
       <c r="M68" t="n">
-        <v>99.56317730000001</v>
+        <v>100.6159741</v>
       </c>
       <c r="N68" t="n">
-        <v>99.77584881</v>
+        <v>101.127376999999</v>
       </c>
       <c r="O68" t="n">
-        <v>99.81833887000001</v>
+        <v>100.4117344</v>
       </c>
       <c r="P68" t="n">
-        <v>104.90743723</v>
+        <v>97.13384333</v>
       </c>
       <c r="Q68" t="n">
-        <v>99.93805436</v>
+        <v>99.17328806</v>
       </c>
       <c r="R68" t="n">
-        <v>100.08112843</v>
+        <v>100.143588899999</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="inlineStr">
         <is>
-          <t>2016年8月</t>
+          <t>2016-11</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>100.58161549</v>
+        <v>100.6166909</v>
       </c>
       <c r="C69" t="n">
-        <v>100.20690024</v>
+        <v>100.0314695</v>
       </c>
       <c r="D69" t="n">
-        <v>99.84645309</v>
+        <v>100.0295367</v>
       </c>
       <c r="E69" t="n">
-        <v>100.01172538</v>
+        <v>100.052917</v>
       </c>
       <c r="F69" t="n">
-        <v>100.00485881</v>
+        <v>100.1457011</v>
       </c>
       <c r="G69" t="n">
-        <v>99.95151065</v>
+        <v>100.2868308</v>
       </c>
       <c r="H69" t="n">
-        <v>100.03087941</v>
+        <v>100.4067309</v>
       </c>
       <c r="I69" t="n">
-        <v>99.81841579</v>
+        <v>99.73948953999999</v>
       </c>
       <c r="J69" t="n">
-        <v>100.05152981</v>
+        <v>100.3112913</v>
       </c>
       <c r="K69" t="n">
-        <v>99.74517765</v>
+        <v>99.97233500999999</v>
       </c>
       <c r="L69" t="n">
-        <v>99.94096682999999</v>
+        <v>100.005307</v>
       </c>
       <c r="M69" t="n">
-        <v>99.97007163000001</v>
+        <v>100.5501357</v>
       </c>
       <c r="N69" t="n">
-        <v>98.29268433999999</v>
+        <v>101.4298297</v>
       </c>
       <c r="O69" t="n">
-        <v>99.91639189999999</v>
+        <v>100.0346073</v>
       </c>
       <c r="P69" t="n">
-        <v>100.34170922</v>
+        <v>100.1899389</v>
       </c>
       <c r="Q69" t="n">
-        <v>100.39536449</v>
+        <v>100.2179814</v>
       </c>
       <c r="R69" t="n">
-        <v>100.01388956</v>
+        <v>100.0826989</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="inlineStr">
         <is>
-          <t>2016年9月</t>
+          <t>2016-12</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>100.4068835</v>
+        <v>100.3612721</v>
       </c>
       <c r="C70" t="n">
-        <v>100.4521368</v>
+        <v>100.0089476</v>
       </c>
       <c r="D70" t="n">
-        <v>99.71883312999989</v>
+        <v>100.0557866</v>
       </c>
       <c r="E70" t="n">
-        <v>100.0611909</v>
+        <v>100.1671322</v>
       </c>
       <c r="F70" t="n">
-        <v>99.98651877</v>
+        <v>99.96299711</v>
       </c>
       <c r="G70" t="n">
-        <v>100.5150078</v>
+        <v>100.2678288</v>
       </c>
       <c r="H70" t="n">
-        <v>99.95813325</v>
+        <v>100.255983</v>
       </c>
       <c r="I70" t="n">
-        <v>99.72922787</v>
+        <v>100.1906818</v>
       </c>
       <c r="J70" t="n">
-        <v>100.047382299999</v>
+        <v>100.3059894</v>
       </c>
       <c r="K70" t="n">
-        <v>99.81706389999989</v>
+        <v>99.99491634</v>
       </c>
       <c r="L70" t="n">
-        <v>99.99474895</v>
+        <v>100.1598447</v>
       </c>
       <c r="M70" t="n">
-        <v>100.8956141</v>
+        <v>99.82156132</v>
       </c>
       <c r="N70" t="n">
-        <v>101.8587696</v>
+        <v>102.1661909</v>
       </c>
       <c r="O70" t="n">
-        <v>100.1335633</v>
+        <v>100.0191784</v>
       </c>
       <c r="P70" t="n">
-        <v>99.6636445599999</v>
+        <v>96.79409995</v>
       </c>
       <c r="Q70" t="n">
-        <v>101.4764777</v>
+        <v>100.3800861</v>
       </c>
       <c r="R70" t="n">
-        <v>99.9707723599999</v>
+        <v>100.0383584</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="inlineStr">
         <is>
-          <t>2017年10月</t>
+          <t>2017-01</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>100.2581399</v>
+        <v>100.2796734</v>
       </c>
       <c r="C71" t="n">
-        <v>100.0756432</v>
+        <v>100.4623023</v>
       </c>
       <c r="D71" t="n">
-        <v>99.89479335</v>
+        <v>99.99776738</v>
       </c>
       <c r="E71" t="n">
-        <v>100.0250858</v>
+        <v>100.1125229</v>
       </c>
       <c r="F71" t="n">
-        <v>100.1295895</v>
+        <v>99.96643646</v>
       </c>
       <c r="G71" t="n">
-        <v>100.2968976</v>
+        <v>100.7679906</v>
       </c>
       <c r="H71" t="n">
-        <v>100.320372</v>
+        <v>100.0985301</v>
       </c>
       <c r="I71" t="n">
-        <v>99.9448368</v>
+        <v>100.077135</v>
       </c>
       <c r="J71" t="n">
-        <v>100.4444475</v>
+        <v>100.2374084</v>
       </c>
       <c r="K71" t="n">
-        <v>100.0129042</v>
+        <v>100.1171745</v>
       </c>
       <c r="L71" t="n">
-        <v>100.247309</v>
+        <v>99.96739297000001</v>
       </c>
       <c r="M71" t="n">
-        <v>100.5624229</v>
+        <v>99.43677618</v>
       </c>
       <c r="N71" t="n">
-        <v>102.4848572</v>
+        <v>103.4899116</v>
       </c>
       <c r="O71" t="n">
-        <v>100.2699416</v>
+        <v>99.78067944</v>
       </c>
       <c r="P71" t="n">
-        <v>98.87067537999999</v>
+        <v>101.3621963</v>
       </c>
       <c r="Q71" t="n">
-        <v>99.96187222</v>
+        <v>102.1248111</v>
       </c>
       <c r="R71" t="n">
-        <v>100.1712874</v>
+        <v>99.86435237000001</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="inlineStr">
         <is>
-          <t>2017年11月</t>
+          <t>2017-02</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>100.2776696</v>
+        <v>100.30436849</v>
       </c>
       <c r="C72" t="n">
-        <v>100.2685557</v>
+        <v>100.1254031</v>
       </c>
       <c r="D72" t="n">
-        <v>99.95137372000001</v>
+        <v>99.89011435</v>
       </c>
       <c r="E72" t="n">
-        <v>100.1444519</v>
+        <v>100.15749299</v>
       </c>
       <c r="F72" t="n">
-        <v>99.93974038</v>
+        <v>100.1272687</v>
       </c>
       <c r="G72" t="n">
-        <v>100.2346286</v>
+        <v>99.97332406</v>
       </c>
       <c r="H72" t="n">
-        <v>100.4358957</v>
+        <v>100.21098403</v>
       </c>
       <c r="I72" t="n">
-        <v>99.86001795999999</v>
+        <v>100.25288553</v>
       </c>
       <c r="J72" t="n">
-        <v>100.3726274</v>
+        <v>100.04564042</v>
       </c>
       <c r="K72" t="n">
-        <v>100.0209378</v>
+        <v>99.98734412</v>
       </c>
       <c r="L72" t="n">
-        <v>100.1881699</v>
+        <v>100.08444527</v>
       </c>
       <c r="M72" t="n">
-        <v>100.5686533</v>
+        <v>99.74433637999999</v>
       </c>
       <c r="N72" t="n">
-        <v>102.3533105</v>
+        <v>100.15256112</v>
       </c>
       <c r="O72" t="n">
-        <v>100.0345761</v>
+        <v>99.86450010999999</v>
       </c>
       <c r="P72" t="n">
-        <v>100.0643304</v>
+        <v>101.85677019</v>
       </c>
       <c r="Q72" t="n">
-        <v>99.6000811</v>
+        <v>99.56455441</v>
       </c>
       <c r="R72" t="n">
-        <v>100.1642355</v>
+        <v>100.16292625</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="inlineStr">
         <is>
-          <t>2017年12月</t>
+          <t>2017-03</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>100.2693055</v>
+        <v>100.5490059</v>
       </c>
       <c r="C73" t="n">
-        <v>100.1325879</v>
+        <v>100.0386574</v>
       </c>
       <c r="D73" t="n">
-        <v>100.0691528</v>
+        <v>99.75309597</v>
       </c>
       <c r="E73" t="n">
-        <v>100.0945295</v>
+        <v>99.93668608</v>
       </c>
       <c r="F73" t="n">
-        <v>100.1558782</v>
+        <v>100.077865</v>
       </c>
       <c r="G73" t="n">
-        <v>100.4078583</v>
+        <v>99.69840762</v>
       </c>
       <c r="H73" t="n">
-        <v>100.122286</v>
+        <v>100.2118565</v>
       </c>
       <c r="I73" t="n">
-        <v>100.1855976</v>
+        <v>100.100003</v>
       </c>
       <c r="J73" t="n">
-        <v>100.5586588</v>
+        <v>100.2387671</v>
       </c>
       <c r="K73" t="n">
-        <v>100.2729261</v>
+        <v>100.167617</v>
       </c>
       <c r="L73" t="n">
-        <v>100.1223394</v>
+        <v>100.1171332</v>
       </c>
       <c r="M73" t="n">
-        <v>99.95045675</v>
+        <v>100.6200987</v>
       </c>
       <c r="N73" t="n">
-        <v>101.4055848</v>
+        <v>99.59494908000001</v>
       </c>
       <c r="O73" t="n">
-        <v>100.1328902</v>
+        <v>99.96684655999999</v>
       </c>
       <c r="P73" t="n">
-        <v>98.66786125</v>
+        <v>99.86568787</v>
       </c>
       <c r="Q73" t="n">
-        <v>100.9580247</v>
+        <v>98.31078343</v>
       </c>
       <c r="R73" t="n">
-        <v>100.144365</v>
+        <v>100.2698524</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="inlineStr">
         <is>
-          <t>2017年1月</t>
+          <t>2017-04</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>100.2796734</v>
+        <v>100.503577</v>
       </c>
       <c r="C74" t="n">
-        <v>100.4623023</v>
+        <v>99.96667237</v>
       </c>
       <c r="D74" t="n">
-        <v>99.99776738</v>
+        <v>99.86403411000001</v>
       </c>
       <c r="E74" t="n">
-        <v>100.1125229</v>
+        <v>99.99719483</v>
       </c>
       <c r="F74" t="n">
-        <v>99.96643646</v>
+        <v>100.3904801</v>
       </c>
       <c r="G74" t="n">
-        <v>100.7679906</v>
+        <v>99.93646697</v>
       </c>
       <c r="H74" t="n">
-        <v>100.0985301</v>
+        <v>100.2774232</v>
       </c>
       <c r="I74" t="n">
-        <v>100.077135</v>
+        <v>100.1801023</v>
       </c>
       <c r="J74" t="n">
-        <v>100.2374084</v>
+        <v>100.2459715</v>
       </c>
       <c r="K74" t="n">
-        <v>100.1171745</v>
+        <v>100.0536911</v>
       </c>
       <c r="L74" t="n">
-        <v>99.96739297000001</v>
+        <v>100.0389464</v>
       </c>
       <c r="M74" t="n">
-        <v>99.43677618</v>
+        <v>100.1764364</v>
       </c>
       <c r="N74" t="n">
-        <v>103.4899116</v>
+        <v>99.07305798</v>
       </c>
       <c r="O74" t="n">
-        <v>99.78067944</v>
+        <v>100.1919495</v>
       </c>
       <c r="P74" t="n">
-        <v>101.3621963</v>
+        <v>101.4473944</v>
       </c>
       <c r="Q74" t="n">
-        <v>102.1248111</v>
+        <v>99.56372875</v>
       </c>
       <c r="R74" t="n">
-        <v>99.86435237000001</v>
+        <v>100.1725096</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="inlineStr">
         <is>
-          <t>2017年2月</t>
+          <t>2017-05</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>100.30436849</v>
+        <v>100.5541228</v>
       </c>
       <c r="C75" t="n">
-        <v>100.1254031</v>
+        <v>100.1235618</v>
       </c>
       <c r="D75" t="n">
-        <v>99.89011435</v>
+        <v>99.66182658</v>
       </c>
       <c r="E75" t="n">
-        <v>100.15749299</v>
+        <v>100.0904266</v>
       </c>
       <c r="F75" t="n">
-        <v>100.1272687</v>
+        <v>100.1655586</v>
       </c>
       <c r="G75" t="n">
-        <v>99.97332406</v>
+        <v>99.8489163</v>
       </c>
       <c r="H75" t="n">
-        <v>100.21098403</v>
+        <v>100.1953557</v>
       </c>
       <c r="I75" t="n">
-        <v>100.25288553</v>
+        <v>100.1084257</v>
       </c>
       <c r="J75" t="n">
-        <v>100.04564042</v>
+        <v>100.1764431</v>
       </c>
       <c r="K75" t="n">
-        <v>99.98734412</v>
+        <v>99.89453362</v>
       </c>
       <c r="L75" t="n">
-        <v>100.08444527</v>
+        <v>100.0572184</v>
       </c>
       <c r="M75" t="n">
-        <v>99.74433637999999</v>
+        <v>100.121062</v>
       </c>
       <c r="N75" t="n">
-        <v>100.15256112</v>
+        <v>99.35862475</v>
       </c>
       <c r="O75" t="n">
-        <v>99.86450010999999</v>
+        <v>100.2937483</v>
       </c>
       <c r="P75" t="n">
-        <v>101.85677019</v>
+        <v>99.43166146</v>
       </c>
       <c r="Q75" t="n">
-        <v>99.56455441</v>
+        <v>99.43864056</v>
       </c>
       <c r="R75" t="n">
-        <v>100.16292625</v>
+        <v>100.1196931</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="inlineStr">
         <is>
-          <t>2017年3月</t>
+          <t>2017-06</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>100.5490059</v>
+        <v>100.4029681</v>
       </c>
       <c r="C76" t="n">
-        <v>100.0386574</v>
+        <v>99.96299234</v>
       </c>
       <c r="D76" t="n">
-        <v>99.75309597</v>
+        <v>99.77476901</v>
       </c>
       <c r="E76" t="n">
-        <v>99.93668608</v>
+        <v>99.92414056</v>
       </c>
       <c r="F76" t="n">
-        <v>100.077865</v>
+        <v>99.9672685</v>
       </c>
       <c r="G76" t="n">
-        <v>99.69840762</v>
+        <v>99.67720534999999</v>
       </c>
       <c r="H76" t="n">
-        <v>100.2118565</v>
+        <v>100.1442662</v>
       </c>
       <c r="I76" t="n">
-        <v>100.100003</v>
+        <v>99.9182198</v>
       </c>
       <c r="J76" t="n">
-        <v>100.2387671</v>
+        <v>100.1687819</v>
       </c>
       <c r="K76" t="n">
-        <v>100.167617</v>
+        <v>99.95820996</v>
       </c>
       <c r="L76" t="n">
-        <v>100.1171332</v>
+        <v>100.0044786</v>
       </c>
       <c r="M76" t="n">
-        <v>100.6200987</v>
+        <v>99.77293324</v>
       </c>
       <c r="N76" t="n">
-        <v>99.59494908000001</v>
+        <v>98.41947238</v>
       </c>
       <c r="O76" t="n">
-        <v>99.96684655999999</v>
+        <v>100.0816246</v>
       </c>
       <c r="P76" t="n">
-        <v>99.86568787</v>
+        <v>99.99475787999999</v>
       </c>
       <c r="Q76" t="n">
-        <v>98.31078343</v>
+        <v>99.21754543999999</v>
       </c>
       <c r="R76" t="n">
-        <v>100.2698524</v>
+        <v>100.0597223</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="inlineStr">
         <is>
-          <t>2017年4月</t>
+          <t>2017-07</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>100.503577</v>
+        <v>100.2080558</v>
       </c>
       <c r="C77" t="n">
-        <v>99.96667237</v>
+        <v>100.1088591</v>
       </c>
       <c r="D77" t="n">
-        <v>99.86403411000001</v>
+        <v>99.79082772</v>
       </c>
       <c r="E77" t="n">
-        <v>99.99719483</v>
+        <v>100.0195644</v>
       </c>
       <c r="F77" t="n">
-        <v>100.3904801</v>
+        <v>100.1257454</v>
       </c>
       <c r="G77" t="n">
-        <v>99.93646697</v>
+        <v>99.79039258</v>
       </c>
       <c r="H77" t="n">
-        <v>100.2774232</v>
+        <v>100.2235636</v>
       </c>
       <c r="I77" t="n">
-        <v>100.1801023</v>
+        <v>100.0171924</v>
       </c>
       <c r="J77" t="n">
-        <v>100.2459715</v>
+        <v>100.0816493</v>
       </c>
       <c r="K77" t="n">
-        <v>100.0536911</v>
+        <v>100.0012055</v>
       </c>
       <c r="L77" t="n">
-        <v>100.0389464</v>
+        <v>100.000773</v>
       </c>
       <c r="M77" t="n">
-        <v>100.1764364</v>
+        <v>99.56555337</v>
       </c>
       <c r="N77" t="n">
-        <v>99.07305798</v>
+        <v>98.22906795999999</v>
       </c>
       <c r="O77" t="n">
-        <v>100.1919495</v>
+        <v>99.96205965999999</v>
       </c>
       <c r="P77" t="n">
-        <v>101.4473944</v>
+        <v>98.60582983</v>
       </c>
       <c r="Q77" t="n">
-        <v>99.56372875</v>
+        <v>100.0177503</v>
       </c>
       <c r="R77" t="n">
-        <v>100.1725096</v>
+        <v>100.1128827</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="inlineStr">
         <is>
-          <t>2017年5月</t>
+          <t>2017-08</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>100.5541228</v>
+        <v>100.4496636</v>
       </c>
       <c r="C78" t="n">
-        <v>100.1235618</v>
+        <v>100.1969632</v>
       </c>
       <c r="D78" t="n">
-        <v>99.66182658</v>
+        <v>99.94876999</v>
       </c>
       <c r="E78" t="n">
-        <v>100.0904266</v>
+        <v>100.0359445</v>
       </c>
       <c r="F78" t="n">
-        <v>100.1655586</v>
+        <v>100.0476754</v>
       </c>
       <c r="G78" t="n">
-        <v>99.8489163</v>
+        <v>100.4265023</v>
       </c>
       <c r="H78" t="n">
-        <v>100.1953557</v>
+        <v>100.3192028</v>
       </c>
       <c r="I78" t="n">
-        <v>100.1084257</v>
+        <v>99.92522758</v>
       </c>
       <c r="J78" t="n">
-        <v>100.1764431</v>
+        <v>100.2552174</v>
       </c>
       <c r="K78" t="n">
-        <v>99.89453362</v>
+        <v>99.98003941</v>
       </c>
       <c r="L78" t="n">
-        <v>100.0572184</v>
+        <v>99.95263457999999</v>
       </c>
       <c r="M78" t="n">
-        <v>100.121062</v>
+        <v>99.80663948999999</v>
       </c>
       <c r="N78" t="n">
-        <v>99.35862475</v>
+        <v>101.8598311</v>
       </c>
       <c r="O78" t="n">
-        <v>100.2937483</v>
+        <v>100.0057921</v>
       </c>
       <c r="P78" t="n">
-        <v>99.43166146</v>
+        <v>100.7483508</v>
       </c>
       <c r="Q78" t="n">
-        <v>99.43864056</v>
+        <v>101.0673719</v>
       </c>
       <c r="R78" t="n">
-        <v>100.1196931</v>
+        <v>100.0673705</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="inlineStr">
         <is>
-          <t>2017年6月</t>
+          <t>2017-09</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>100.4029681</v>
+        <v>100.3844188</v>
       </c>
       <c r="C79" t="n">
-        <v>99.96299234</v>
+        <v>100.723295</v>
       </c>
       <c r="D79" t="n">
-        <v>99.77476901</v>
+        <v>99.99624166</v>
       </c>
       <c r="E79" t="n">
-        <v>99.92414056</v>
+        <v>100.1329056</v>
       </c>
       <c r="F79" t="n">
-        <v>99.9672685</v>
+        <v>100.0913769</v>
       </c>
       <c r="G79" t="n">
-        <v>99.67720534999999</v>
+        <v>100.3598281</v>
       </c>
       <c r="H79" t="n">
-        <v>100.1442662</v>
+        <v>100.3493813</v>
       </c>
       <c r="I79" t="n">
-        <v>99.9182198</v>
+        <v>99.81597075000001</v>
       </c>
       <c r="J79" t="n">
-        <v>100.1687819</v>
+        <v>100.2674446</v>
       </c>
       <c r="K79" t="n">
-        <v>99.95820996</v>
+        <v>100.2132383</v>
       </c>
       <c r="L79" t="n">
-        <v>100.0044786</v>
+        <v>100.1092098</v>
       </c>
       <c r="M79" t="n">
-        <v>99.77293324</v>
+        <v>100.9567223</v>
       </c>
       <c r="N79" t="n">
-        <v>98.41947238</v>
+        <v>101.3128723</v>
       </c>
       <c r="O79" t="n">
-        <v>100.0816246</v>
+        <v>99.96328588999999</v>
       </c>
       <c r="P79" t="n">
-        <v>99.99475787999999</v>
+        <v>100.4560434</v>
       </c>
       <c r="Q79" t="n">
-        <v>99.21754543999999</v>
+        <v>100.3782277</v>
       </c>
       <c r="R79" t="n">
-        <v>100.0597223</v>
+        <v>100.0518659</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="inlineStr">
         <is>
-          <t>2017年7月</t>
+          <t>2017-10</t>
         </is>
       </c>
       <c r="B80" t="n">
-        <v>100.2080558</v>
+        <v>100.2581399</v>
       </c>
       <c r="C80" t="n">
-        <v>100.1088591</v>
+        <v>100.0756432</v>
       </c>
       <c r="D80" t="n">
-        <v>99.79082772</v>
+        <v>99.89479335</v>
       </c>
       <c r="E80" t="n">
-        <v>100.0195644</v>
+        <v>100.0250858</v>
       </c>
       <c r="F80" t="n">
-        <v>100.1257454</v>
+        <v>100.1295895</v>
       </c>
       <c r="G80" t="n">
-        <v>99.79039258</v>
+        <v>100.2968976</v>
       </c>
       <c r="H80" t="n">
-        <v>100.2235636</v>
+        <v>100.320372</v>
       </c>
       <c r="I80" t="n">
-        <v>100.0171924</v>
+        <v>99.9448368</v>
       </c>
       <c r="J80" t="n">
-        <v>100.0816493</v>
+        <v>100.4444475</v>
       </c>
       <c r="K80" t="n">
-        <v>100.0012055</v>
+        <v>100.0129042</v>
       </c>
       <c r="L80" t="n">
-        <v>100.000773</v>
+        <v>100.247309</v>
       </c>
       <c r="M80" t="n">
-        <v>99.56555337</v>
+        <v>100.5624229</v>
       </c>
       <c r="N80" t="n">
-        <v>98.22906795999999</v>
+        <v>102.4848572</v>
       </c>
       <c r="O80" t="n">
-        <v>99.96205965999999</v>
+        <v>100.2699416</v>
       </c>
       <c r="P80" t="n">
-        <v>98.60582983</v>
+        <v>98.87067537999999</v>
       </c>
       <c r="Q80" t="n">
-        <v>100.0177503</v>
+        <v>99.96187222</v>
       </c>
       <c r="R80" t="n">
-        <v>100.1128827</v>
+        <v>100.1712874</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="inlineStr">
         <is>
-          <t>2017年8月</t>
+          <t>2017-11</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>100.4496636</v>
+        <v>100.2776696</v>
       </c>
       <c r="C81" t="n">
-        <v>100.1969632</v>
+        <v>100.2685557</v>
       </c>
       <c r="D81" t="n">
-        <v>99.94876999</v>
+        <v>99.95137372000001</v>
       </c>
       <c r="E81" t="n">
-        <v>100.0359445</v>
+        <v>100.1444519</v>
       </c>
       <c r="F81" t="n">
-        <v>100.0476754</v>
+        <v>99.93974038</v>
       </c>
       <c r="G81" t="n">
-        <v>100.4265023</v>
+        <v>100.2346286</v>
       </c>
       <c r="H81" t="n">
-        <v>100.3192028</v>
+        <v>100.4358957</v>
       </c>
       <c r="I81" t="n">
-        <v>99.92522758</v>
+        <v>99.86001795999999</v>
       </c>
       <c r="J81" t="n">
-        <v>100.2552174</v>
+        <v>100.3726274</v>
       </c>
       <c r="K81" t="n">
-        <v>99.98003941</v>
+        <v>100.0209378</v>
       </c>
       <c r="L81" t="n">
-        <v>99.95263457999999</v>
+        <v>100.1881699</v>
       </c>
       <c r="M81" t="n">
-        <v>99.80663948999999</v>
+        <v>100.5686533</v>
       </c>
       <c r="N81" t="n">
-        <v>101.8598311</v>
+        <v>102.3533105</v>
       </c>
       <c r="O81" t="n">
-        <v>100.0057921</v>
+        <v>100.0345761</v>
       </c>
       <c r="P81" t="n">
-        <v>100.7483508</v>
+        <v>100.0643304</v>
       </c>
       <c r="Q81" t="n">
-        <v>101.0673719</v>
+        <v>99.6000811</v>
       </c>
       <c r="R81" t="n">
-        <v>100.0673705</v>
+        <v>100.1642355</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="inlineStr">
         <is>
-          <t>2017年9月</t>
+          <t>2017-12</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>100.3844188</v>
+        <v>100.2693055</v>
       </c>
       <c r="C82" t="n">
-        <v>100.723295</v>
+        <v>100.1325879</v>
       </c>
       <c r="D82" t="n">
-        <v>99.99624166</v>
+        <v>100.0691528</v>
       </c>
       <c r="E82" t="n">
-        <v>100.1329056</v>
+        <v>100.0945295</v>
       </c>
       <c r="F82" t="n">
-        <v>100.0913769</v>
+        <v>100.1558782</v>
       </c>
       <c r="G82" t="n">
-        <v>100.3598281</v>
+        <v>100.4078583</v>
       </c>
       <c r="H82" t="n">
-        <v>100.3493813</v>
+        <v>100.122286</v>
       </c>
       <c r="I82" t="n">
-        <v>99.81597075000001</v>
+        <v>100.1855976</v>
       </c>
       <c r="J82" t="n">
-        <v>100.2674446</v>
+        <v>100.5586588</v>
       </c>
       <c r="K82" t="n">
-        <v>100.2132383</v>
+        <v>100.2729261</v>
       </c>
       <c r="L82" t="n">
-        <v>100.1092098</v>
+        <v>100.1223394</v>
       </c>
       <c r="M82" t="n">
-        <v>100.9567223</v>
+        <v>99.95045675</v>
       </c>
       <c r="N82" t="n">
-        <v>101.3128723</v>
+        <v>101.4055848</v>
       </c>
       <c r="O82" t="n">
-        <v>99.96328588999999</v>
+        <v>100.1328902</v>
       </c>
       <c r="P82" t="n">
-        <v>100.4560434</v>
+        <v>98.66786125</v>
       </c>
       <c r="Q82" t="n">
-        <v>100.3782277</v>
+        <v>100.9580247</v>
       </c>
       <c r="R82" t="n">
-        <v>100.0518659</v>
+        <v>100.144365</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="inlineStr">
         <is>
-          <t>2018年10月</t>
+          <t>2018-01</t>
         </is>
       </c>
       <c r="B83" t="n">
-        <v>100.36211067</v>
+        <v>100.2701972</v>
       </c>
       <c r="C83" t="n">
-        <v>100.20230034</v>
+        <v>100.5855607</v>
       </c>
       <c r="D83" t="n">
-        <v>100.23941011</v>
+        <v>99.86007044999999</v>
       </c>
       <c r="E83" t="n">
-        <v>100.05692021</v>
+        <v>100.1545641</v>
       </c>
       <c r="F83" t="n">
-        <v>100.09992895</v>
+        <v>99.95362163</v>
       </c>
       <c r="G83" t="n">
-        <v>100.44154896</v>
+        <v>100.6059321</v>
       </c>
       <c r="H83" t="n">
-        <v>100.17782711</v>
+        <v>100.1507543</v>
       </c>
       <c r="I83" t="n">
-        <v>99.96891601</v>
+        <v>100.0505241</v>
       </c>
       <c r="J83" t="n">
-        <v>100.19614514</v>
+        <v>100.2899503</v>
       </c>
       <c r="K83" t="n">
-        <v>100.40107874</v>
+        <v>99.93696721000001</v>
       </c>
       <c r="L83" t="n">
-        <v>100.09391005</v>
+        <v>100.0568298</v>
       </c>
       <c r="M83" t="n">
-        <v>100.76509799</v>
+        <v>99.59101267</v>
       </c>
       <c r="N83" t="n">
-        <v>103.03656593</v>
+        <v>101.7974052</v>
       </c>
       <c r="O83" t="n">
-        <v>100.17665231</v>
+        <v>100.0406428</v>
       </c>
       <c r="P83" t="n">
-        <v>100.68744463</v>
+        <v>101.6338014</v>
       </c>
       <c r="Q83" t="n">
-        <v>99.78516762</v>
+        <v>101.9164713</v>
       </c>
       <c r="R83" t="n">
-        <v>100.23379601</v>
+        <v>100.1242494</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="inlineStr">
         <is>
-          <t>2018年11月</t>
+          <t>2018-02</t>
         </is>
       </c>
       <c r="B84" t="n">
-        <v>100.29419101</v>
+        <v>100.1645141</v>
       </c>
       <c r="C84" t="n">
-        <v>100.15948841</v>
+        <v>100.0479454</v>
       </c>
       <c r="D84" t="n">
-        <v>100.13158334</v>
+        <v>99.78315610999999</v>
       </c>
       <c r="E84" t="n">
-        <v>100.04618426</v>
+        <v>100.1804045</v>
       </c>
       <c r="F84" t="n">
-        <v>100.07597984</v>
+        <v>99.96851556</v>
       </c>
       <c r="G84" t="n">
-        <v>99.60840508</v>
+        <v>100.7190257</v>
       </c>
       <c r="H84" t="n">
-        <v>100.20212458</v>
+        <v>100.2062527</v>
       </c>
       <c r="I84" t="n">
-        <v>99.68727723000001</v>
+        <v>99.76417167</v>
       </c>
       <c r="J84" t="n">
-        <v>100.167034</v>
+        <v>100.0435923</v>
       </c>
       <c r="K84" t="n">
-        <v>100.06555414</v>
+        <v>99.86879196</v>
       </c>
       <c r="L84" t="n">
-        <v>100.0813065</v>
+        <v>99.9370588</v>
       </c>
       <c r="M84" t="n">
-        <v>100.40472654</v>
+        <v>99.36165702</v>
       </c>
       <c r="N84" t="n">
-        <v>97.06216746</v>
+        <v>100.0690885</v>
       </c>
       <c r="O84" t="n">
-        <v>100.26181453</v>
+        <v>99.81485581</v>
       </c>
       <c r="P84" t="n">
-        <v>101.24957546</v>
+        <v>98.17291815</v>
       </c>
       <c r="Q84" t="n">
-        <v>98.95058600999999</v>
+        <v>103.9051833</v>
       </c>
       <c r="R84" t="n">
-        <v>100.18114274</v>
+        <v>99.8747091</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="inlineStr">
         <is>
-          <t>2018年12月</t>
+          <t>2018-03</t>
         </is>
       </c>
       <c r="B85" t="n">
-        <v>100.2153901</v>
+        <v>100.4789004</v>
       </c>
       <c r="C85" t="n">
-        <v>100.06311341</v>
+        <v>100.1675542</v>
       </c>
       <c r="D85" t="n">
-        <v>100.07513037</v>
+        <v>99.78646406</v>
       </c>
       <c r="E85" t="n">
-        <v>100.15111679</v>
+        <v>99.91061197000001</v>
       </c>
       <c r="F85" t="n">
-        <v>100.07529489</v>
+        <v>100.011261</v>
       </c>
       <c r="G85" t="n">
-        <v>99.70099080999999</v>
+        <v>99.13807783</v>
       </c>
       <c r="H85" t="n">
-        <v>100.04956421</v>
+        <v>100.1899314</v>
       </c>
       <c r="I85" t="n">
-        <v>100.09394865</v>
+        <v>99.90244264</v>
       </c>
       <c r="J85" t="n">
-        <v>100.12074609</v>
+        <v>100.1956965</v>
       </c>
       <c r="K85" t="n">
-        <v>99.94548392</v>
+        <v>99.7039315</v>
       </c>
       <c r="L85" t="n">
-        <v>100.11833059</v>
+        <v>100.0784266</v>
       </c>
       <c r="M85" t="n">
-        <v>100.12187358</v>
+        <v>100.6847905</v>
       </c>
       <c r="N85" t="n">
-        <v>94.01321024000001</v>
+        <v>98.02110869000001</v>
       </c>
       <c r="O85" t="n">
-        <v>100.01719726</v>
+        <v>100.0202799</v>
       </c>
       <c r="P85" t="n">
-        <v>99.72075436</v>
+        <v>100.2419684</v>
       </c>
       <c r="Q85" t="n">
-        <v>100.98533627</v>
+        <v>96.52629005999999</v>
       </c>
       <c r="R85" t="n">
-        <v>100.05850554</v>
+        <v>100.3438107</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="inlineStr">
         <is>
-          <t>2018年1月</t>
+          <t>2018-04</t>
         </is>
       </c>
       <c r="B86" t="n">
-        <v>100.2701972</v>
+        <v>100.4834809</v>
       </c>
       <c r="C86" t="n">
-        <v>100.5855607</v>
+        <v>100.1256819</v>
       </c>
       <c r="D86" t="n">
-        <v>99.86007044999999</v>
+        <v>100.0032249</v>
       </c>
       <c r="E86" t="n">
-        <v>100.1545641</v>
+        <v>100.0652102</v>
       </c>
       <c r="F86" t="n">
-        <v>99.95362163</v>
+        <v>100.2945324</v>
       </c>
       <c r="G86" t="n">
-        <v>100.6059321</v>
+        <v>99.87317917999999</v>
       </c>
       <c r="H86" t="n">
-        <v>100.1507543</v>
+        <v>100.0792593</v>
       </c>
       <c r="I86" t="n">
-        <v>100.0505241</v>
+        <v>99.96574962</v>
       </c>
       <c r="J86" t="n">
-        <v>100.2899503</v>
+        <v>100.1831154</v>
       </c>
       <c r="K86" t="n">
-        <v>99.93696721000001</v>
+        <v>100.1106932</v>
       </c>
       <c r="L86" t="n">
-        <v>100.0568298</v>
+        <v>100.2388173</v>
       </c>
       <c r="M86" t="n">
-        <v>99.59101267</v>
+        <v>100.1644021</v>
       </c>
       <c r="N86" t="n">
-        <v>101.7974052</v>
+        <v>101.1782516</v>
       </c>
       <c r="O86" t="n">
-        <v>100.0406428</v>
+        <v>100.1566574</v>
       </c>
       <c r="P86" t="n">
-        <v>101.6338014</v>
+        <v>100.1678649</v>
       </c>
       <c r="Q86" t="n">
-        <v>101.9164713</v>
+        <v>98.47456317</v>
       </c>
       <c r="R86" t="n">
-        <v>100.1242494</v>
+        <v>100.1396543</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="inlineStr">
         <is>
-          <t>2018年2月</t>
+          <t>2018-05</t>
         </is>
       </c>
       <c r="B87" t="n">
-        <v>100.1645141</v>
+        <v>100.4088266</v>
       </c>
       <c r="C87" t="n">
-        <v>100.0479454</v>
+        <v>100.0441185</v>
       </c>
       <c r="D87" t="n">
-        <v>99.78315610999999</v>
+        <v>99.81618905000001</v>
       </c>
       <c r="E87" t="n">
-        <v>100.1804045</v>
+        <v>100.0866228</v>
       </c>
       <c r="F87" t="n">
-        <v>99.96851556</v>
+        <v>100.0251826</v>
       </c>
       <c r="G87" t="n">
-        <v>100.7190257</v>
+        <v>100.0063614</v>
       </c>
       <c r="H87" t="n">
-        <v>100.2062527</v>
+        <v>100.2437035</v>
       </c>
       <c r="I87" t="n">
-        <v>99.76417167</v>
+        <v>100.0567689</v>
       </c>
       <c r="J87" t="n">
-        <v>100.0435923</v>
+        <v>100.2608438</v>
       </c>
       <c r="K87" t="n">
-        <v>99.86879196</v>
+        <v>99.79846988</v>
       </c>
       <c r="L87" t="n">
-        <v>99.9370588</v>
+        <v>100.2108522</v>
       </c>
       <c r="M87" t="n">
-        <v>99.36165702</v>
+        <v>100.1809431</v>
       </c>
       <c r="N87" t="n">
-        <v>100.0690885</v>
+        <v>102.0247427</v>
       </c>
       <c r="O87" t="n">
-        <v>99.81485581</v>
+        <v>100.1713531</v>
       </c>
       <c r="P87" t="n">
-        <v>98.17291815</v>
+        <v>99.62464733</v>
       </c>
       <c r="Q87" t="n">
-        <v>103.9051833</v>
+        <v>98.91198668</v>
       </c>
       <c r="R87" t="n">
-        <v>99.8747091</v>
+        <v>100.1937088</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="inlineStr">
         <is>
-          <t>2018年3月</t>
+          <t>2018-06</t>
         </is>
       </c>
       <c r="B88" t="n">
-        <v>100.4789004</v>
+        <v>100.45631689</v>
       </c>
       <c r="C88" t="n">
-        <v>100.1675542</v>
+        <v>100.00122369</v>
       </c>
       <c r="D88" t="n">
-        <v>99.78646406</v>
+        <v>99.87079534</v>
       </c>
       <c r="E88" t="n">
-        <v>99.91061197000001</v>
+        <v>99.99246121</v>
       </c>
       <c r="F88" t="n">
-        <v>100.011261</v>
+        <v>100.09540536</v>
       </c>
       <c r="G88" t="n">
-        <v>99.13807783</v>
+        <v>99.97661099</v>
       </c>
       <c r="H88" t="n">
-        <v>100.1899314</v>
+        <v>100.18578266</v>
       </c>
       <c r="I88" t="n">
-        <v>99.90244264</v>
+        <v>99.88640602</v>
       </c>
       <c r="J88" t="n">
-        <v>100.1956965</v>
+        <v>100.00689437</v>
       </c>
       <c r="K88" t="n">
-        <v>99.7039315</v>
+        <v>99.92104543000001</v>
       </c>
       <c r="L88" t="n">
-        <v>100.0784266</v>
+        <v>99.95378322000001</v>
       </c>
       <c r="M88" t="n">
-        <v>100.6847905</v>
+        <v>99.83049775000001</v>
       </c>
       <c r="N88" t="n">
-        <v>98.02110869000001</v>
+        <v>101.25155007</v>
       </c>
       <c r="O88" t="n">
-        <v>100.0202799</v>
+        <v>100.09787699</v>
       </c>
       <c r="P88" t="n">
-        <v>100.2419684</v>
+        <v>99.7122787</v>
       </c>
       <c r="Q88" t="n">
-        <v>96.52629005999999</v>
+        <v>99.36859423999999</v>
       </c>
       <c r="R88" t="n">
-        <v>100.3438107</v>
+        <v>100.10692395</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="inlineStr">
         <is>
-          <t>2018年4月</t>
+          <t>2018-07</t>
         </is>
       </c>
       <c r="B89" t="n">
-        <v>100.4834809</v>
+        <v>100.42834468</v>
       </c>
       <c r="C89" t="n">
-        <v>100.1256819</v>
+        <v>101.29213464</v>
       </c>
       <c r="D89" t="n">
-        <v>100.0032249</v>
+        <v>99.68695159000001</v>
       </c>
       <c r="E89" t="n">
-        <v>100.0652102</v>
+        <v>100.04802709</v>
       </c>
       <c r="F89" t="n">
-        <v>100.2945324</v>
+        <v>100.0931625</v>
       </c>
       <c r="G89" t="n">
-        <v>99.87317917999999</v>
+        <v>100.11829233</v>
       </c>
       <c r="H89" t="n">
-        <v>100.0792593</v>
+        <v>99.99628432999999</v>
       </c>
       <c r="I89" t="n">
-        <v>99.96574962</v>
+        <v>100.06376583</v>
       </c>
       <c r="J89" t="n">
-        <v>100.1831154</v>
+        <v>100.13545549</v>
       </c>
       <c r="K89" t="n">
-        <v>100.1106932</v>
+        <v>99.85043057</v>
       </c>
       <c r="L89" t="n">
-        <v>100.2388173</v>
+        <v>100.11561119</v>
       </c>
       <c r="M89" t="n">
-        <v>100.1644021</v>
+        <v>99.60153151</v>
       </c>
       <c r="N89" t="n">
-        <v>101.1782516</v>
+        <v>100.81466175</v>
       </c>
       <c r="O89" t="n">
-        <v>100.1566574</v>
+        <v>100.08909038</v>
       </c>
       <c r="P89" t="n">
-        <v>100.1678649</v>
+        <v>99.80524090999999</v>
       </c>
       <c r="Q89" t="n">
-        <v>98.47456317</v>
+        <v>100.20725185</v>
       </c>
       <c r="R89" t="n">
-        <v>100.1396543</v>
+        <v>100.22393376</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="inlineStr">
         <is>
-          <t>2018年5月</t>
+          <t>2018-08</t>
         </is>
       </c>
       <c r="B90" t="n">
-        <v>100.4088266</v>
+        <v>100.64705879</v>
       </c>
       <c r="C90" t="n">
-        <v>100.0441185</v>
+        <v>101.23525786</v>
       </c>
       <c r="D90" t="n">
-        <v>99.81618905000001</v>
+        <v>99.72016372</v>
       </c>
       <c r="E90" t="n">
-        <v>100.0866228</v>
+        <v>100.11418004</v>
       </c>
       <c r="F90" t="n">
-        <v>100.0251826</v>
+        <v>100.24358357</v>
       </c>
       <c r="G90" t="n">
-        <v>100.0063614</v>
+        <v>100.51633118</v>
       </c>
       <c r="H90" t="n">
-        <v>100.2437035</v>
+        <v>100.09803388</v>
       </c>
       <c r="I90" t="n">
-        <v>100.0567689</v>
+        <v>99.88559926000001</v>
       </c>
       <c r="J90" t="n">
-        <v>100.2608438</v>
+        <v>100.09048538</v>
       </c>
       <c r="K90" t="n">
-        <v>99.79846988</v>
+        <v>99.94929062</v>
       </c>
       <c r="L90" t="n">
-        <v>100.2108522</v>
+        <v>100.03753653</v>
       </c>
       <c r="M90" t="n">
-        <v>100.1809431</v>
+        <v>99.92958704</v>
       </c>
       <c r="N90" t="n">
-        <v>102.0247427</v>
+        <v>100.71426606</v>
       </c>
       <c r="O90" t="n">
-        <v>100.1713531</v>
+        <v>99.94803922</v>
       </c>
       <c r="P90" t="n">
-        <v>99.62464733</v>
+        <v>99.49670974</v>
       </c>
       <c r="Q90" t="n">
-        <v>98.91198668</v>
+        <v>101.99156052</v>
       </c>
       <c r="R90" t="n">
-        <v>100.1937088</v>
+        <v>100.12250487</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="inlineStr">
         <is>
-          <t>2018年6月</t>
+          <t>2018-09</t>
         </is>
       </c>
       <c r="B91" t="n">
-        <v>100.45631689</v>
+        <v>100.41093913</v>
       </c>
       <c r="C91" t="n">
-        <v>100.00122369</v>
+        <v>100.78771226</v>
       </c>
       <c r="D91" t="n">
-        <v>99.87079534</v>
+        <v>99.98989838999999</v>
       </c>
       <c r="E91" t="n">
-        <v>99.99246121</v>
+        <v>100.0294962</v>
       </c>
       <c r="F91" t="n">
-        <v>100.09540536</v>
+        <v>100.27009342</v>
       </c>
       <c r="G91" t="n">
-        <v>99.97661099</v>
+        <v>100.7325063</v>
       </c>
       <c r="H91" t="n">
-        <v>100.18578266</v>
+        <v>100.04446212</v>
       </c>
       <c r="I91" t="n">
-        <v>99.88640602</v>
+        <v>99.82497548000001</v>
       </c>
       <c r="J91" t="n">
-        <v>100.00689437</v>
+        <v>100.07240358</v>
       </c>
       <c r="K91" t="n">
-        <v>99.92104543000001</v>
+        <v>100.44477014</v>
       </c>
       <c r="L91" t="n">
-        <v>99.95378322000001</v>
+        <v>100.21349901</v>
       </c>
       <c r="M91" t="n">
-        <v>99.83049775000001</v>
+        <v>100.79685117</v>
       </c>
       <c r="N91" t="n">
-        <v>101.25155007</v>
+        <v>102.19420461</v>
       </c>
       <c r="O91" t="n">
-        <v>100.09787699</v>
+        <v>100.19066647</v>
       </c>
       <c r="P91" t="n">
-        <v>99.7122787</v>
+        <v>98.96579115999999</v>
       </c>
       <c r="Q91" t="n">
-        <v>99.36859423999999</v>
+        <v>101.88250609</v>
       </c>
       <c r="R91" t="n">
-        <v>100.10692395</v>
+        <v>99.91963198000001</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="inlineStr">
         <is>
-          <t>2018年7月</t>
+          <t>2018-10</t>
         </is>
       </c>
       <c r="B92" t="n">
-        <v>100.42834468</v>
+        <v>100.36211067</v>
       </c>
       <c r="C92" t="n">
-        <v>101.29213464</v>
+        <v>100.20230034</v>
       </c>
       <c r="D92" t="n">
-        <v>99.68695159000001</v>
+        <v>100.23941011</v>
       </c>
       <c r="E92" t="n">
-        <v>100.04802709</v>
+        <v>100.05692021</v>
       </c>
       <c r="F92" t="n">
-        <v>100.0931625</v>
+        <v>100.09992895</v>
       </c>
       <c r="G92" t="n">
-        <v>100.11829233</v>
+        <v>100.44154896</v>
       </c>
       <c r="H92" t="n">
-        <v>99.99628432999999</v>
+        <v>100.17782711</v>
       </c>
       <c r="I92" t="n">
-        <v>100.06376583</v>
+        <v>99.96891601</v>
       </c>
       <c r="J92" t="n">
-        <v>100.13545549</v>
+        <v>100.19614514</v>
       </c>
       <c r="K92" t="n">
-        <v>99.85043057</v>
+        <v>100.40107874</v>
       </c>
       <c r="L92" t="n">
-        <v>100.11561119</v>
+        <v>100.09391005</v>
       </c>
       <c r="M92" t="n">
-        <v>99.60153151</v>
+        <v>100.76509799</v>
       </c>
       <c r="N92" t="n">
-        <v>100.81466175</v>
+        <v>103.03656593</v>
       </c>
       <c r="O92" t="n">
-        <v>100.08909038</v>
+        <v>100.17665231</v>
       </c>
       <c r="P92" t="n">
-        <v>99.80524090999999</v>
+        <v>100.68744463</v>
       </c>
       <c r="Q92" t="n">
-        <v>100.20725185</v>
+        <v>99.78516762</v>
       </c>
       <c r="R92" t="n">
-        <v>100.22393376</v>
+        <v>100.23379601</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="inlineStr">
         <is>
-          <t>2018年8月</t>
+          <t>2018-11</t>
         </is>
       </c>
       <c r="B93" t="n">
-        <v>100.64705879</v>
+        <v>100.29419101</v>
       </c>
       <c r="C93" t="n">
-        <v>101.23525786</v>
+        <v>100.15948841</v>
       </c>
       <c r="D93" t="n">
-        <v>99.72016372</v>
+        <v>100.13158334</v>
       </c>
       <c r="E93" t="n">
-        <v>100.11418004</v>
+        <v>100.04618426</v>
       </c>
       <c r="F93" t="n">
-        <v>100.24358357</v>
+        <v>100.07597984</v>
       </c>
       <c r="G93" t="n">
-        <v>100.51633118</v>
+        <v>99.60840508</v>
       </c>
       <c r="H93" t="n">
-        <v>100.09803388</v>
+        <v>100.20212458</v>
       </c>
       <c r="I93" t="n">
-        <v>99.88559926000001</v>
+        <v>99.68727723000001</v>
       </c>
       <c r="J93" t="n">
-        <v>100.09048538</v>
+        <v>100.167034</v>
       </c>
       <c r="K93" t="n">
-        <v>99.94929062</v>
+        <v>100.06555414</v>
       </c>
       <c r="L93" t="n">
-        <v>100.03753653</v>
+        <v>100.0813065</v>
       </c>
       <c r="M93" t="n">
-        <v>99.92958704</v>
+        <v>100.40472654</v>
       </c>
       <c r="N93" t="n">
-        <v>100.71426606</v>
+        <v>97.06216746</v>
       </c>
       <c r="O93" t="n">
-        <v>99.94803922</v>
+        <v>100.26181453</v>
       </c>
       <c r="P93" t="n">
-        <v>99.49670974</v>
+        <v>101.24957546</v>
       </c>
       <c r="Q93" t="n">
-        <v>101.99156052</v>
+        <v>98.95058600999999</v>
       </c>
       <c r="R93" t="n">
-        <v>100.12250487</v>
+        <v>100.18114274</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="inlineStr">
         <is>
-          <t>2018年9月</t>
+          <t>2018-12</t>
         </is>
       </c>
       <c r="B94" t="n">
-        <v>100.41093913</v>
+        <v>100.2153901</v>
       </c>
       <c r="C94" t="n">
-        <v>100.78771226</v>
+        <v>100.06311341</v>
       </c>
       <c r="D94" t="n">
-        <v>99.98989838999999</v>
+        <v>100.07513037</v>
       </c>
       <c r="E94" t="n">
-        <v>100.0294962</v>
+        <v>100.15111679</v>
       </c>
       <c r="F94" t="n">
-        <v>100.27009342</v>
+        <v>100.07529489</v>
       </c>
       <c r="G94" t="n">
-        <v>100.7325063</v>
+        <v>99.70099080999999</v>
       </c>
       <c r="H94" t="n">
-        <v>100.04446212</v>
+        <v>100.04956421</v>
       </c>
       <c r="I94" t="n">
-        <v>99.82497548000001</v>
+        <v>100.09394865</v>
       </c>
       <c r="J94" t="n">
-        <v>100.07240358</v>
+        <v>100.12074609</v>
       </c>
       <c r="K94" t="n">
-        <v>100.44477014</v>
+        <v>99.94548392</v>
       </c>
       <c r="L94" t="n">
-        <v>100.21349901</v>
+        <v>100.11833059</v>
       </c>
       <c r="M94" t="n">
-        <v>100.79685117</v>
+        <v>100.12187358</v>
       </c>
       <c r="N94" t="n">
-        <v>102.19420461</v>
+        <v>94.01321024000001</v>
       </c>
       <c r="O94" t="n">
-        <v>100.19066647</v>
+        <v>100.01719726</v>
       </c>
       <c r="P94" t="n">
-        <v>98.96579115999999</v>
+        <v>99.72075436</v>
       </c>
       <c r="Q94" t="n">
-        <v>101.88250609</v>
+        <v>100.98533627</v>
       </c>
       <c r="R94" t="n">
-        <v>99.91963198000001</v>
+        <v>100.05850554</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="inlineStr">
         <is>
-          <t>2019年10月</t>
+          <t>2019-01</t>
         </is>
       </c>
       <c r="B95" t="n">
-        <v>100.11840446</v>
+        <v>100.24782877</v>
       </c>
       <c r="C95" t="n">
-        <v>100.03001494</v>
+        <v>101.53901475</v>
       </c>
       <c r="D95" t="n">
-        <v>99.99768869</v>
+        <v>99.82921949</v>
       </c>
       <c r="E95" t="n">
-        <v>100.11780897</v>
+        <v>99.99772574000001</v>
       </c>
       <c r="F95" t="n">
-        <v>100.24320438</v>
+        <v>100.01882914</v>
       </c>
       <c r="G95" t="n">
-        <v>100.78420266</v>
+        <v>100.13436953</v>
       </c>
       <c r="H95" t="n">
-        <v>99.95957122</v>
+        <v>100.11827522</v>
       </c>
       <c r="I95" t="n">
-        <v>99.94057717</v>
+        <v>99.95506428</v>
       </c>
       <c r="J95" t="n">
-        <v>100.13638999</v>
+        <v>100.10032703</v>
       </c>
       <c r="K95" t="n">
-        <v>100.08957591</v>
+        <v>99.96613567</v>
       </c>
       <c r="L95" t="n">
-        <v>100.03384802</v>
+        <v>99.94897985</v>
       </c>
       <c r="M95" t="n">
-        <v>100.25024374</v>
+        <v>99.66555434</v>
       </c>
       <c r="N95" t="n">
-        <v>100.57424404</v>
+        <v>97.87354248</v>
       </c>
       <c r="O95" t="n">
-        <v>100.22393304</v>
+        <v>100.03256114</v>
       </c>
       <c r="P95" t="n">
-        <v>99.40886737</v>
+        <v>102.0745467</v>
       </c>
       <c r="Q95" t="n">
-        <v>102.93972637</v>
+        <v>101.41961786</v>
       </c>
       <c r="R95" t="n">
-        <v>100.24605928</v>
+        <v>99.76945267000001</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="inlineStr">
         <is>
-          <t>2019年11月</t>
+          <t>2019-02</t>
         </is>
       </c>
       <c r="B96" t="n">
-        <v>100.09734121</v>
+        <v>100.36898191</v>
       </c>
       <c r="C96" t="n">
-        <v>100.11245659</v>
+        <v>100.13441266</v>
       </c>
       <c r="D96" t="n">
-        <v>99.90736596000001</v>
+        <v>99.90921117000001</v>
       </c>
       <c r="E96" t="n">
-        <v>99.96059978</v>
+        <v>100.19624509</v>
       </c>
       <c r="F96" t="n">
-        <v>100.03882418</v>
+        <v>100.08679809</v>
       </c>
       <c r="G96" t="n">
-        <v>100.38677721</v>
+        <v>100.76234404</v>
       </c>
       <c r="H96" t="n">
-        <v>100.00759157</v>
+        <v>100.10761692</v>
       </c>
       <c r="I96" t="n">
-        <v>99.38366006</v>
+        <v>99.83138267</v>
       </c>
       <c r="J96" t="n">
-        <v>100.15037688</v>
+        <v>99.98305673999999</v>
       </c>
       <c r="K96" t="n">
-        <v>100.02574865</v>
+        <v>99.79400923999999</v>
       </c>
       <c r="L96" t="n">
-        <v>99.94279438</v>
+        <v>100.20865949</v>
       </c>
       <c r="M96" t="n">
-        <v>100.39425951</v>
+        <v>99.77919267</v>
       </c>
       <c r="N96" t="n">
-        <v>100.19475395</v>
+        <v>101.75605813</v>
       </c>
       <c r="O96" t="n">
-        <v>100.09863279</v>
+        <v>99.90215674</v>
       </c>
       <c r="P96" t="n">
-        <v>97.96150055</v>
+        <v>99.50063924</v>
       </c>
       <c r="Q96" t="n">
-        <v>101.672817</v>
+        <v>102.83031058</v>
       </c>
       <c r="R96" t="n">
-        <v>100.17874611</v>
+        <v>99.94744425</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="inlineStr">
         <is>
-          <t>2019年12月</t>
+          <t>2019-03</t>
         </is>
       </c>
       <c r="B97" t="n">
-        <v>100.05253848</v>
+        <v>100.32450027</v>
       </c>
       <c r="C97" t="n">
-        <v>99.98417588</v>
+        <v>100.20932295</v>
       </c>
       <c r="D97" t="n">
-        <v>99.78254162</v>
+        <v>99.7071803</v>
       </c>
       <c r="E97" t="n">
-        <v>99.97867719</v>
+        <v>99.8905275</v>
       </c>
       <c r="F97" t="n">
-        <v>100.05860449</v>
+        <v>99.79210039</v>
       </c>
       <c r="G97" t="n">
-        <v>100.06626703</v>
+        <v>100.03547183</v>
       </c>
       <c r="H97" t="n">
-        <v>99.98390666</v>
+        <v>100.02875226</v>
       </c>
       <c r="I97" t="n">
-        <v>100.06259431</v>
+        <v>99.83153353</v>
       </c>
       <c r="J97" t="n">
-        <v>100.19914867</v>
+        <v>100.06741107</v>
       </c>
       <c r="K97" t="n">
-        <v>100.19282482</v>
+        <v>100.23461454</v>
       </c>
       <c r="L97" t="n">
-        <v>100.11294758</v>
+        <v>99.96660916</v>
       </c>
       <c r="M97" t="n">
-        <v>99.78483016</v>
+        <v>100.69239172</v>
       </c>
       <c r="N97" t="n">
-        <v>101.44791558</v>
+        <v>101.86261495</v>
       </c>
       <c r="O97" t="n">
-        <v>100.02738901</v>
+        <v>100.08425266</v>
       </c>
       <c r="P97" t="n">
-        <v>99.73931516</v>
+        <v>99.84336497</v>
       </c>
       <c r="Q97" t="n">
-        <v>99.84263013</v>
+        <v>99.14202890999999</v>
       </c>
       <c r="R97" t="n">
-        <v>100.11498559</v>
+        <v>100.42594262</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="inlineStr">
         <is>
-          <t>2019年1月</t>
+          <t>2019-04</t>
         </is>
       </c>
       <c r="B98" t="n">
-        <v>100.24782877</v>
+        <v>100.25678509</v>
       </c>
       <c r="C98" t="n">
-        <v>101.53901475</v>
+        <v>100.14103195</v>
       </c>
       <c r="D98" t="n">
-        <v>99.82921949</v>
+        <v>99.66018776999999</v>
       </c>
       <c r="E98" t="n">
-        <v>99.99772574000001</v>
+        <v>99.9068032</v>
       </c>
       <c r="F98" t="n">
-        <v>100.01882914</v>
+        <v>100.49226975</v>
       </c>
       <c r="G98" t="n">
-        <v>100.13436953</v>
+        <v>99.94950747999999</v>
       </c>
       <c r="H98" t="n">
-        <v>100.11827522</v>
+        <v>100.11926275</v>
       </c>
       <c r="I98" t="n">
-        <v>99.95506428</v>
+        <v>100.1001952</v>
       </c>
       <c r="J98" t="n">
-        <v>100.10032703</v>
+        <v>100.0311391</v>
       </c>
       <c r="K98" t="n">
-        <v>99.96613567</v>
+        <v>99.85020663</v>
       </c>
       <c r="L98" t="n">
-        <v>99.94897985</v>
+        <v>99.92869859</v>
       </c>
       <c r="M98" t="n">
-        <v>99.66555434</v>
+        <v>100.04889825</v>
       </c>
       <c r="N98" t="n">
-        <v>97.87354248</v>
+        <v>99.66351315</v>
       </c>
       <c r="O98" t="n">
-        <v>100.03256114</v>
+        <v>99.86430484</v>
       </c>
       <c r="P98" t="n">
-        <v>102.0745467</v>
+        <v>100.99938224</v>
       </c>
       <c r="Q98" t="n">
-        <v>101.41961786</v>
+        <v>99.91451773999999</v>
       </c>
       <c r="R98" t="n">
-        <v>99.76945267000001</v>
+        <v>99.97736886</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="inlineStr">
         <is>
-          <t>2019年2月</t>
+          <t>2019-05</t>
         </is>
       </c>
       <c r="B99" t="n">
-        <v>100.36898191</v>
+        <v>100.29599271</v>
       </c>
       <c r="C99" t="n">
-        <v>100.13441266</v>
+        <v>99.88810877</v>
       </c>
       <c r="D99" t="n">
-        <v>99.90921117000001</v>
+        <v>99.43997099000001</v>
       </c>
       <c r="E99" t="n">
-        <v>100.19624509</v>
+        <v>99.93895009000001</v>
       </c>
       <c r="F99" t="n">
-        <v>100.08679809</v>
+        <v>100.12959306</v>
       </c>
       <c r="G99" t="n">
-        <v>100.76234404</v>
+        <v>100.06941971</v>
       </c>
       <c r="H99" t="n">
-        <v>100.10761692</v>
+        <v>100.08092831</v>
       </c>
       <c r="I99" t="n">
-        <v>99.83138267</v>
+        <v>99.95072716</v>
       </c>
       <c r="J99" t="n">
-        <v>99.98305673999999</v>
+        <v>100.01157276</v>
       </c>
       <c r="K99" t="n">
-        <v>99.79400923999999</v>
+        <v>99.95929198</v>
       </c>
       <c r="L99" t="n">
-        <v>100.20865949</v>
+        <v>100.05516898</v>
       </c>
       <c r="M99" t="n">
-        <v>99.77919267</v>
+        <v>100.08907964</v>
       </c>
       <c r="N99" t="n">
-        <v>101.75605813</v>
+        <v>101.10248609</v>
       </c>
       <c r="O99" t="n">
-        <v>99.90215674</v>
+        <v>100.09526357</v>
       </c>
       <c r="P99" t="n">
-        <v>99.50063924</v>
+        <v>99.78700015</v>
       </c>
       <c r="Q99" t="n">
-        <v>102.83031058</v>
+        <v>100.1121122</v>
       </c>
       <c r="R99" t="n">
-        <v>99.94744425</v>
+        <v>100.0361251</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="inlineStr">
         <is>
-          <t>2019年3月</t>
+          <t>2019-06</t>
         </is>
       </c>
       <c r="B100" t="n">
-        <v>100.32450027</v>
+        <v>100.24685486</v>
       </c>
       <c r="C100" t="n">
-        <v>100.20932295</v>
+        <v>99.99038344</v>
       </c>
       <c r="D100" t="n">
-        <v>99.7071803</v>
+        <v>99.71805371000001</v>
       </c>
       <c r="E100" t="n">
-        <v>99.8905275</v>
+        <v>99.89230272</v>
       </c>
       <c r="F100" t="n">
-        <v>99.79210039</v>
+        <v>100.24928844</v>
       </c>
       <c r="G100" t="n">
-        <v>100.03547183</v>
+        <v>99.72947612999999</v>
       </c>
       <c r="H100" t="n">
-        <v>100.02875226</v>
+        <v>99.97908765</v>
       </c>
       <c r="I100" t="n">
-        <v>99.83153353</v>
+        <v>99.58175324</v>
       </c>
       <c r="J100" t="n">
-        <v>100.06741107</v>
+        <v>100.00779793</v>
       </c>
       <c r="K100" t="n">
-        <v>100.23461454</v>
+        <v>99.6543736</v>
       </c>
       <c r="L100" t="n">
-        <v>99.96660916</v>
+        <v>99.99761614000001</v>
       </c>
       <c r="M100" t="n">
-        <v>100.69239172</v>
+        <v>99.90189576</v>
       </c>
       <c r="N100" t="n">
-        <v>101.86261495</v>
+        <v>97.70550809</v>
       </c>
       <c r="O100" t="n">
-        <v>100.08425266</v>
+        <v>99.93086291</v>
       </c>
       <c r="P100" t="n">
-        <v>99.84336497</v>
+        <v>102.79528944</v>
       </c>
       <c r="Q100" t="n">
-        <v>99.14202890999999</v>
+        <v>99.74114677999999</v>
       </c>
       <c r="R100" t="n">
-        <v>100.42594262</v>
+        <v>100.1946793</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="inlineStr">
         <is>
-          <t>2019年4月</t>
+          <t>2019-07</t>
         </is>
       </c>
       <c r="B101" t="n">
-        <v>100.25678509</v>
+        <v>100.21339821</v>
       </c>
       <c r="C101" t="n">
-        <v>100.14103195</v>
+        <v>99.98250324999999</v>
       </c>
       <c r="D101" t="n">
-        <v>99.66018776999999</v>
+        <v>99.87173763</v>
       </c>
       <c r="E101" t="n">
-        <v>99.9068032</v>
+        <v>100.02346807</v>
       </c>
       <c r="F101" t="n">
-        <v>100.49226975</v>
+        <v>100.1971196</v>
       </c>
       <c r="G101" t="n">
-        <v>99.94950747999999</v>
+        <v>100.08258793</v>
       </c>
       <c r="H101" t="n">
-        <v>100.11926275</v>
+        <v>100.09665696</v>
       </c>
       <c r="I101" t="n">
-        <v>100.1001952</v>
+        <v>100.02881629</v>
       </c>
       <c r="J101" t="n">
-        <v>100.0311391</v>
+        <v>100.06544726</v>
       </c>
       <c r="K101" t="n">
-        <v>99.85020663</v>
+        <v>99.90939625999999</v>
       </c>
       <c r="L101" t="n">
-        <v>99.92869859</v>
+        <v>100.08589472</v>
       </c>
       <c r="M101" t="n">
-        <v>100.04889825</v>
+        <v>99.59963313999999</v>
       </c>
       <c r="N101" t="n">
-        <v>99.66351315</v>
+        <v>98.61081428999999</v>
       </c>
       <c r="O101" t="n">
-        <v>99.86430484</v>
+        <v>100.07211486</v>
       </c>
       <c r="P101" t="n">
-        <v>100.99938224</v>
+        <v>102.70527738</v>
       </c>
       <c r="Q101" t="n">
-        <v>99.91451773999999</v>
+        <v>100.73597396</v>
       </c>
       <c r="R101" t="n">
-        <v>99.97736886</v>
+        <v>100.31473016</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="inlineStr">
         <is>
-          <t>2019年5月</t>
+          <t>2019-08</t>
         </is>
       </c>
       <c r="B102" t="n">
-        <v>100.29599271</v>
+        <v>100.2489866</v>
       </c>
       <c r="C102" t="n">
-        <v>99.88810877</v>
+        <v>100.22437883</v>
       </c>
       <c r="D102" t="n">
-        <v>99.43997099000001</v>
+        <v>99.8131066</v>
       </c>
       <c r="E102" t="n">
-        <v>99.93895009000001</v>
+        <v>99.97042205</v>
       </c>
       <c r="F102" t="n">
-        <v>100.12959306</v>
+        <v>100.1603465</v>
       </c>
       <c r="G102" t="n">
-        <v>100.06941971</v>
+        <v>100.54123151</v>
       </c>
       <c r="H102" t="n">
-        <v>100.08092831</v>
+        <v>99.99713891</v>
       </c>
       <c r="I102" t="n">
-        <v>99.95072716</v>
+        <v>99.84070101</v>
       </c>
       <c r="J102" t="n">
-        <v>100.01157276</v>
+        <v>100.00519831</v>
       </c>
       <c r="K102" t="n">
-        <v>99.95929198</v>
+        <v>99.6994016</v>
       </c>
       <c r="L102" t="n">
-        <v>100.05516898</v>
+        <v>99.97664786999999</v>
       </c>
       <c r="M102" t="n">
-        <v>100.08907964</v>
+        <v>99.70004900000001</v>
       </c>
       <c r="N102" t="n">
-        <v>101.10248609</v>
+        <v>99.31025434999999</v>
       </c>
       <c r="O102" t="n">
-        <v>100.09526357</v>
+        <v>100.1566201</v>
       </c>
       <c r="P102" t="n">
-        <v>99.78700015</v>
+        <v>105.11486482</v>
       </c>
       <c r="Q102" t="n">
-        <v>100.1121122</v>
+        <v>102.39762663</v>
       </c>
       <c r="R102" t="n">
-        <v>100.0361251</v>
+        <v>100.24071798</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="inlineStr">
         <is>
-          <t>2019年6月</t>
+          <t>2019-09</t>
         </is>
       </c>
       <c r="B103" t="n">
-        <v>100.24685486</v>
+        <v>100.14933696</v>
       </c>
       <c r="C103" t="n">
-        <v>99.99038344</v>
+        <v>100.72007518</v>
       </c>
       <c r="D103" t="n">
-        <v>99.71805371000001</v>
+        <v>100.04309935</v>
       </c>
       <c r="E103" t="n">
-        <v>99.89230272</v>
+        <v>100.08766404</v>
       </c>
       <c r="F103" t="n">
-        <v>100.24928844</v>
+        <v>100.12492644</v>
       </c>
       <c r="G103" t="n">
-        <v>99.72947612999999</v>
+        <v>100.83121373</v>
       </c>
       <c r="H103" t="n">
-        <v>99.97908765</v>
+        <v>100.01957915</v>
       </c>
       <c r="I103" t="n">
-        <v>99.58175324</v>
+        <v>99.71919121000001</v>
       </c>
       <c r="J103" t="n">
-        <v>100.00779793</v>
+        <v>100.01901727</v>
       </c>
       <c r="K103" t="n">
-        <v>99.6543736</v>
+        <v>100.02059794</v>
       </c>
       <c r="L103" t="n">
-        <v>99.99761614000001</v>
+        <v>100.03009913</v>
       </c>
       <c r="M103" t="n">
-        <v>99.90189576</v>
+        <v>100.85451156</v>
       </c>
       <c r="N103" t="n">
-        <v>97.70550809</v>
+        <v>100.09983966</v>
       </c>
       <c r="O103" t="n">
-        <v>99.93086291</v>
+        <v>99.89063892999999</v>
       </c>
       <c r="P103" t="n">
-        <v>102.79528944</v>
+        <v>104.17321453</v>
       </c>
       <c r="Q103" t="n">
-        <v>99.74114677999999</v>
+        <v>102.80871216</v>
       </c>
       <c r="R103" t="n">
-        <v>100.1946793</v>
+        <v>100.00007871</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="inlineStr">
         <is>
-          <t>2019年7月</t>
+          <t>2019-10</t>
         </is>
       </c>
       <c r="B104" t="n">
-        <v>100.21339821</v>
+        <v>100.11840446</v>
       </c>
       <c r="C104" t="n">
-        <v>99.98250324999999</v>
+        <v>100.03001494</v>
       </c>
       <c r="D104" t="n">
-        <v>99.87173763</v>
+        <v>99.99768869</v>
       </c>
       <c r="E104" t="n">
-        <v>100.02346807</v>
+        <v>100.11780897</v>
       </c>
       <c r="F104" t="n">
-        <v>100.1971196</v>
+        <v>100.24320438</v>
       </c>
       <c r="G104" t="n">
-        <v>100.08258793</v>
+        <v>100.78420266</v>
       </c>
       <c r="H104" t="n">
-        <v>100.09665696</v>
+        <v>99.95957122</v>
       </c>
       <c r="I104" t="n">
-        <v>100.02881629</v>
+        <v>99.94057717</v>
       </c>
       <c r="J104" t="n">
-        <v>100.06544726</v>
+        <v>100.13638999</v>
       </c>
       <c r="K104" t="n">
-        <v>99.90939625999999</v>
+        <v>100.08957591</v>
       </c>
       <c r="L104" t="n">
-        <v>100.08589472</v>
+        <v>100.03384802</v>
       </c>
       <c r="M104" t="n">
-        <v>99.59963313999999</v>
+        <v>100.25024374</v>
       </c>
       <c r="N104" t="n">
-        <v>98.61081428999999</v>
+        <v>100.57424404</v>
       </c>
       <c r="O104" t="n">
-        <v>100.07211486</v>
+        <v>100.22393304</v>
       </c>
       <c r="P104" t="n">
-        <v>102.70527738</v>
+        <v>99.40886737</v>
       </c>
       <c r="Q104" t="n">
-        <v>100.73597396</v>
+        <v>102.93972637</v>
       </c>
       <c r="R104" t="n">
-        <v>100.31473016</v>
+        <v>100.24605928</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="inlineStr">
         <is>
-          <t>2019年8月</t>
+          <t>2019-11</t>
         </is>
       </c>
       <c r="B105" t="n">
-        <v>100.2489866</v>
+        <v>100.09734121</v>
       </c>
       <c r="C105" t="n">
-        <v>100.22437883</v>
+        <v>100.11245659</v>
       </c>
       <c r="D105" t="n">
-        <v>99.8131066</v>
+        <v>99.90736596000001</v>
       </c>
       <c r="E105" t="n">
-        <v>99.97042205</v>
+        <v>99.96059978</v>
       </c>
       <c r="F105" t="n">
-        <v>100.1603465</v>
+        <v>100.03882418</v>
       </c>
       <c r="G105" t="n">
-        <v>100.54123151</v>
+        <v>100.38677721</v>
       </c>
       <c r="H105" t="n">
-        <v>99.99713891</v>
+        <v>100.00759157</v>
       </c>
       <c r="I105" t="n">
-        <v>99.84070101</v>
+        <v>99.38366006</v>
       </c>
       <c r="J105" t="n">
-        <v>100.00519831</v>
+        <v>100.15037688</v>
       </c>
       <c r="K105" t="n">
-        <v>99.6994016</v>
+        <v>100.02574865</v>
       </c>
       <c r="L105" t="n">
-        <v>99.97664786999999</v>
+        <v>99.94279438</v>
       </c>
       <c r="M105" t="n">
-        <v>99.70004900000001</v>
+        <v>100.39425951</v>
       </c>
       <c r="N105" t="n">
-        <v>99.31025434999999</v>
+        <v>100.19475395</v>
       </c>
       <c r="O105" t="n">
-        <v>100.1566201</v>
+        <v>100.09863279</v>
       </c>
       <c r="P105" t="n">
-        <v>105.11486482</v>
+        <v>97.96150055</v>
       </c>
       <c r="Q105" t="n">
-        <v>102.39762663</v>
+        <v>101.672817</v>
       </c>
       <c r="R105" t="n">
-        <v>100.24071798</v>
+        <v>100.17874611</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="inlineStr">
         <is>
-          <t>2019年9月</t>
+          <t>2019-12</t>
         </is>
       </c>
       <c r="B106" t="n">
-        <v>100.14933696</v>
+        <v>100.05253848</v>
       </c>
       <c r="C106" t="n">
-        <v>100.72007518</v>
+        <v>99.98417588</v>
       </c>
       <c r="D106" t="n">
-        <v>100.04309935</v>
+        <v>99.78254162</v>
       </c>
       <c r="E106" t="n">
-        <v>100.08766404</v>
+        <v>99.97867719</v>
       </c>
       <c r="F106" t="n">
-        <v>100.12492644</v>
+        <v>100.05860449</v>
       </c>
       <c r="G106" t="n">
-        <v>100.83121373</v>
+        <v>100.06626703</v>
       </c>
       <c r="H106" t="n">
-        <v>100.01957915</v>
+        <v>99.98390666</v>
       </c>
       <c r="I106" t="n">
-        <v>99.71919121000001</v>
+        <v>100.06259431</v>
       </c>
       <c r="J106" t="n">
-        <v>100.01901727</v>
+        <v>100.19914867</v>
       </c>
       <c r="K106" t="n">
-        <v>100.02059794</v>
+        <v>100.19282482</v>
       </c>
       <c r="L106" t="n">
-        <v>100.03009913</v>
+        <v>100.11294758</v>
       </c>
       <c r="M106" t="n">
-        <v>100.85451156</v>
+        <v>99.78483016</v>
       </c>
       <c r="N106" t="n">
-        <v>100.09983966</v>
+        <v>101.44791558</v>
       </c>
       <c r="O106" t="n">
-        <v>99.89063892999999</v>
+        <v>100.02738901</v>
       </c>
       <c r="P106" t="n">
-        <v>104.17321453</v>
+        <v>99.73931516</v>
       </c>
       <c r="Q106" t="n">
-        <v>102.80871216</v>
+        <v>99.84263013</v>
       </c>
       <c r="R106" t="n">
-        <v>100.00007871</v>
+        <v>100.11498559</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="inlineStr">
         <is>
-          <t>2020年10月</t>
+          <t>2020-01</t>
         </is>
       </c>
       <c r="B107" t="n">
-        <v>100.1</v>
+        <v>99.75951975</v>
       </c>
       <c r="C107" t="n">
-        <v>100.1</v>
+        <v>100.3383579</v>
       </c>
       <c r="D107" t="n">
-        <v>100</v>
+        <v>99.94688725</v>
       </c>
       <c r="E107" t="n">
-        <v>100.1</v>
+        <v>100.09480153</v>
       </c>
       <c r="F107" t="n">
-        <v>100.1</v>
+        <v>100.17009489</v>
       </c>
       <c r="G107" t="n">
-        <v>99.59999999999999</v>
+        <v>101.02759831</v>
       </c>
       <c r="H107" t="n">
-        <v>100.3</v>
+        <v>99.90979625999999</v>
       </c>
       <c r="I107" t="n">
-        <v>100.2</v>
+        <v>99.74083009</v>
       </c>
       <c r="J107" t="n">
-        <v>100.2</v>
+        <v>100.07439463</v>
       </c>
       <c r="K107" t="n">
-        <v>100.2</v>
+        <v>99.92569585</v>
       </c>
       <c r="L107" t="n">
-        <v>100</v>
+        <v>99.99948028999999</v>
       </c>
       <c r="M107" t="n">
-        <v>100.4</v>
+        <v>99.38476872</v>
       </c>
       <c r="N107" t="n">
-        <v>99.2</v>
+        <v>101.87902964</v>
       </c>
       <c r="O107" t="n">
-        <v>100</v>
+        <v>99.7798239</v>
       </c>
       <c r="P107" t="n">
-        <v>97.90000000000001</v>
+        <v>103.27741771</v>
       </c>
       <c r="Q107" t="n">
-        <v>98.5</v>
+        <v>103.77620584</v>
       </c>
       <c r="R107" t="n">
-        <v>100.3</v>
+        <v>99.66627749</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="inlineStr">
         <is>
-          <t>2020年11月</t>
+          <t>2020-02</t>
         </is>
       </c>
       <c r="B108" t="n">
-        <v>100.1</v>
+        <v>100.1139342</v>
       </c>
       <c r="C108" t="n">
-        <v>100.1</v>
+        <v>99.99532293999999</v>
       </c>
       <c r="D108" t="n">
-        <v>100.3</v>
+        <v>100.02143858</v>
       </c>
       <c r="E108" t="n">
-        <v>100.1</v>
+        <v>100.0475669</v>
       </c>
       <c r="F108" t="n">
-        <v>99.90000000000001</v>
+        <v>100.11222143</v>
       </c>
       <c r="G108" t="n">
-        <v>99.59999999999999</v>
+        <v>100.63365102</v>
       </c>
       <c r="H108" t="n">
-        <v>100.1</v>
+        <v>100.03086673</v>
       </c>
       <c r="I108" t="n">
-        <v>99.8</v>
+        <v>99.98950798</v>
       </c>
       <c r="J108" t="n">
-        <v>100.1</v>
+        <v>100.00223773</v>
       </c>
       <c r="K108" t="n">
-        <v>100</v>
+        <v>100.10932975</v>
       </c>
       <c r="L108" t="n">
-        <v>100</v>
+        <v>100.2053027</v>
       </c>
       <c r="M108" t="n">
-        <v>100.4</v>
+        <v>99.71362490999999</v>
       </c>
       <c r="N108" t="n">
-        <v>100.3</v>
+        <v>96.68861553000001</v>
       </c>
       <c r="O108" t="n">
-        <v>99.90000000000001</v>
+        <v>100.00443786</v>
       </c>
       <c r="P108" t="n">
-        <v>98.90000000000001</v>
+        <v>100.33515763</v>
       </c>
       <c r="Q108" t="n">
-        <v>98.09999999999999</v>
+        <v>103.64721345</v>
       </c>
       <c r="R108" t="n">
-        <v>100.2</v>
+        <v>100.2892926</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="1" t="inlineStr">
         <is>
-          <t>2020年12月</t>
+          <t>2020-03</t>
         </is>
       </c>
       <c r="B109" t="n">
-        <v>100</v>
+        <v>100.17163897</v>
       </c>
       <c r="C109" t="n">
-        <v>100.1</v>
+        <v>100.11299436</v>
       </c>
       <c r="D109" t="n">
-        <v>100.2</v>
+        <v>99.91099296</v>
       </c>
       <c r="E109" t="n">
-        <v>100.1</v>
+        <v>99.88235050999999</v>
       </c>
       <c r="F109" t="n">
-        <v>100.1</v>
+        <v>99.87226065999999</v>
       </c>
       <c r="G109" t="n">
-        <v>100.9</v>
+        <v>98.65812825</v>
       </c>
       <c r="H109" t="n">
-        <v>100</v>
+        <v>99.93422888000001</v>
       </c>
       <c r="I109" t="n">
-        <v>100.1</v>
+        <v>99.80732949999999</v>
       </c>
       <c r="J109" t="n">
-        <v>100.2</v>
+        <v>99.78215787000001</v>
       </c>
       <c r="K109" t="n">
-        <v>100.1</v>
+        <v>100.4255573</v>
       </c>
       <c r="L109" t="n">
-        <v>100.1</v>
+        <v>99.998671</v>
       </c>
       <c r="M109" t="n">
-        <v>100</v>
+        <v>99.88248609</v>
       </c>
       <c r="N109" t="n">
-        <v>103.5</v>
+        <v>93.72979540999999</v>
       </c>
       <c r="O109" t="n">
-        <v>100.1</v>
+        <v>99.95130544</v>
       </c>
       <c r="P109" t="n">
-        <v>98.7</v>
+        <v>102.01186151</v>
       </c>
       <c r="Q109" t="n">
-        <v>102.4</v>
+        <v>96.71305135999999</v>
       </c>
       <c r="R109" t="n">
-        <v>100.1</v>
+        <v>100.12933406</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="inlineStr">
         <is>
-          <t>2020年1月</t>
+          <t>2020-04</t>
         </is>
       </c>
       <c r="B110" t="n">
-        <v>99.75951975</v>
+        <v>100.0400043</v>
       </c>
       <c r="C110" t="n">
-        <v>100.3383579</v>
+        <v>99.97058276</v>
       </c>
       <c r="D110" t="n">
-        <v>99.94688725</v>
+        <v>100.00901808</v>
       </c>
       <c r="E110" t="n">
-        <v>100.09480153</v>
+        <v>99.82947832000001</v>
       </c>
       <c r="F110" t="n">
-        <v>100.17009489</v>
+        <v>100.30292924</v>
       </c>
       <c r="G110" t="n">
-        <v>101.02759831</v>
+        <v>98.94659781</v>
       </c>
       <c r="H110" t="n">
-        <v>99.90979625999999</v>
+        <v>99.77046263</v>
       </c>
       <c r="I110" t="n">
-        <v>99.74083009</v>
+        <v>99.70218439</v>
       </c>
       <c r="J110" t="n">
-        <v>100.07439463</v>
+        <v>99.82215671</v>
       </c>
       <c r="K110" t="n">
-        <v>99.92569585</v>
+        <v>100.10087402</v>
       </c>
       <c r="L110" t="n">
-        <v>99.99948028999999</v>
+        <v>99.85267005999999</v>
       </c>
       <c r="M110" t="n">
-        <v>99.38476872</v>
+        <v>99.90178638</v>
       </c>
       <c r="N110" t="n">
-        <v>101.87902964</v>
+        <v>95.07472935</v>
       </c>
       <c r="O110" t="n">
-        <v>99.7798239</v>
+        <v>99.90794883</v>
       </c>
       <c r="P110" t="n">
-        <v>103.27741771</v>
+        <v>100.07874794</v>
       </c>
       <c r="Q110" t="n">
-        <v>103.77620584</v>
+        <v>97.49511643</v>
       </c>
       <c r="R110" t="n">
-        <v>99.66627749</v>
+        <v>100.04473202</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="1" t="inlineStr">
         <is>
-          <t>2020年2月</t>
+          <t>2020-05</t>
         </is>
       </c>
       <c r="B111" t="n">
-        <v>100.1139342</v>
+        <v>99.76978446</v>
       </c>
       <c r="C111" t="n">
-        <v>99.99532293999999</v>
+        <v>100.07457642</v>
       </c>
       <c r="D111" t="n">
-        <v>100.02143858</v>
+        <v>99.73333103</v>
       </c>
       <c r="E111" t="n">
-        <v>100.0475669</v>
+        <v>100.00446897</v>
       </c>
       <c r="F111" t="n">
-        <v>100.11222143</v>
+        <v>99.94913535000001</v>
       </c>
       <c r="G111" t="n">
-        <v>100.63365102</v>
+        <v>99.25367246</v>
       </c>
       <c r="H111" t="n">
-        <v>100.03086673</v>
+        <v>100.07509014</v>
       </c>
       <c r="I111" t="n">
-        <v>99.98950798</v>
+        <v>99.86354656</v>
       </c>
       <c r="J111" t="n">
-        <v>100.00223773</v>
+        <v>99.9901941</v>
       </c>
       <c r="K111" t="n">
-        <v>100.10932975</v>
+        <v>100.06434497</v>
       </c>
       <c r="L111" t="n">
-        <v>100.2053027</v>
+        <v>100.04758337</v>
       </c>
       <c r="M111" t="n">
-        <v>99.71362490999999</v>
+        <v>100.17314037</v>
       </c>
       <c r="N111" t="n">
-        <v>96.68861553000001</v>
+        <v>99.47294638</v>
       </c>
       <c r="O111" t="n">
-        <v>100.00443786</v>
+        <v>99.99337709</v>
       </c>
       <c r="P111" t="n">
-        <v>100.33515763</v>
+        <v>101.74558909</v>
       </c>
       <c r="Q111" t="n">
-        <v>103.64721345</v>
+        <v>97.16595399000001</v>
       </c>
       <c r="R111" t="n">
-        <v>100.2892926</v>
+        <v>99.92861546</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="1" t="inlineStr">
         <is>
-          <t>2020年3月</t>
+          <t>2020-06</t>
         </is>
       </c>
       <c r="B112" t="n">
-        <v>100.17163897</v>
+        <v>99.92098357</v>
       </c>
       <c r="C112" t="n">
-        <v>100.11299436</v>
+        <v>100.29016567</v>
       </c>
       <c r="D112" t="n">
-        <v>99.91099296</v>
+        <v>99.57776435</v>
       </c>
       <c r="E112" t="n">
-        <v>99.88235050999999</v>
+        <v>99.87329701</v>
       </c>
       <c r="F112" t="n">
-        <v>99.87226065999999</v>
+        <v>99.93708076999999</v>
       </c>
       <c r="G112" t="n">
-        <v>98.65812825</v>
+        <v>99.92487561999999</v>
       </c>
       <c r="H112" t="n">
-        <v>99.93422888000001</v>
+        <v>99.85020504000001</v>
       </c>
       <c r="I112" t="n">
-        <v>99.80732949999999</v>
+        <v>99.48206763</v>
       </c>
       <c r="J112" t="n">
-        <v>99.78215787000001</v>
+        <v>99.95124826</v>
       </c>
       <c r="K112" t="n">
-        <v>100.4255573</v>
+        <v>99.87624088</v>
       </c>
       <c r="L112" t="n">
-        <v>99.998671</v>
+        <v>99.9324889</v>
       </c>
       <c r="M112" t="n">
-        <v>99.88248609</v>
+        <v>99.72305564</v>
       </c>
       <c r="N112" t="n">
-        <v>93.72979540999999</v>
+        <v>99.94297271000001</v>
       </c>
       <c r="O112" t="n">
-        <v>99.95130544</v>
+        <v>99.81909349</v>
       </c>
       <c r="P112" t="n">
-        <v>102.01186151</v>
+        <v>101.37394655</v>
       </c>
       <c r="Q112" t="n">
-        <v>96.71305135999999</v>
+        <v>100.13508782</v>
       </c>
       <c r="R112" t="n">
-        <v>100.12933406</v>
+        <v>100.06785646</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="1" t="inlineStr">
         <is>
-          <t>2020年4月</t>
+          <t>2020-07</t>
         </is>
       </c>
       <c r="B113" t="n">
-        <v>100.0400043</v>
+        <v>100.02181067</v>
       </c>
       <c r="C113" t="n">
-        <v>99.97058276</v>
+        <v>100.03567989</v>
       </c>
       <c r="D113" t="n">
-        <v>100.00901808</v>
+        <v>99.76401623</v>
       </c>
       <c r="E113" t="n">
-        <v>99.82947832000001</v>
+        <v>99.91373211</v>
       </c>
       <c r="F113" t="n">
-        <v>100.30292924</v>
+        <v>100.10960153</v>
       </c>
       <c r="G113" t="n">
-        <v>98.94659781</v>
+        <v>100.62162486</v>
       </c>
       <c r="H113" t="n">
-        <v>99.77046263</v>
+        <v>100.05964602</v>
       </c>
       <c r="I113" t="n">
-        <v>99.70218439</v>
+        <v>99.98756186</v>
       </c>
       <c r="J113" t="n">
-        <v>99.82215671</v>
+        <v>99.93478837000001</v>
       </c>
       <c r="K113" t="n">
-        <v>100.10087402</v>
+        <v>99.79805224</v>
       </c>
       <c r="L113" t="n">
-        <v>99.85267005999999</v>
+        <v>100.00531673</v>
       </c>
       <c r="M113" t="n">
-        <v>99.90178638</v>
+        <v>99.46242282</v>
       </c>
       <c r="N113" t="n">
-        <v>95.07472935</v>
+        <v>101.16164921</v>
       </c>
       <c r="O113" t="n">
-        <v>99.90794883</v>
+        <v>99.96401836</v>
       </c>
       <c r="P113" t="n">
-        <v>100.07874794</v>
+        <v>102.81765509</v>
       </c>
       <c r="Q113" t="n">
-        <v>97.49511643</v>
+        <v>102.29622939</v>
       </c>
       <c r="R113" t="n">
-        <v>100.04473202</v>
+        <v>100.13325003</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="1" t="inlineStr">
         <is>
-          <t>2020年5月</t>
+          <t>2020-08</t>
         </is>
       </c>
       <c r="B114" t="n">
-        <v>99.76978446</v>
+        <v>100.11872624</v>
       </c>
       <c r="C114" t="n">
-        <v>100.07457642</v>
+        <v>100.06903309</v>
       </c>
       <c r="D114" t="n">
-        <v>99.73333103</v>
+        <v>100.02001296</v>
       </c>
       <c r="E114" t="n">
-        <v>100.00446897</v>
+        <v>99.95902981</v>
       </c>
       <c r="F114" t="n">
-        <v>99.94913535000001</v>
+        <v>100.11738288</v>
       </c>
       <c r="G114" t="n">
-        <v>99.25367246</v>
+        <v>100.50075924</v>
       </c>
       <c r="H114" t="n">
-        <v>100.07509014</v>
+        <v>100.05831364</v>
       </c>
       <c r="I114" t="n">
-        <v>99.86354656</v>
+        <v>99.92644907</v>
       </c>
       <c r="J114" t="n">
-        <v>99.9901941</v>
+        <v>100.01815701</v>
       </c>
       <c r="K114" t="n">
-        <v>100.06434497</v>
+        <v>99.95296106000001</v>
       </c>
       <c r="L114" t="n">
-        <v>100.04758337</v>
+        <v>99.96788678999999</v>
       </c>
       <c r="M114" t="n">
-        <v>100.17314037</v>
+        <v>99.80939178</v>
       </c>
       <c r="N114" t="n">
-        <v>99.47294638</v>
+        <v>100.41157835</v>
       </c>
       <c r="O114" t="n">
-        <v>99.99337709</v>
+        <v>99.89148794</v>
       </c>
       <c r="P114" t="n">
-        <v>101.74558909</v>
+        <v>108.28545745</v>
       </c>
       <c r="Q114" t="n">
-        <v>97.16595399000001</v>
+        <v>101.17389268</v>
       </c>
       <c r="R114" t="n">
-        <v>99.92861546</v>
+        <v>100.10144818</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="1" t="inlineStr">
         <is>
-          <t>2020年6月</t>
+          <t>2020-09</t>
         </is>
       </c>
       <c r="B115" t="n">
-        <v>99.92098357</v>
+        <v>100.00448801</v>
       </c>
       <c r="C115" t="n">
-        <v>100.29016567</v>
+        <v>100.13856497</v>
       </c>
       <c r="D115" t="n">
-        <v>99.57776435</v>
+        <v>99.97037629</v>
       </c>
       <c r="E115" t="n">
-        <v>99.87329701</v>
+        <v>100.06516812</v>
       </c>
       <c r="F115" t="n">
-        <v>99.93708076999999</v>
+        <v>100.15879901</v>
       </c>
       <c r="G115" t="n">
-        <v>99.92487561999999</v>
+        <v>100.05703332</v>
       </c>
       <c r="H115" t="n">
-        <v>99.85020504000001</v>
+        <v>99.8522663</v>
       </c>
       <c r="I115" t="n">
-        <v>99.48206763</v>
+        <v>99.97703660000001</v>
       </c>
       <c r="J115" t="n">
-        <v>99.95124826</v>
+        <v>99.99697608</v>
       </c>
       <c r="K115" t="n">
-        <v>99.87624088</v>
+        <v>99.94101255</v>
       </c>
       <c r="L115" t="n">
-        <v>99.9324889</v>
+        <v>99.84859278</v>
       </c>
       <c r="M115" t="n">
-        <v>99.72305564</v>
+        <v>100.98491838</v>
       </c>
       <c r="N115" t="n">
-        <v>99.94297271000001</v>
+        <v>99.58462276</v>
       </c>
       <c r="O115" t="n">
-        <v>99.81909349</v>
+        <v>100.06405185</v>
       </c>
       <c r="P115" t="n">
-        <v>101.37394655</v>
+        <v>96.67150957</v>
       </c>
       <c r="Q115" t="n">
-        <v>100.13508782</v>
+        <v>100.38958406</v>
       </c>
       <c r="R115" t="n">
-        <v>100.06785646</v>
+        <v>99.93815074</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="1" t="inlineStr">
         <is>
-          <t>2020年7月</t>
+          <t>2020-10</t>
         </is>
       </c>
       <c r="B116" t="n">
-        <v>100.02181067</v>
+        <v>100.1</v>
       </c>
       <c r="C116" t="n">
-        <v>100.03567989</v>
+        <v>100.1</v>
       </c>
       <c r="D116" t="n">
-        <v>99.76401623</v>
+        <v>100</v>
       </c>
       <c r="E116" t="n">
-        <v>99.91373211</v>
+        <v>100.1</v>
       </c>
       <c r="F116" t="n">
-        <v>100.10960153</v>
+        <v>100.1</v>
       </c>
       <c r="G116" t="n">
-        <v>100.62162486</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="H116" t="n">
-        <v>100.05964602</v>
+        <v>100.3</v>
       </c>
       <c r="I116" t="n">
-        <v>99.98756186</v>
+        <v>100.2</v>
       </c>
       <c r="J116" t="n">
-        <v>99.93478837000001</v>
+        <v>100.2</v>
       </c>
       <c r="K116" t="n">
-        <v>99.79805224</v>
+        <v>100.2</v>
       </c>
       <c r="L116" t="n">
-        <v>100.00531673</v>
+        <v>100</v>
       </c>
       <c r="M116" t="n">
-        <v>99.46242282</v>
+        <v>100.4</v>
       </c>
       <c r="N116" t="n">
-        <v>101.16164921</v>
+        <v>99.2</v>
       </c>
       <c r="O116" t="n">
-        <v>99.96401836</v>
+        <v>100</v>
       </c>
       <c r="P116" t="n">
-        <v>102.81765509</v>
+        <v>97.90000000000001</v>
       </c>
       <c r="Q116" t="n">
-        <v>102.29622939</v>
+        <v>98.5</v>
       </c>
       <c r="R116" t="n">
-        <v>100.13325003</v>
+        <v>100.3</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="1" t="inlineStr">
         <is>
-          <t>2020年8月</t>
+          <t>2020-11</t>
         </is>
       </c>
       <c r="B117" t="n">
-        <v>100.11872624</v>
+        <v>100.1</v>
       </c>
       <c r="C117" t="n">
-        <v>100.06903309</v>
+        <v>100.1</v>
       </c>
       <c r="D117" t="n">
-        <v>100.02001296</v>
+        <v>100.3</v>
       </c>
       <c r="E117" t="n">
-        <v>99.95902981</v>
+        <v>100.1</v>
       </c>
       <c r="F117" t="n">
-        <v>100.11738288</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="G117" t="n">
-        <v>100.50075924</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="H117" t="n">
-        <v>100.05831364</v>
+        <v>100.1</v>
       </c>
       <c r="I117" t="n">
-        <v>99.92644907</v>
+        <v>99.8</v>
       </c>
       <c r="J117" t="n">
-        <v>100.01815701</v>
+        <v>100.1</v>
       </c>
       <c r="K117" t="n">
-        <v>99.95296106000001</v>
+        <v>100</v>
       </c>
       <c r="L117" t="n">
-        <v>99.96788678999999</v>
+        <v>100</v>
       </c>
       <c r="M117" t="n">
-        <v>99.80939178</v>
+        <v>100.4</v>
       </c>
       <c r="N117" t="n">
-        <v>100.41157835</v>
+        <v>100.3</v>
       </c>
       <c r="O117" t="n">
-        <v>99.89148794</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="P117" t="n">
-        <v>108.28545745</v>
+        <v>98.90000000000001</v>
       </c>
       <c r="Q117" t="n">
-        <v>101.17389268</v>
+        <v>98.09999999999999</v>
       </c>
       <c r="R117" t="n">
-        <v>100.10144818</v>
+        <v>100.2</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="inlineStr">
         <is>
-          <t>2020年9月</t>
+          <t>2020-12</t>
         </is>
       </c>
       <c r="B118" t="n">
-        <v>100.00448801</v>
+        <v>100</v>
       </c>
       <c r="C118" t="n">
-        <v>100.13856497</v>
+        <v>100.1</v>
       </c>
       <c r="D118" t="n">
-        <v>99.97037629</v>
+        <v>100.2</v>
       </c>
       <c r="E118" t="n">
-        <v>100.06516812</v>
+        <v>100.1</v>
       </c>
       <c r="F118" t="n">
-        <v>100.15879901</v>
+        <v>100.1</v>
       </c>
       <c r="G118" t="n">
-        <v>100.05703332</v>
+        <v>100.9</v>
       </c>
       <c r="H118" t="n">
-        <v>99.8522663</v>
+        <v>100</v>
       </c>
       <c r="I118" t="n">
-        <v>99.97703660000001</v>
+        <v>100.1</v>
       </c>
       <c r="J118" t="n">
-        <v>99.99697608</v>
+        <v>100.2</v>
       </c>
       <c r="K118" t="n">
-        <v>99.94101255</v>
+        <v>100.1</v>
       </c>
       <c r="L118" t="n">
-        <v>99.84859278</v>
+        <v>100.1</v>
       </c>
       <c r="M118" t="n">
-        <v>100.98491838</v>
+        <v>100</v>
       </c>
       <c r="N118" t="n">
-        <v>99.58462276</v>
+        <v>103.5</v>
       </c>
       <c r="O118" t="n">
-        <v>100.06405185</v>
+        <v>100.1</v>
       </c>
       <c r="P118" t="n">
-        <v>96.67150957</v>
+        <v>98.7</v>
       </c>
       <c r="Q118" t="n">
-        <v>100.38958406</v>
+        <v>102.4</v>
       </c>
       <c r="R118" t="n">
-        <v>99.93815074</v>
+        <v>100.1</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="1" t="inlineStr">
         <is>
-          <t>2021年10月</t>
+          <t>2021-01</t>
         </is>
       </c>
       <c r="B119" t="n">
-        <v>100.1</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="C119" t="n">
         <v>100</v>
       </c>
       <c r="D119" t="n">
-        <v>100</v>
+        <v>100.1</v>
       </c>
       <c r="E119" t="n">
-        <v>100.1</v>
+        <v>100.2</v>
       </c>
       <c r="F119" t="n">
-        <v>100.9</v>
+        <v>99.5</v>
       </c>
       <c r="G119" t="n">
         <v>101</v>
       </c>
       <c r="H119" t="n">
-        <v>100.2</v>
+        <v>100.1</v>
       </c>
       <c r="I119" t="n">
+        <v>100.3</v>
+      </c>
+      <c r="J119" t="n">
         <v>100</v>
       </c>
-      <c r="J119" t="n">
-        <v>101.1</v>
-      </c>
       <c r="K119" t="n">
-        <v>100.9</v>
+        <v>100</v>
       </c>
       <c r="L119" t="n">
         <v>100.3</v>
       </c>
       <c r="M119" t="n">
-        <v>100.3</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="N119" t="n">
-        <v>105.7</v>
+        <v>103.6</v>
       </c>
       <c r="O119" t="n">
-        <v>100.3</v>
+        <v>100.1</v>
       </c>
       <c r="P119" t="n">
-        <v>98.8</v>
+        <v>101.2</v>
       </c>
       <c r="Q119" t="n">
-        <v>101.3</v>
+        <v>103.2</v>
       </c>
       <c r="R119" t="n">
-        <v>100.2</v>
+        <v>100</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="1" t="inlineStr">
         <is>
-          <t>2021年11月</t>
+          <t>2021-02</t>
         </is>
       </c>
       <c r="B120" t="n">
-        <v>99.59999999999999</v>
+        <v>100</v>
       </c>
       <c r="C120" t="n">
-        <v>100.2</v>
+        <v>100</v>
       </c>
       <c r="D120" t="n">
-        <v>99.8</v>
+        <v>100.3</v>
       </c>
       <c r="E120" t="n">
         <v>100.2</v>
       </c>
       <c r="F120" t="n">
-        <v>98.8</v>
+        <v>98.90000000000001</v>
       </c>
       <c r="G120" t="n">
+        <v>100.5</v>
+      </c>
+      <c r="H120" t="n">
         <v>100.4</v>
       </c>
-      <c r="H120" t="n">
-        <v>100.6</v>
-      </c>
       <c r="I120" t="n">
+        <v>99.90000000000001</v>
+      </c>
+      <c r="J120" t="n">
+        <v>100.1</v>
+      </c>
+      <c r="K120" t="n">
+        <v>100</v>
+      </c>
+      <c r="L120" t="n">
+        <v>99.90000000000001</v>
+      </c>
+      <c r="M120" t="n">
+        <v>99.5</v>
+      </c>
+      <c r="N120" t="n">
+        <v>102.4</v>
+      </c>
+      <c r="O120" t="n">
+        <v>100.1</v>
+      </c>
+      <c r="P120" t="n">
+        <v>98.09999999999999</v>
+      </c>
+      <c r="Q120" t="n">
+        <v>101.5</v>
+      </c>
+      <c r="R120" t="n">
         <v>99.8</v>
-      </c>
-      <c r="J120" t="n">
-        <v>100.5</v>
-      </c>
-      <c r="K120" t="n">
-        <v>99.09999999999999</v>
-      </c>
-      <c r="L120" t="n">
-        <v>98.90000000000001</v>
-      </c>
-      <c r="M120" t="n">
-        <v>100.2</v>
-      </c>
-      <c r="N120" t="n">
-        <v>101.8</v>
-      </c>
-      <c r="O120" t="n">
-        <v>100.3</v>
-      </c>
-      <c r="P120" t="n">
-        <v>101.5</v>
-      </c>
-      <c r="Q120" t="n">
-        <v>101.6</v>
-      </c>
-      <c r="R120" t="n">
-        <v>100.4</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="1" t="inlineStr">
         <is>
-          <t>2021年12月</t>
+          <t>2021-03</t>
         </is>
       </c>
       <c r="B121" t="n">
-        <v>99.90000000000001</v>
+        <v>100</v>
       </c>
       <c r="C121" t="n">
-        <v>99.90000000000001</v>
+        <v>100.2</v>
       </c>
       <c r="D121" t="n">
         <v>100</v>
       </c>
       <c r="E121" t="n">
-        <v>100</v>
+        <v>100.2</v>
       </c>
       <c r="F121" t="n">
+        <v>99.7</v>
+      </c>
+      <c r="G121" t="n">
+        <v>99.90000000000001</v>
+      </c>
+      <c r="H121" t="n">
         <v>100.3</v>
       </c>
-      <c r="G121" t="n">
-        <v>99.5</v>
-      </c>
-      <c r="H121" t="n">
+      <c r="I121" t="n">
+        <v>100.4</v>
+      </c>
+      <c r="J121" t="n">
+        <v>100.4</v>
+      </c>
+      <c r="K121" t="n">
+        <v>100.4</v>
+      </c>
+      <c r="L121" t="n">
         <v>99.90000000000001</v>
       </c>
-      <c r="I121" t="n">
-        <v>100.5</v>
-      </c>
-      <c r="J121" t="n">
-        <v>100.1</v>
-      </c>
-      <c r="K121" t="n">
-        <v>100.6</v>
-      </c>
-      <c r="L121" t="n">
+      <c r="M121" t="n">
         <v>100.4</v>
       </c>
-      <c r="M121" t="n">
-        <v>100.1</v>
-      </c>
       <c r="N121" t="n">
-        <v>95.90000000000001</v>
+        <v>104.2</v>
       </c>
       <c r="O121" t="n">
         <v>100.1</v>
       </c>
       <c r="P121" t="n">
-        <v>97.90000000000001</v>
+        <v>97.09999999999999</v>
       </c>
       <c r="Q121" t="n">
-        <v>99.7</v>
+        <v>97.2</v>
       </c>
       <c r="R121" t="n">
-        <v>100.1</v>
+        <v>100.5</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="1" t="inlineStr">
         <is>
-          <t>2021年1月</t>
+          <t>2021-04</t>
         </is>
       </c>
       <c r="B122" t="n">
+        <v>100</v>
+      </c>
+      <c r="C122" t="n">
+        <v>100.1</v>
+      </c>
+      <c r="D122" t="n">
+        <v>100</v>
+      </c>
+      <c r="E122" t="n">
         <v>99.90000000000001</v>
       </c>
-      <c r="C122" t="n">
+      <c r="F122" t="n">
+        <v>100.9</v>
+      </c>
+      <c r="G122" t="n">
+        <v>99.7</v>
+      </c>
+      <c r="H122" t="n">
         <v>100</v>
       </c>
-      <c r="D122" t="n">
-        <v>100.1</v>
-      </c>
-      <c r="E122" t="n">
+      <c r="I122" t="n">
+        <v>100.4</v>
+      </c>
+      <c r="J122" t="n">
+        <v>100.3</v>
+      </c>
+      <c r="K122" t="n">
+        <v>100.5</v>
+      </c>
+      <c r="L122" t="n">
+        <v>99.8</v>
+      </c>
+      <c r="M122" t="n">
+        <v>100</v>
+      </c>
+      <c r="N122" t="n">
+        <v>99.5</v>
+      </c>
+      <c r="O122" t="n">
         <v>100.2</v>
       </c>
-      <c r="F122" t="n">
-        <v>99.5</v>
-      </c>
-      <c r="G122" t="n">
-        <v>101</v>
-      </c>
-      <c r="H122" t="n">
-        <v>100.1</v>
-      </c>
-      <c r="I122" t="n">
-        <v>100.3</v>
-      </c>
-      <c r="J122" t="n">
-        <v>100</v>
-      </c>
-      <c r="K122" t="n">
-        <v>100</v>
-      </c>
-      <c r="L122" t="n">
-        <v>100.3</v>
-      </c>
-      <c r="M122" t="n">
-        <v>99.59999999999999</v>
-      </c>
-      <c r="N122" t="n">
-        <v>103.6</v>
-      </c>
-      <c r="O122" t="n">
-        <v>100.1</v>
-      </c>
       <c r="P122" t="n">
-        <v>101.2</v>
+        <v>102.1</v>
       </c>
       <c r="Q122" t="n">
-        <v>103.2</v>
+        <v>98.3</v>
       </c>
       <c r="R122" t="n">
-        <v>100</v>
+        <v>100.2</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="1" t="inlineStr">
         <is>
-          <t>2021年2月</t>
+          <t>2021-05</t>
         </is>
       </c>
       <c r="B123" t="n">
         <v>100</v>
       </c>
       <c r="C123" t="n">
-        <v>100</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="D123" t="n">
-        <v>100.3</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="E123" t="n">
         <v>100.2</v>
       </c>
       <c r="F123" t="n">
-        <v>98.90000000000001</v>
+        <v>99.09999999999999</v>
       </c>
       <c r="G123" t="n">
-        <v>100.5</v>
+        <v>100</v>
       </c>
       <c r="H123" t="n">
+        <v>100.2</v>
+      </c>
+      <c r="I123" t="n">
+        <v>100.3</v>
+      </c>
+      <c r="J123" t="n">
+        <v>100.3</v>
+      </c>
+      <c r="K123" t="n">
+        <v>100.1</v>
+      </c>
+      <c r="L123" t="n">
+        <v>99.8</v>
+      </c>
+      <c r="M123" t="n">
         <v>100.4</v>
       </c>
-      <c r="I123" t="n">
-        <v>99.90000000000001</v>
-      </c>
-      <c r="J123" t="n">
-        <v>100.1</v>
-      </c>
-      <c r="K123" t="n">
-        <v>100</v>
-      </c>
-      <c r="L123" t="n">
-        <v>99.90000000000001</v>
-      </c>
-      <c r="M123" t="n">
-        <v>99.5</v>
-      </c>
       <c r="N123" t="n">
-        <v>102.4</v>
+        <v>101.5</v>
       </c>
       <c r="O123" t="n">
         <v>100.1</v>
       </c>
       <c r="P123" t="n">
-        <v>98.09999999999999</v>
+        <v>101.8</v>
       </c>
       <c r="Q123" t="n">
-        <v>101.5</v>
+        <v>98.90000000000001</v>
       </c>
       <c r="R123" t="n">
-        <v>99.8</v>
+        <v>100.1</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="1" t="inlineStr">
         <is>
-          <t>2021年3月</t>
+          <t>2021-06</t>
         </is>
       </c>
       <c r="B124" t="n">
+        <v>100.1</v>
+      </c>
+      <c r="C124" t="n">
+        <v>100.1</v>
+      </c>
+      <c r="D124" t="n">
+        <v>99.8</v>
+      </c>
+      <c r="E124" t="n">
         <v>100</v>
       </c>
-      <c r="C124" t="n">
+      <c r="F124" t="n">
+        <v>99.40000000000001</v>
+      </c>
+      <c r="G124" t="n">
+        <v>99.8</v>
+      </c>
+      <c r="H124" t="n">
+        <v>100.1</v>
+      </c>
+      <c r="I124" t="n">
+        <v>99.90000000000001</v>
+      </c>
+      <c r="J124" t="n">
+        <v>100.1</v>
+      </c>
+      <c r="K124" t="n">
+        <v>99.59999999999999</v>
+      </c>
+      <c r="L124" t="n">
+        <v>100</v>
+      </c>
+      <c r="M124" t="n">
+        <v>99.7</v>
+      </c>
+      <c r="N124" t="n">
+        <v>101.6</v>
+      </c>
+      <c r="O124" t="n">
+        <v>100</v>
+      </c>
+      <c r="P124" t="n">
+        <v>101</v>
+      </c>
+      <c r="Q124" t="n">
+        <v>98.40000000000001</v>
+      </c>
+      <c r="R124" t="n">
         <v>100.2</v>
-      </c>
-      <c r="D124" t="n">
-        <v>100</v>
-      </c>
-      <c r="E124" t="n">
-        <v>100.2</v>
-      </c>
-      <c r="F124" t="n">
-        <v>99.7</v>
-      </c>
-      <c r="G124" t="n">
-        <v>99.90000000000001</v>
-      </c>
-      <c r="H124" t="n">
-        <v>100.3</v>
-      </c>
-      <c r="I124" t="n">
-        <v>100.4</v>
-      </c>
-      <c r="J124" t="n">
-        <v>100.4</v>
-      </c>
-      <c r="K124" t="n">
-        <v>100.4</v>
-      </c>
-      <c r="L124" t="n">
-        <v>99.90000000000001</v>
-      </c>
-      <c r="M124" t="n">
-        <v>100.4</v>
-      </c>
-      <c r="N124" t="n">
-        <v>104.2</v>
-      </c>
-      <c r="O124" t="n">
-        <v>100.1</v>
-      </c>
-      <c r="P124" t="n">
-        <v>97.09999999999999</v>
-      </c>
-      <c r="Q124" t="n">
-        <v>97.2</v>
-      </c>
-      <c r="R124" t="n">
-        <v>100.5</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="1" t="inlineStr">
         <is>
-          <t>2021年4月</t>
+          <t>2021-07</t>
         </is>
       </c>
       <c r="B125" t="n">
-        <v>100</v>
+        <v>100.1</v>
       </c>
       <c r="C125" t="n">
+        <v>100.3</v>
+      </c>
+      <c r="D125" t="n">
         <v>100.1</v>
       </c>
-      <c r="D125" t="n">
-        <v>100</v>
-      </c>
       <c r="E125" t="n">
+        <v>100.1</v>
+      </c>
+      <c r="F125" t="n">
+        <v>99.5</v>
+      </c>
+      <c r="G125" t="n">
+        <v>100.3</v>
+      </c>
+      <c r="H125" t="n">
+        <v>100.3</v>
+      </c>
+      <c r="I125" t="n">
+        <v>100.6</v>
+      </c>
+      <c r="J125" t="n">
+        <v>100.1</v>
+      </c>
+      <c r="K125" t="n">
+        <v>100.8</v>
+      </c>
+      <c r="L125" t="n">
+        <v>101.1</v>
+      </c>
+      <c r="M125" t="n">
+        <v>99.59999999999999</v>
+      </c>
+      <c r="N125" t="n">
+        <v>102.6</v>
+      </c>
+      <c r="O125" t="n">
         <v>99.90000000000001</v>
       </c>
-      <c r="F125" t="n">
-        <v>100.9</v>
-      </c>
-      <c r="G125" t="n">
-        <v>99.7</v>
-      </c>
-      <c r="H125" t="n">
-        <v>100</v>
-      </c>
-      <c r="I125" t="n">
-        <v>100.4</v>
-      </c>
-      <c r="J125" t="n">
+      <c r="P125" t="n">
+        <v>97.40000000000001</v>
+      </c>
+      <c r="Q125" t="n">
+        <v>99.8</v>
+      </c>
+      <c r="R125" t="n">
         <v>100.3</v>
-      </c>
-      <c r="K125" t="n">
-        <v>100.5</v>
-      </c>
-      <c r="L125" t="n">
-        <v>99.8</v>
-      </c>
-      <c r="M125" t="n">
-        <v>100</v>
-      </c>
-      <c r="N125" t="n">
-        <v>99.5</v>
-      </c>
-      <c r="O125" t="n">
-        <v>100.2</v>
-      </c>
-      <c r="P125" t="n">
-        <v>102.1</v>
-      </c>
-      <c r="Q125" t="n">
-        <v>98.3</v>
-      </c>
-      <c r="R125" t="n">
-        <v>100.2</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="1" t="inlineStr">
         <is>
-          <t>2021年5月</t>
+          <t>2021-08</t>
         </is>
       </c>
       <c r="B126" t="n">
         <v>100</v>
       </c>
       <c r="C126" t="n">
-        <v>99.59999999999999</v>
+        <v>100</v>
       </c>
       <c r="D126" t="n">
-        <v>99.90000000000001</v>
+        <v>100</v>
       </c>
       <c r="E126" t="n">
-        <v>100.2</v>
+        <v>100</v>
       </c>
       <c r="F126" t="n">
-        <v>99.09999999999999</v>
+        <v>101.5</v>
       </c>
       <c r="G126" t="n">
         <v>100</v>
       </c>
       <c r="H126" t="n">
+        <v>100.1</v>
+      </c>
+      <c r="I126" t="n">
+        <v>99.90000000000001</v>
+      </c>
+      <c r="J126" t="n">
         <v>100.2</v>
       </c>
-      <c r="I126" t="n">
-        <v>100.3</v>
-      </c>
-      <c r="J126" t="n">
-        <v>100.3</v>
-      </c>
       <c r="K126" t="n">
-        <v>100.1</v>
+        <v>99.40000000000001</v>
       </c>
       <c r="L126" t="n">
-        <v>99.8</v>
+        <v>99.2</v>
       </c>
       <c r="M126" t="n">
-        <v>100.4</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="N126" t="n">
-        <v>101.5</v>
+        <v>99.5</v>
       </c>
       <c r="O126" t="n">
-        <v>100.1</v>
+        <v>100</v>
       </c>
       <c r="P126" t="n">
-        <v>101.8</v>
+        <v>97.7</v>
       </c>
       <c r="Q126" t="n">
-        <v>98.90000000000001</v>
+        <v>100.6</v>
       </c>
       <c r="R126" t="n">
         <v>100.1</v>
@@ -7773,233 +7773,233 @@
     <row r="127">
       <c r="A127" s="1" t="inlineStr">
         <is>
-          <t>2021年6月</t>
+          <t>2021-09</t>
         </is>
       </c>
       <c r="B127" t="n">
+        <v>100</v>
+      </c>
+      <c r="C127" t="n">
+        <v>100.5</v>
+      </c>
+      <c r="D127" t="n">
         <v>100.1</v>
-      </c>
-      <c r="C127" t="n">
-        <v>100.1</v>
-      </c>
-      <c r="D127" t="n">
-        <v>99.8</v>
       </c>
       <c r="E127" t="n">
         <v>100</v>
       </c>
       <c r="F127" t="n">
-        <v>99.40000000000001</v>
+        <v>99.09999999999999</v>
       </c>
       <c r="G127" t="n">
-        <v>99.8</v>
+        <v>100.1</v>
       </c>
       <c r="H127" t="n">
+        <v>100</v>
+      </c>
+      <c r="I127" t="n">
         <v>100.1</v>
       </c>
-      <c r="I127" t="n">
+      <c r="J127" t="n">
+        <v>100.4</v>
+      </c>
+      <c r="K127" t="n">
+        <v>100.5</v>
+      </c>
+      <c r="L127" t="n">
+        <v>100.3</v>
+      </c>
+      <c r="M127" t="n">
+        <v>101</v>
+      </c>
+      <c r="N127" t="n">
+        <v>100.8</v>
+      </c>
+      <c r="O127" t="n">
         <v>99.90000000000001</v>
       </c>
-      <c r="J127" t="n">
-        <v>100.1</v>
-      </c>
-      <c r="K127" t="n">
-        <v>99.59999999999999</v>
-      </c>
-      <c r="L127" t="n">
-        <v>100</v>
-      </c>
-      <c r="M127" t="n">
-        <v>99.7</v>
-      </c>
-      <c r="N127" t="n">
-        <v>101.6</v>
-      </c>
-      <c r="O127" t="n">
-        <v>100</v>
-      </c>
       <c r="P127" t="n">
-        <v>101</v>
+        <v>100.7</v>
       </c>
       <c r="Q127" t="n">
-        <v>98.40000000000001</v>
+        <v>99.5</v>
       </c>
       <c r="R127" t="n">
-        <v>100.2</v>
+        <v>99.90000000000001</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="1" t="inlineStr">
         <is>
-          <t>2021年7月</t>
+          <t>2021-10</t>
         </is>
       </c>
       <c r="B128" t="n">
         <v>100.1</v>
       </c>
       <c r="C128" t="n">
-        <v>100.3</v>
+        <v>100</v>
       </c>
       <c r="D128" t="n">
-        <v>100.1</v>
+        <v>100</v>
       </c>
       <c r="E128" t="n">
         <v>100.1</v>
       </c>
       <c r="F128" t="n">
-        <v>99.5</v>
+        <v>100.9</v>
       </c>
       <c r="G128" t="n">
+        <v>101</v>
+      </c>
+      <c r="H128" t="n">
+        <v>100.2</v>
+      </c>
+      <c r="I128" t="n">
+        <v>100</v>
+      </c>
+      <c r="J128" t="n">
+        <v>101.1</v>
+      </c>
+      <c r="K128" t="n">
+        <v>100.9</v>
+      </c>
+      <c r="L128" t="n">
         <v>100.3</v>
       </c>
-      <c r="H128" t="n">
+      <c r="M128" t="n">
         <v>100.3</v>
       </c>
-      <c r="I128" t="n">
-        <v>100.6</v>
-      </c>
-      <c r="J128" t="n">
-        <v>100.1</v>
-      </c>
-      <c r="K128" t="n">
-        <v>100.8</v>
-      </c>
-      <c r="L128" t="n">
-        <v>101.1</v>
-      </c>
-      <c r="M128" t="n">
-        <v>99.59999999999999</v>
-      </c>
       <c r="N128" t="n">
-        <v>102.6</v>
+        <v>105.7</v>
       </c>
       <c r="O128" t="n">
-        <v>99.90000000000001</v>
+        <v>100.3</v>
       </c>
       <c r="P128" t="n">
-        <v>97.40000000000001</v>
+        <v>98.8</v>
       </c>
       <c r="Q128" t="n">
-        <v>99.8</v>
+        <v>101.3</v>
       </c>
       <c r="R128" t="n">
-        <v>100.3</v>
+        <v>100.2</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="1" t="inlineStr">
         <is>
-          <t>2021年8月</t>
+          <t>2021-11</t>
         </is>
       </c>
       <c r="B129" t="n">
-        <v>100</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="C129" t="n">
-        <v>100</v>
+        <v>100.2</v>
       </c>
       <c r="D129" t="n">
-        <v>100</v>
+        <v>99.8</v>
       </c>
       <c r="E129" t="n">
-        <v>100</v>
+        <v>100.2</v>
       </c>
       <c r="F129" t="n">
+        <v>98.8</v>
+      </c>
+      <c r="G129" t="n">
+        <v>100.4</v>
+      </c>
+      <c r="H129" t="n">
+        <v>100.6</v>
+      </c>
+      <c r="I129" t="n">
+        <v>99.8</v>
+      </c>
+      <c r="J129" t="n">
+        <v>100.5</v>
+      </c>
+      <c r="K129" t="n">
+        <v>99.09999999999999</v>
+      </c>
+      <c r="L129" t="n">
+        <v>98.90000000000001</v>
+      </c>
+      <c r="M129" t="n">
+        <v>100.2</v>
+      </c>
+      <c r="N129" t="n">
+        <v>101.8</v>
+      </c>
+      <c r="O129" t="n">
+        <v>100.3</v>
+      </c>
+      <c r="P129" t="n">
         <v>101.5</v>
       </c>
-      <c r="G129" t="n">
-        <v>100</v>
-      </c>
-      <c r="H129" t="n">
-        <v>100.1</v>
-      </c>
-      <c r="I129" t="n">
-        <v>99.90000000000001</v>
-      </c>
-      <c r="J129" t="n">
-        <v>100.2</v>
-      </c>
-      <c r="K129" t="n">
-        <v>99.40000000000001</v>
-      </c>
-      <c r="L129" t="n">
-        <v>99.2</v>
-      </c>
-      <c r="M129" t="n">
-        <v>99.90000000000001</v>
-      </c>
-      <c r="N129" t="n">
-        <v>99.5</v>
-      </c>
-      <c r="O129" t="n">
-        <v>100</v>
-      </c>
-      <c r="P129" t="n">
-        <v>97.7</v>
-      </c>
       <c r="Q129" t="n">
-        <v>100.6</v>
+        <v>101.6</v>
       </c>
       <c r="R129" t="n">
-        <v>100.1</v>
+        <v>100.4</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="1" t="inlineStr">
         <is>
-          <t>2021年9月</t>
+          <t>2021-12</t>
         </is>
       </c>
       <c r="B130" t="n">
+        <v>99.90000000000001</v>
+      </c>
+      <c r="C130" t="n">
+        <v>99.90000000000001</v>
+      </c>
+      <c r="D130" t="n">
         <v>100</v>
-      </c>
-      <c r="C130" t="n">
-        <v>100.5</v>
-      </c>
-      <c r="D130" t="n">
-        <v>100.1</v>
       </c>
       <c r="E130" t="n">
         <v>100</v>
       </c>
       <c r="F130" t="n">
-        <v>99.09999999999999</v>
+        <v>100.3</v>
       </c>
       <c r="G130" t="n">
+        <v>99.5</v>
+      </c>
+      <c r="H130" t="n">
+        <v>99.90000000000001</v>
+      </c>
+      <c r="I130" t="n">
+        <v>100.5</v>
+      </c>
+      <c r="J130" t="n">
         <v>100.1</v>
       </c>
-      <c r="H130" t="n">
-        <v>100</v>
-      </c>
-      <c r="I130" t="n">
+      <c r="K130" t="n">
+        <v>100.6</v>
+      </c>
+      <c r="L130" t="n">
+        <v>100.4</v>
+      </c>
+      <c r="M130" t="n">
         <v>100.1</v>
       </c>
-      <c r="J130" t="n">
-        <v>100.4</v>
-      </c>
-      <c r="K130" t="n">
-        <v>100.5</v>
-      </c>
-      <c r="L130" t="n">
-        <v>100.3</v>
-      </c>
-      <c r="M130" t="n">
-        <v>101</v>
-      </c>
       <c r="N130" t="n">
-        <v>100.8</v>
+        <v>95.90000000000001</v>
       </c>
       <c r="O130" t="n">
-        <v>99.90000000000001</v>
+        <v>100.1</v>
       </c>
       <c r="P130" t="n">
-        <v>100.7</v>
+        <v>97.90000000000001</v>
       </c>
       <c r="Q130" t="n">
-        <v>99.5</v>
+        <v>99.7</v>
       </c>
       <c r="R130" t="n">
-        <v>99.90000000000001</v>
+        <v>100.1</v>
       </c>
     </row>
   </sheetData>
